--- a/OREI_files/10-herd data/10herd_data_sharing_11_30_21.xlsx
+++ b/OREI_files/10-herd data/10herd_data_sharing_11_30_21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:40009_{4E471A33-58E1-4D19-90EB-CEBAB155844B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFA63EF8-483E-49C4-AD96-FFD897819545}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:40009_{4E471A33-58E1-4D19-90EB-CEBAB155844B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDE3A6C3-A67C-4023-A834-CCFE23B3D25E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary for John 11.30" sheetId="16" r:id="rId1"/>
@@ -23,9 +23,12 @@
     <sheet name="all_path4" sheetId="5" r:id="rId8"/>
     <sheet name="ALL Staph, ALL path columns" sheetId="3" r:id="rId9"/>
     <sheet name="IMI Staph, all path columns" sheetId="9" r:id="rId10"/>
-    <sheet name="path1 IMI ID's" sheetId="1" r:id="rId11"/>
-    <sheet name="path2 IMI ID's" sheetId="2" r:id="rId12"/>
-    <sheet name="path3 IMI ID's" sheetId="8" r:id="rId13"/>
+    <sheet name="path1 IMI ID's 6.2.22" sheetId="17" r:id="rId11"/>
+    <sheet name="path2 IMI ID's 6.2.22" sheetId="18" r:id="rId12"/>
+    <sheet name="path3 IMI ID's 6.2.22" sheetId="19" r:id="rId13"/>
+    <sheet name="path1 IMI ID's" sheetId="1" r:id="rId14"/>
+    <sheet name="path2 IMI ID's" sheetId="2" r:id="rId15"/>
+    <sheet name="path3 IMI ID's" sheetId="8" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12826" uniqueCount="1168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12939" uniqueCount="1169">
   <si>
     <t>Freq</t>
   </si>
@@ -3570,6 +3573,9 @@
   </si>
   <si>
     <t>Total num species ID'd by MALDI (list to left)</t>
+  </si>
+  <si>
+    <t>count of staph:</t>
   </si>
 </sst>
 </file>
@@ -4274,21 +4280,6 @@
     <xf numFmtId="0" fontId="18" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4323,6 +4314,21 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -4681,15 +4687,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6550C7FA-AF16-417B-B792-ED5EF4B45294}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.1796875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="37.1796875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="19" customWidth="1"/>
     <col min="4" max="4" width="14.1796875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="15.6328125" customWidth="1"/>
@@ -4699,10 +4705,10 @@
       <c r="A1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="23" t="s">
         <v>1167</v>
       </c>
-      <c r="C1" s="24">
+      <c r="C1" s="19">
         <v>71</v>
       </c>
     </row>
@@ -4710,10 +4716,10 @@
       <c r="A2" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="23" t="s">
         <v>1149</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="20">
         <v>1276</v>
       </c>
     </row>
@@ -4721,10 +4727,10 @@
       <c r="A3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="23" t="s">
         <v>1150</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="21">
         <v>45</v>
       </c>
     </row>
@@ -4732,10 +4738,10 @@
       <c r="A4" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="23" t="s">
         <v>1151</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="22">
         <v>1321</v>
       </c>
     </row>
@@ -4743,10 +4749,10 @@
       <c r="A5" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="24" t="s">
         <v>1153</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="19" t="s">
         <v>1152</v>
       </c>
     </row>
@@ -4759,51 +4765,51 @@
       <c r="A7" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="27" t="s">
         <v>1166</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="28" t="s">
         <v>1154</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="29" t="s">
         <v>1155</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="29" t="s">
         <v>1156</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="36" t="s">
         <v>1162</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="36" t="s">
         <v>1165</v>
       </c>
     </row>
@@ -4811,7 +4817,7 @@
       <c r="A11" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="18" t="s">
         <v>1157</v>
       </c>
       <c r="C11">
@@ -4820,10 +4826,10 @@
       <c r="D11">
         <v>105</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="30">
         <v>191</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="31">
         <v>40</v>
       </c>
     </row>
@@ -4831,10 +4837,10 @@
       <c r="A12" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="18"/>
       <c r="C12"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -4842,30 +4848,30 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="28" t="s">
         <v>1158</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="29" t="s">
         <v>1155</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="29" t="s">
         <v>1156</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="18" t="s">
         <v>1157</v>
       </c>
       <c r="C15">
@@ -4874,10 +4880,10 @@
       <c r="D15">
         <v>191</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="32">
         <v>387</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="33">
         <v>350</v>
       </c>
     </row>
@@ -4885,10 +4891,10 @@
       <c r="A16" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="18"/>
       <c r="C16"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
@@ -4897,30 +4903,30 @@
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="28" t="s">
         <v>1163</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="29" t="s">
         <v>1155</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="29" t="s">
         <v>1156</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="18" t="s">
         <v>1157</v>
       </c>
       <c r="C19">
@@ -4929,10 +4935,10 @@
       <c r="D19">
         <v>54</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="32">
         <v>97</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="33">
         <v>10</v>
       </c>
     </row>
@@ -4940,10 +4946,10 @@
       <c r="A20" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="18"/>
       <c r="C20"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="38"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
@@ -4951,30 +4957,30 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="28" t="s">
         <v>1159</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="29" t="s">
         <v>1155</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="29" t="s">
         <v>1156</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="18" t="s">
         <v>1164</v>
       </c>
       <c r="C23">
@@ -4983,10 +4989,10 @@
       <c r="D23">
         <v>47</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="32">
         <v>97</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="33">
         <v>3</v>
       </c>
     </row>
@@ -4994,7 +5000,7 @@
       <c r="A24" t="s">
         <v>118</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="18" t="s">
         <v>1160</v>
       </c>
       <c r="C24">
@@ -5003,10 +5009,10 @@
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="32">
         <v>11</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="33">
         <v>0</v>
       </c>
     </row>
@@ -5014,7 +5020,7 @@
       <c r="A25" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="18" t="s">
         <v>1161</v>
       </c>
       <c r="C25">
@@ -5023,10 +5029,10 @@
       <c r="D25">
         <v>23</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="32">
         <v>43</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5496,11 +5502,940 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46A7BD4-9ADE-4593-8C58-88913EE33879}">
+  <dimension ref="A1:E69"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="9">
+        <v>427</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="9">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E11">
+        <f>SUM(B2,B3,B5,B6,B7,B11,B12,B15,B16,B35,B36,B37,B38,B54,B55,B56,B57,B58,B59,B60)</f>
+        <v>743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C69">
+        <f>SUM(B2:B67)</f>
+        <v>1051</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF032BD-EDD1-4883-AEE5-89B557ABE4ED}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>920</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="9">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F8">
+        <f>SUM(B4,B7,B8,B9,B11,B28,B29)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C33">
+        <f>SUM(B2:B31)</f>
+        <v>1051</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47256A4A-52D0-4111-A68B-BE7A187F61AB}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>1045</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <f>SUM(B2:B7)</f>
+        <v>1051</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6049,12 +6984,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A2" sqref="A2:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6317,12 +7252,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9513,7 +10448,7 @@
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="37" t="s">
         <v>1013</v>
       </c>
       <c r="B3" t="s">
@@ -9596,7 +10531,7 @@
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
+      <c r="A4" s="37"/>
       <c r="B4" t="s">
         <v>834</v>
       </c>
@@ -9680,7 +10615,7 @@
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
+      <c r="A5" s="37"/>
       <c r="B5" t="s">
         <v>957</v>
       </c>
@@ -51979,7 +52914,7 @@
       </c>
     </row>
     <row r="588" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A588" s="19" t="s">
+      <c r="A588" s="38" t="s">
         <v>1062</v>
       </c>
       <c r="B588" t="s">
@@ -52065,7 +53000,7 @@
       </c>
     </row>
     <row r="589" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A589" s="19"/>
+      <c r="A589" s="38"/>
       <c r="B589" t="s">
         <v>249</v>
       </c>
@@ -52146,7 +53081,7 @@
       </c>
     </row>
     <row r="590" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A590" s="19"/>
+      <c r="A590" s="38"/>
       <c r="B590" t="s">
         <v>249</v>
       </c>
@@ -52233,7 +53168,7 @@
       </c>
     </row>
     <row r="591" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A591" s="19"/>
+      <c r="A591" s="38"/>
       <c r="B591" t="s">
         <v>198</v>
       </c>
@@ -54195,7 +55130,7 @@
       </c>
     </row>
     <row r="615" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A615" s="20" t="s">
+      <c r="A615" s="39" t="s">
         <v>1063</v>
       </c>
       <c r="B615" t="s">
@@ -54272,7 +55207,7 @@
       </c>
     </row>
     <row r="616" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A616" s="21"/>
+      <c r="A616" s="40"/>
       <c r="B616" t="s">
         <v>136</v>
       </c>
@@ -54344,7 +55279,7 @@
       </c>
     </row>
     <row r="617" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A617" s="21"/>
+      <c r="A617" s="40"/>
       <c r="B617" t="s">
         <v>136</v>
       </c>
@@ -54669,7 +55604,7 @@
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="37" t="s">
         <v>1013</v>
       </c>
       <c r="B3" t="s">
@@ -54755,7 +55690,7 @@
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
+      <c r="A4" s="37"/>
       <c r="B4" t="s">
         <v>145</v>
       </c>
@@ -54839,7 +55774,7 @@
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
+      <c r="A5" s="37"/>
       <c r="B5" t="s">
         <v>834</v>
       </c>
@@ -54923,7 +55858,7 @@
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
+      <c r="A6" s="37"/>
       <c r="B6" t="s">
         <v>239</v>
       </c>
@@ -56783,7 +57718,7 @@
       </c>
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="38" t="s">
         <v>1062</v>
       </c>
       <c r="B28" t="s">
@@ -56866,7 +57801,7 @@
       </c>
     </row>
     <row r="29" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A29" s="19"/>
+      <c r="A29" s="38"/>
       <c r="B29" t="s">
         <v>834</v>
       </c>
@@ -56947,7 +57882,7 @@
       </c>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A30" s="19"/>
+      <c r="A30" s="38"/>
       <c r="B30" t="s">
         <v>242</v>
       </c>
@@ -58743,7 +59678,7 @@
       </c>
     </row>
     <row r="52" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="41" t="s">
         <v>1133</v>
       </c>
       <c r="B52" t="s">
@@ -58829,7 +59764,7 @@
       </c>
     </row>
     <row r="53" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A53" s="22"/>
+      <c r="A53" s="41"/>
       <c r="B53" t="s">
         <v>428</v>
       </c>
@@ -58913,7 +59848,7 @@
       </c>
     </row>
     <row r="54" spans="1:48" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="22"/>
+      <c r="A54" s="41"/>
       <c r="B54" s="11" t="s">
         <v>428</v>
       </c>
@@ -59004,8 +59939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80:G86"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -60125,8 +61060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/OREI_files/10-herd data/10herd_data_sharing_11_30_21.xlsx
+++ b/OREI_files/10-herd data/10herd_data_sharing_11_30_21.xlsx
@@ -1,34 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:40009_{4E471A33-58E1-4D19-90EB-CEBAB155844B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDE3A6C3-A67C-4023-A834-CCFE23B3D25E}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="13_ncr:40009_{4E471A33-58E1-4D19-90EB-CEBAB155844B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF7BF013-DB28-44A0-A1AE-22FB7D28D5C0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary for John 11.30" sheetId="16" r:id="rId1"/>
-    <sheet name="&quot;Staph species&quot;" sheetId="12" r:id="rId2"/>
-    <sheet name="cns_IMI_path1" sheetId="14" r:id="rId3"/>
-    <sheet name="cns_IMI_path2" sheetId="15" r:id="rId4"/>
-    <sheet name="all_path1" sheetId="6" r:id="rId5"/>
-    <sheet name="all_path2" sheetId="7" r:id="rId6"/>
-    <sheet name="all_path3" sheetId="4" r:id="rId7"/>
-    <sheet name="all_path4" sheetId="5" r:id="rId8"/>
-    <sheet name="ALL Staph, ALL path columns" sheetId="3" r:id="rId9"/>
-    <sheet name="IMI Staph, all path columns" sheetId="9" r:id="rId10"/>
-    <sheet name="path1 IMI ID's 6.2.22" sheetId="17" r:id="rId11"/>
-    <sheet name="path2 IMI ID's 6.2.22" sheetId="18" r:id="rId12"/>
-    <sheet name="path3 IMI ID's 6.2.22" sheetId="19" r:id="rId13"/>
-    <sheet name="path1 IMI ID's" sheetId="1" r:id="rId14"/>
-    <sheet name="path2 IMI ID's" sheetId="2" r:id="rId15"/>
-    <sheet name="path3 IMI ID's" sheetId="8" r:id="rId16"/>
+    <sheet name="staph sp num IMI table" sheetId="20" r:id="rId1"/>
+    <sheet name="Summary for John 11.30" sheetId="16" r:id="rId2"/>
+    <sheet name="&quot;Staph species&quot;" sheetId="12" r:id="rId3"/>
+    <sheet name="cns_IMI_path1" sheetId="14" r:id="rId4"/>
+    <sheet name="cns_IMI_path2" sheetId="15" r:id="rId5"/>
+    <sheet name="all_path1" sheetId="6" r:id="rId6"/>
+    <sheet name="all_path2" sheetId="7" r:id="rId7"/>
+    <sheet name="all_path3" sheetId="4" r:id="rId8"/>
+    <sheet name="all_path4" sheetId="5" r:id="rId9"/>
+    <sheet name="ALL Staph, ALL path columns" sheetId="3" r:id="rId10"/>
+    <sheet name="IMI Staph, all path columns" sheetId="9" r:id="rId11"/>
+    <sheet name="path1 IMI ID's 6.2.22" sheetId="17" r:id="rId12"/>
+    <sheet name="path2 IMI ID's 6.2.22" sheetId="18" r:id="rId13"/>
+    <sheet name="path3 IMI ID's 6.2.22" sheetId="19" r:id="rId14"/>
+    <sheet name="path1 IMI ID's" sheetId="1" r:id="rId15"/>
+    <sheet name="path2 IMI ID's" sheetId="2" r:id="rId16"/>
+    <sheet name="path3 IMI ID's" sheetId="8" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12939" uniqueCount="1169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12979" uniqueCount="1190">
   <si>
     <t>Freq</t>
   </si>
@@ -3577,12 +3578,86 @@
   <si>
     <t>count of staph:</t>
   </si>
+  <si>
+    <t>S. succinus</t>
+  </si>
+  <si>
+    <t>S. saprophyticus</t>
+  </si>
+  <si>
+    <t>S. pseudintermedius</t>
+  </si>
+  <si>
+    <t>S. hominis</t>
+  </si>
+  <si>
+    <t>S. gallinarum</t>
+  </si>
+  <si>
+    <t>S. epidermidis</t>
+  </si>
+  <si>
+    <t>M. fleurettii</t>
+  </si>
+  <si>
+    <t>S. cohnii</t>
+  </si>
+  <si>
+    <t>S. capitis</t>
+  </si>
+  <si>
+    <t>S. auricularis</t>
+  </si>
+  <si>
+    <t>S. xylosus</t>
+  </si>
+  <si>
+    <t>S. warneri</t>
+  </si>
+  <si>
+    <t>M. sciuri</t>
+  </si>
+  <si>
+    <t>S. devriesei</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Staph. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>species</t>
+    </r>
+  </si>
+  <si>
+    <t>S. equorum</t>
+  </si>
+  <si>
+    <t>S. simulans</t>
+  </si>
+  <si>
+    <t>S. haemolyticus</t>
+  </si>
+  <si>
+    <t>S. chromogenes</t>
+  </si>
+  <si>
+    <t>Number of IMI</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3753,8 +3828,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3982,8 +4097,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -4206,6 +4327,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4251,7 +4411,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4315,6 +4475,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4329,6 +4490,25 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -4377,6 +4557,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4386,6 +4571,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4684,10 +4873,2582 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EA0BAF-4ED7-4706-9FE5-1419444756CA}">
+  <dimension ref="B1:M22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="22.36328125" style="43" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" style="43" customWidth="1"/>
+    <col min="11" max="11" width="22.36328125" customWidth="1"/>
+    <col min="12" max="12" width="19.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:12" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="49" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="45" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C3" s="44">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="45" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C4" s="44">
+        <v>28</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>1189</v>
+      </c>
+      <c r="L4" s="48" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="45" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C5" s="44">
+        <v>19</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>1187</v>
+      </c>
+      <c r="L5" s="44">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="45" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C6" s="44">
+        <v>15</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>1186</v>
+      </c>
+      <c r="L6" s="44">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="47" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C7" s="46">
+        <v>15</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>1185</v>
+      </c>
+      <c r="L7" s="44">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="45" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C8" s="44">
+        <v>7</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>1184</v>
+      </c>
+      <c r="L8" s="44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="45" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C9" s="44">
+        <v>7</v>
+      </c>
+      <c r="K9" s="47" t="s">
+        <v>1183</v>
+      </c>
+      <c r="L9" s="46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="45" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C10" s="44">
+        <v>5</v>
+      </c>
+      <c r="K10" s="45" t="s">
+        <v>1182</v>
+      </c>
+      <c r="L10" s="44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="47" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C11" s="46">
+        <v>2</v>
+      </c>
+      <c r="K11" s="45" t="s">
+        <v>1180</v>
+      </c>
+      <c r="L11" s="44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="45" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C12" s="44">
+        <v>1</v>
+      </c>
+      <c r="K12" s="45" t="s">
+        <v>1179</v>
+      </c>
+      <c r="L12" s="44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="45" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C13" s="44">
+        <v>1</v>
+      </c>
+      <c r="K13" s="45" t="s">
+        <v>1178</v>
+      </c>
+      <c r="L13" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="45" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C14" s="44">
+        <v>1</v>
+      </c>
+      <c r="K14" s="45" t="s">
+        <v>1177</v>
+      </c>
+      <c r="L14" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="45" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C15" s="44">
+        <v>1</v>
+      </c>
+      <c r="K15" s="45" t="s">
+        <v>1176</v>
+      </c>
+      <c r="L15" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="47" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C16" s="46">
+        <v>1</v>
+      </c>
+      <c r="K16" s="45" t="s">
+        <v>1174</v>
+      </c>
+      <c r="L16" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="45" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C17" s="44">
+        <v>1</v>
+      </c>
+      <c r="K17" s="45" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L17" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="45" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C18" s="44">
+        <v>1</v>
+      </c>
+      <c r="K18" s="45" t="s">
+        <v>1172</v>
+      </c>
+      <c r="L18" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="45" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C19" s="44">
+        <v>1</v>
+      </c>
+      <c r="K19" s="45" t="s">
+        <v>1171</v>
+      </c>
+      <c r="L19" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="45" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C20" s="44">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f>SUM(C11:C21)</f>
+        <v>12</v>
+      </c>
+      <c r="K20" s="45" t="s">
+        <v>1170</v>
+      </c>
+      <c r="L20" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="45" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C21" s="44">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <f>SUM(C3:C21)</f>
+        <v>298</v>
+      </c>
+      <c r="F21">
+        <f>298-15</f>
+        <v>283</v>
+      </c>
+      <c r="G21">
+        <f>12/283</f>
+        <v>4.2402826855123678E-2</v>
+      </c>
+      <c r="K21" s="45" t="s">
+        <v>1169</v>
+      </c>
+      <c r="L21" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="M22">
+        <f>SUM(L5:L21)</f>
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="39.7265625" customWidth="1"/>
+    <col min="10" max="10" width="21.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <f>SUM(B2:B23)</f>
+        <v>866</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D25">
+        <f>866-140</f>
+        <v>726</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="39.7265625" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="10" max="10" width="21.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>132</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D25">
+        <f>SUM(B2:B24)</f>
+        <v>802</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D26">
+        <f>SUM(B4:B24)</f>
+        <v>670</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:B22">
+    <sortCondition descending="1" ref="B4:B22"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46A7BD4-9ADE-4593-8C58-88913EE33879}">
+  <dimension ref="A1:E69"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="9">
+        <v>427</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="9">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E11">
+        <f>SUM(B2,B3,B5,B6,B7,B11,B12,B15,B16,B35,B36,B37,B38,B54,B55,B56,B57,B58,B59,B60)</f>
+        <v>743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C69">
+        <f>SUM(B2:B67)</f>
+        <v>1051</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF032BD-EDD1-4883-AEE5-89B557ABE4ED}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>920</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="9">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F8">
+        <f>SUM(B4,B7,B8,B9,B11,B28,B29)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C33">
+        <f>SUM(B2:B31)</f>
+        <v>1051</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47256A4A-52D0-4111-A68B-BE7A187F61AB}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>1045</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <f>SUM(B2:B7)</f>
+        <v>1051</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:D68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>426</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C68">
+        <f>SUM(B2:B66)</f>
+        <v>1045</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B62">
+    <sortCondition descending="1" ref="B2:B62"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>915</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C33">
+        <f>SUM(B2:B31)</f>
+        <v>1045</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B29">
+    <sortCondition descending="1" ref="B4:B29"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>1039</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <f>SUM(B2:B7)</f>
+        <v>1045</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:B7">
+    <sortCondition descending="1" ref="B4:B7"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6550C7FA-AF16-417B-B792-ED5EF4B45294}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -5281,2068 +8042,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E26"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AK35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="87" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="39.7265625" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="10" max="10" width="21.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2">
-        <v>132</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D25">
-        <f>SUM(B2:B24)</f>
-        <v>802</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D26">
-        <f>SUM(B4:B24)</f>
-        <v>670</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:B22">
-    <sortCondition descending="1" ref="B4:B22"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46A7BD4-9ADE-4593-8C58-88913EE33879}">
-  <dimension ref="A1:E69"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="35.453125" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="9">
-        <v>427</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="9">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="9">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="9">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="9">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E11">
-        <f>SUM(B2,B3,B5,B6,B7,B11,B12,B15,B16,B35,B36,B37,B38,B54,B55,B56,B57,B58,B59,B60)</f>
-        <v>743</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>82</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>83</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>85</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>86</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>87</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>116</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>88</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B55" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B56" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B57" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B58" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B60" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>96</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>97</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>98</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B65">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C69">
-        <f>SUM(B2:B67)</f>
-        <v>1051</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF032BD-EDD1-4883-AEE5-89B557ABE4ED}">
-  <dimension ref="A1:F33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="5" max="5" width="14.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2">
-        <v>920</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="9">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="9">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>1168</v>
-      </c>
-      <c r="F8">
-        <f>SUM(B4,B7,B8,B9,B11,B28,B29)</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C33">
-        <f>SUM(B2:B31)</f>
-        <v>1051</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47256A4A-52D0-4111-A68B-BE7A187F61AB}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="24.7265625" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2">
-        <v>1045</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C9">
-        <f>SUM(B2:B7)</f>
-        <v>1051</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D68"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B67"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="35.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2">
-        <v>426</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>82</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>83</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>85</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>86</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>87</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>88</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>89</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>91</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>93</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>94</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>95</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>96</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>97</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>98</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B64">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C68">
-        <f>SUM(B2:B66)</f>
-        <v>1045</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B62">
-    <sortCondition descending="1" ref="B2:B62"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2">
-        <v>915</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C33">
-        <f>SUM(B2:B31)</f>
-        <v>1045</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B29">
-    <sortCondition descending="1" ref="B4:B29"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="24.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2">
-        <v>1039</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C9">
-        <f>SUM(B2:B7)</f>
-        <v>1045</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:B7">
-    <sortCondition descending="1" ref="B4:B7"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK34"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7897,10 +8602,10 @@
         <v>933</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E7">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="F7" t="s">
         <v>133</v>
@@ -7909,13 +8614,13 @@
         <v>132</v>
       </c>
       <c r="H7" t="s">
-        <v>1142</v>
+        <v>269</v>
       </c>
       <c r="O7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P7" t="s">
-        <v>1143</v>
+        <v>937</v>
       </c>
       <c r="Q7" t="s">
         <v>25</v>
@@ -7924,28 +8629,31 @@
         <v>1136</v>
       </c>
       <c r="S7">
-        <v>2.27</v>
+        <v>1.88</v>
       </c>
       <c r="T7" t="s">
         <v>1135</v>
       </c>
       <c r="U7">
-        <v>2.2000000000000002</v>
+        <v>1.8</v>
+      </c>
+      <c r="V7" t="s">
+        <v>129</v>
       </c>
       <c r="X7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y7" t="s">
         <v>236</v>
       </c>
       <c r="Z7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA7" t="s">
         <v>126</v>
       </c>
       <c r="AB7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC7" t="s">
         <v>125</v>
@@ -7957,33 +8665,33 @@
         <v>125</v>
       </c>
       <c r="AF7">
-        <v>44000</v>
+        <v>2000000</v>
       </c>
       <c r="AI7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="AJ7">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>934</v>
+        <v>264</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>933</v>
+        <v>143</v>
       </c>
       <c r="D8">
-        <v>16</v>
-      </c>
-      <c r="E8">
-        <v>731</v>
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>840</v>
       </c>
       <c r="F8" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="G8" t="s">
         <v>132</v>
@@ -7995,7 +8703,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>937</v>
+        <v>920</v>
       </c>
       <c r="Q8" t="s">
         <v>25</v>
@@ -8004,13 +8712,13 @@
         <v>1136</v>
       </c>
       <c r="S8">
-        <v>1.88</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="T8" t="s">
         <v>1135</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>2.12</v>
       </c>
       <c r="V8" t="s">
         <v>129</v>
@@ -8019,16 +8727,16 @@
         <v>128</v>
       </c>
       <c r="Y8" t="s">
-        <v>236</v>
+        <v>127</v>
       </c>
       <c r="Z8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA8" t="s">
         <v>126</v>
       </c>
       <c r="AB8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC8" t="s">
         <v>125</v>
@@ -8040,13 +8748,13 @@
         <v>125</v>
       </c>
       <c r="AF8">
-        <v>2000000</v>
-      </c>
-      <c r="AI8">
-        <v>24</v>
-      </c>
-      <c r="AJ8">
-        <v>20</v>
+        <v>210000</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.35">
@@ -8060,10 +8768,10 @@
         <v>143</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>840</v>
+        <v>868</v>
       </c>
       <c r="F9" t="s">
         <v>170</v>
@@ -8078,22 +8786,22 @@
         <v>2</v>
       </c>
       <c r="P9" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="Q9" t="s">
         <v>25</v>
       </c>
       <c r="R9" t="s">
+        <v>1135</v>
+      </c>
+      <c r="S9">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="T9" t="s">
         <v>1136</v>
       </c>
-      <c r="S9">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="T9" t="s">
-        <v>1135</v>
-      </c>
       <c r="U9">
-        <v>2.12</v>
+        <v>1.76</v>
       </c>
       <c r="V9" t="s">
         <v>129</v>
@@ -8111,7 +8819,7 @@
         <v>126</v>
       </c>
       <c r="AB9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC9" t="s">
         <v>125</v>
@@ -8123,13 +8831,13 @@
         <v>125</v>
       </c>
       <c r="AF9">
-        <v>210000</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>218</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>218</v>
+        <v>280000</v>
+      </c>
+      <c r="AI9">
+        <v>50</v>
+      </c>
+      <c r="AJ9">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.35">
@@ -8149,7 +8857,7 @@
         <v>868</v>
       </c>
       <c r="F10" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="G10" t="s">
         <v>132</v>
@@ -8161,22 +8869,22 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="Q10" t="s">
         <v>25</v>
       </c>
       <c r="R10" t="s">
+        <v>1136</v>
+      </c>
+      <c r="S10">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="T10" t="s">
         <v>1135</v>
       </c>
-      <c r="S10">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="T10" t="s">
-        <v>1136</v>
-      </c>
       <c r="U10">
-        <v>1.76</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="V10" t="s">
         <v>129</v>
@@ -8206,33 +8914,33 @@
         <v>125</v>
       </c>
       <c r="AF10">
-        <v>280000</v>
+        <v>160000</v>
       </c>
       <c r="AI10">
         <v>50</v>
       </c>
       <c r="AJ10">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>264</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s">
         <v>143</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>868</v>
+        <v>840</v>
       </c>
       <c r="F11" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="G11" t="s">
         <v>132</v>
@@ -8244,7 +8952,7 @@
         <v>2</v>
       </c>
       <c r="P11" t="s">
-        <v>902</v>
+        <v>884</v>
       </c>
       <c r="Q11" t="s">
         <v>25</v>
@@ -8253,13 +8961,13 @@
         <v>1136</v>
       </c>
       <c r="S11">
-        <v>2.2799999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="T11" t="s">
         <v>1135</v>
       </c>
       <c r="U11">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="V11" t="s">
         <v>129</v>
@@ -8268,16 +8976,16 @@
         <v>128</v>
       </c>
       <c r="Y11" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="Z11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA11" t="s">
         <v>126</v>
       </c>
       <c r="AB11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC11" t="s">
         <v>125</v>
@@ -8289,13 +8997,13 @@
         <v>125</v>
       </c>
       <c r="AF11">
-        <v>160000</v>
-      </c>
-      <c r="AI11">
-        <v>50</v>
-      </c>
-      <c r="AJ11">
-        <v>50</v>
+        <v>470000</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.35">
@@ -8309,10 +9017,10 @@
         <v>143</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>840</v>
+        <v>868</v>
       </c>
       <c r="F12" t="s">
         <v>170</v>
@@ -8327,22 +9035,22 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="Q12" t="s">
         <v>25</v>
       </c>
       <c r="R12" t="s">
+        <v>1135</v>
+      </c>
+      <c r="S12">
+        <v>2.04</v>
+      </c>
+      <c r="T12" t="s">
         <v>1136</v>
       </c>
-      <c r="S12">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="T12" t="s">
-        <v>1135</v>
-      </c>
       <c r="U12">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V12" t="s">
         <v>129</v>
@@ -8354,13 +9062,13 @@
         <v>139</v>
       </c>
       <c r="Z12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA12" t="s">
         <v>126</v>
       </c>
       <c r="AB12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC12" t="s">
         <v>125</v>
@@ -8372,13 +9080,13 @@
         <v>125</v>
       </c>
       <c r="AF12">
-        <v>470000</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>218</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>218</v>
+        <v>490000</v>
+      </c>
+      <c r="AI12">
+        <v>20</v>
+      </c>
+      <c r="AJ12">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.35">
@@ -8398,7 +9106,7 @@
         <v>868</v>
       </c>
       <c r="F13" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
         <v>132</v>
@@ -8410,7 +9118,7 @@
         <v>2</v>
       </c>
       <c r="P13" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="Q13" t="s">
         <v>25</v>
@@ -8419,13 +9127,13 @@
         <v>1135</v>
       </c>
       <c r="S13">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="T13" t="s">
         <v>1136</v>
       </c>
       <c r="U13">
-        <v>1.98</v>
+        <v>1.77</v>
       </c>
       <c r="V13" t="s">
         <v>129</v>
@@ -8455,33 +9163,33 @@
         <v>125</v>
       </c>
       <c r="AF13">
-        <v>490000</v>
+        <v>390000</v>
       </c>
       <c r="AI13">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AJ13">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>834</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
         <v>143</v>
       </c>
       <c r="D14">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>868</v>
+        <v>840</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="G14" t="s">
         <v>132</v>
@@ -8493,22 +9201,22 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>870</v>
+        <v>842</v>
       </c>
       <c r="Q14" t="s">
         <v>25</v>
       </c>
       <c r="R14" t="s">
+        <v>1136</v>
+      </c>
+      <c r="S14">
+        <v>2.08</v>
+      </c>
+      <c r="T14" t="s">
         <v>1135</v>
       </c>
-      <c r="S14">
-        <v>1.9</v>
-      </c>
-      <c r="T14" t="s">
-        <v>1136</v>
-      </c>
       <c r="U14">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="V14" t="s">
         <v>129</v>
@@ -8517,16 +9225,16 @@
         <v>128</v>
       </c>
       <c r="Y14" t="s">
-        <v>139</v>
+        <v>831</v>
       </c>
       <c r="Z14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA14" t="s">
         <v>126</v>
       </c>
       <c r="AB14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC14" t="s">
         <v>125</v>
@@ -8538,179 +9246,179 @@
         <v>125</v>
       </c>
       <c r="AF14">
-        <v>390000</v>
-      </c>
-      <c r="AI14">
-        <v>15</v>
+        <v>94000</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>218</v>
       </c>
       <c r="AJ14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>834</v>
-      </c>
-      <c r="B15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D15">
         <v>20</v>
       </c>
-      <c r="E15" t="s">
-        <v>840</v>
-      </c>
-      <c r="F15" t="s">
+    </row>
+    <row r="15" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D15" s="14">
+        <v>9</v>
+      </c>
+      <c r="E15" s="14">
+        <v>32</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="O15" s="14">
+        <v>2</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>1135</v>
+      </c>
+      <c r="S15" s="14">
+        <v>2.09</v>
+      </c>
+      <c r="T15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U15" s="14">
+        <v>1.92</v>
+      </c>
+      <c r="V15" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="X15" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y15" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z15" s="14">
+        <v>3</v>
+      </c>
+      <c r="AA15" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB15" s="14">
+        <v>4</v>
+      </c>
+      <c r="AC15" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD15" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE15" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF15" s="14">
+        <v>133000</v>
+      </c>
+      <c r="AI15" s="14">
+        <v>26</v>
+      </c>
+      <c r="AJ15" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>258</v>
+      </c>
+      <c r="B16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D16">
+        <v>28</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
         <v>170</v>
       </c>
-      <c r="G15" t="s">
-        <v>132</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="G16" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" t="s">
         <v>269</v>
       </c>
-      <c r="O15">
-        <v>2</v>
-      </c>
-      <c r="P15" t="s">
-        <v>842</v>
-      </c>
-      <c r="Q15" t="s">
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q16" t="s">
         <v>25</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R16" t="s">
         <v>1136</v>
       </c>
-      <c r="S15">
-        <v>2.08</v>
-      </c>
-      <c r="T15" t="s">
+      <c r="S16">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="T16" t="s">
         <v>1135</v>
       </c>
-      <c r="U15">
-        <v>1.84</v>
-      </c>
-      <c r="V15" t="s">
+      <c r="U16">
+        <v>1.94</v>
+      </c>
+      <c r="V16" t="s">
         <v>129</v>
       </c>
-      <c r="X15" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z15">
+      <c r="X16" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z16">
+        <v>2</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB16">
+        <v>2</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF16">
+        <v>2658000</v>
+      </c>
+      <c r="AI16">
         <v>4</v>
       </c>
-      <c r="AA15" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB15">
-        <v>4</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF15">
-        <v>94000</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>218</v>
-      </c>
-      <c r="AJ15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="D16" s="14">
-        <v>9</v>
-      </c>
-      <c r="E16" s="14">
-        <v>32</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="O16" s="14">
-        <v>2</v>
-      </c>
-      <c r="P16" s="14" t="s">
-        <v>829</v>
-      </c>
-      <c r="Q16" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="R16" s="14" t="s">
-        <v>1135</v>
-      </c>
-      <c r="S16" s="14">
-        <v>2.09</v>
-      </c>
-      <c r="T16" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="U16" s="14">
-        <v>1.92</v>
-      </c>
-      <c r="V16" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="X16" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y16" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z16" s="14">
-        <v>3</v>
-      </c>
-      <c r="AA16" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB16" s="14">
-        <v>4</v>
-      </c>
-      <c r="AC16" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD16" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE16" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF16" s="14">
-        <v>133000</v>
-      </c>
-      <c r="AI16" s="14">
-        <v>26</v>
-      </c>
-      <c r="AJ16" s="14">
-        <v>30</v>
+      <c r="AJ16">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.35">
@@ -8730,7 +9438,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="G17" t="s">
         <v>132</v>
@@ -8742,7 +9450,7 @@
         <v>2</v>
       </c>
       <c r="P17" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="Q17" t="s">
         <v>25</v>
@@ -8751,13 +9459,13 @@
         <v>1136</v>
       </c>
       <c r="S17">
-        <v>2.2200000000000002</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="T17" t="s">
         <v>1135</v>
       </c>
       <c r="U17">
-        <v>1.94</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="V17" t="s">
         <v>129</v>
@@ -8787,30 +9495,30 @@
         <v>125</v>
       </c>
       <c r="AF17">
-        <v>2658000</v>
+        <v>741000</v>
       </c>
       <c r="AI17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ17">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B18" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s">
         <v>247</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E18">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
         <v>133</v>
@@ -8825,22 +9533,22 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="Q18" t="s">
         <v>25</v>
       </c>
       <c r="R18" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="S18">
-        <v>2.1800000000000002</v>
+        <v>2.06</v>
       </c>
       <c r="T18" t="s">
         <v>1135</v>
       </c>
       <c r="U18">
-        <v>2.0299999999999998</v>
+        <v>1.98</v>
       </c>
       <c r="V18" t="s">
         <v>129</v>
@@ -8852,13 +9560,13 @@
         <v>127</v>
       </c>
       <c r="Z18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA18" t="s">
         <v>126</v>
       </c>
       <c r="AB18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC18" t="s">
         <v>125</v>
@@ -8870,13 +9578,13 @@
         <v>125</v>
       </c>
       <c r="AF18">
-        <v>741000</v>
+        <v>150000</v>
       </c>
       <c r="AI18">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="AJ18">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.35">
@@ -8890,10 +9598,10 @@
         <v>247</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E19">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
         <v>133</v>
@@ -8908,22 +9616,22 @@
         <v>2</v>
       </c>
       <c r="P19" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="Q19" t="s">
         <v>25</v>
       </c>
       <c r="R19" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="S19">
-        <v>2.06</v>
+        <v>2.33</v>
       </c>
       <c r="T19" t="s">
         <v>1135</v>
       </c>
       <c r="U19">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="V19" t="s">
         <v>129</v>
@@ -8935,13 +9643,13 @@
         <v>127</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA19" t="s">
         <v>126</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC19" t="s">
         <v>125</v>
@@ -8953,27 +9661,27 @@
         <v>125</v>
       </c>
       <c r="AF19">
-        <v>150000</v>
+        <v>190000</v>
       </c>
       <c r="AI19">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AJ19">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>248</v>
       </c>
       <c r="C20" t="s">
         <v>247</v>
       </c>
       <c r="D20">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E20">
         <v>16</v>
@@ -8987,11 +9695,17 @@
       <c r="H20" t="s">
         <v>269</v>
       </c>
+      <c r="I20" t="s">
+        <v>246</v>
+      </c>
+      <c r="J20" t="s">
+        <v>334</v>
+      </c>
       <c r="O20">
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="Q20" t="s">
         <v>25</v>
@@ -9000,16 +9714,16 @@
         <v>1136</v>
       </c>
       <c r="S20">
-        <v>2.33</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="T20" t="s">
         <v>1135</v>
       </c>
       <c r="U20">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="V20" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="X20" t="s">
         <v>128</v>
@@ -9018,13 +9732,13 @@
         <v>127</v>
       </c>
       <c r="Z20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA20" t="s">
         <v>126</v>
       </c>
       <c r="AB20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC20" t="s">
         <v>125</v>
@@ -9038,28 +9752,22 @@
       <c r="AF20">
         <v>190000</v>
       </c>
-      <c r="AI20">
-        <v>10</v>
-      </c>
-      <c r="AJ20">
-        <v>50</v>
-      </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>248</v>
       </c>
       <c r="C21" t="s">
         <v>247</v>
       </c>
       <c r="D21">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
         <v>133</v>
@@ -9068,167 +9776,164 @@
         <v>132</v>
       </c>
       <c r="H21" t="s">
-        <v>1142</v>
+        <v>269</v>
       </c>
       <c r="O21">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P21" t="s">
-        <v>1141</v>
+        <v>783</v>
       </c>
       <c r="Q21" t="s">
         <v>25</v>
       </c>
       <c r="R21" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="S21">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="T21" t="s">
         <v>1135</v>
       </c>
       <c r="U21">
-        <v>2.0299999999999998</v>
+        <v>1.87</v>
+      </c>
+      <c r="V21" t="s">
+        <v>129</v>
       </c>
       <c r="X21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y21" t="s">
         <v>127</v>
       </c>
       <c r="Z21">
+        <v>2</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB21">
+        <v>2</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF21">
+        <v>56000</v>
+      </c>
+      <c r="AI21">
+        <v>50</v>
+      </c>
+      <c r="AJ21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="14">
+        <v>34</v>
+      </c>
+      <c r="E22" s="14">
+        <v>169</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="O22" s="14">
+        <v>2</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R22" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="S22" s="14">
+        <v>1.89</v>
+      </c>
+      <c r="T22" s="14" t="s">
+        <v>1139</v>
+      </c>
+      <c r="U22" s="14">
+        <v>1.88</v>
+      </c>
+      <c r="V22" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="X22" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y22" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z22" s="14">
         <v>3</v>
       </c>
-      <c r="AA21" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF21">
-        <v>220000</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>1140</v>
-      </c>
-      <c r="AI21">
-        <v>18</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>249</v>
-      </c>
-      <c r="B22" t="s">
-        <v>248</v>
-      </c>
-      <c r="C22" t="s">
-        <v>247</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s">
-        <v>133</v>
-      </c>
-      <c r="G22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H22" t="s">
-        <v>269</v>
-      </c>
-      <c r="I22" t="s">
-        <v>246</v>
-      </c>
-      <c r="J22" t="s">
-        <v>334</v>
-      </c>
-      <c r="O22">
-        <v>2</v>
-      </c>
-      <c r="P22" t="s">
-        <v>790</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>25</v>
-      </c>
-      <c r="R22" t="s">
-        <v>1136</v>
-      </c>
-      <c r="S22">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="T22" t="s">
-        <v>1135</v>
-      </c>
-      <c r="U22">
-        <v>2.12</v>
-      </c>
-      <c r="V22" t="s">
-        <v>154</v>
-      </c>
-      <c r="X22" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z22">
+      <c r="AA22" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB22" s="14">
         <v>3</v>
       </c>
-      <c r="AA22" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB22">
-        <v>3</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF22">
-        <v>190000</v>
+      <c r="AC22" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD22" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE22" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF22" s="14">
+        <v>42000</v>
+      </c>
+      <c r="AI22" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ22" s="14">
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s">
-        <v>248</v>
+        <v>175</v>
       </c>
       <c r="C23" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="D23">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>230</v>
       </c>
       <c r="F23" t="s">
         <v>133</v>
@@ -9243,7 +9948,7 @@
         <v>2</v>
       </c>
       <c r="P23" t="s">
-        <v>783</v>
+        <v>618</v>
       </c>
       <c r="Q23" t="s">
         <v>25</v>
@@ -9252,13 +9957,13 @@
         <v>1135</v>
       </c>
       <c r="S23">
-        <v>1.87</v>
+        <v>2.11</v>
       </c>
       <c r="T23" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="U23">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="V23" t="s">
         <v>129</v>
@@ -9270,13 +9975,13 @@
         <v>127</v>
       </c>
       <c r="Z23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA23" t="s">
         <v>126</v>
       </c>
       <c r="AB23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC23" t="s">
         <v>125</v>
@@ -9288,116 +9993,116 @@
         <v>125</v>
       </c>
       <c r="AF23">
-        <v>56000</v>
+        <v>810000</v>
       </c>
       <c r="AI23">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AJ23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="14">
-        <v>34</v>
-      </c>
-      <c r="E24" s="14">
-        <v>169</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H24" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" t="s">
+        <v>211</v>
+      </c>
+      <c r="D24">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>230</v>
+      </c>
+      <c r="F24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" t="s">
         <v>269</v>
       </c>
-      <c r="O24" s="14">
-        <v>2</v>
-      </c>
-      <c r="P24" s="14" t="s">
-        <v>738</v>
-      </c>
-      <c r="Q24" s="14" t="s">
+      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="P24" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q24" t="s">
         <v>25</v>
       </c>
-      <c r="R24" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="S24" s="14">
-        <v>1.89</v>
-      </c>
-      <c r="T24" s="14" t="s">
-        <v>1139</v>
-      </c>
-      <c r="U24" s="14">
-        <v>1.88</v>
-      </c>
-      <c r="V24" s="14" t="s">
+      <c r="R24" t="s">
+        <v>1135</v>
+      </c>
+      <c r="S24">
+        <v>2.12</v>
+      </c>
+      <c r="T24" t="s">
+        <v>1135</v>
+      </c>
+      <c r="U24">
+        <v>1.94</v>
+      </c>
+      <c r="V24" t="s">
         <v>129</v>
       </c>
-      <c r="X24" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y24" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z24" s="14">
+      <c r="X24" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z24">
         <v>3</v>
       </c>
-      <c r="AA24" s="14" t="s">
+      <c r="AA24" t="s">
         <v>126</v>
       </c>
-      <c r="AB24" s="14">
+      <c r="AB24">
         <v>3</v>
       </c>
-      <c r="AC24" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD24" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE24" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF24" s="14">
-        <v>42000</v>
-      </c>
-      <c r="AI24" s="14" t="s">
+      <c r="AC24" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF24">
+        <v>630000</v>
+      </c>
+      <c r="AI24" t="s">
         <v>218</v>
       </c>
-      <c r="AJ24" s="14">
-        <v>30</v>
+      <c r="AJ24" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="C25" t="s">
         <v>211</v>
       </c>
       <c r="D25">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>230</v>
+        <v>573</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G25" t="s">
         <v>132</v>
@@ -9409,7 +10114,7 @@
         <v>2</v>
       </c>
       <c r="P25" t="s">
-        <v>618</v>
+        <v>574</v>
       </c>
       <c r="Q25" t="s">
         <v>25</v>
@@ -9418,13 +10123,13 @@
         <v>1135</v>
       </c>
       <c r="S25">
-        <v>2.11</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="T25" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="U25">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="V25" t="s">
         <v>129</v>
@@ -9436,13 +10141,13 @@
         <v>127</v>
       </c>
       <c r="Z25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA25" t="s">
         <v>126</v>
       </c>
       <c r="AB25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC25" t="s">
         <v>125</v>
@@ -9454,33 +10159,33 @@
         <v>125</v>
       </c>
       <c r="AF25">
-        <v>810000</v>
+        <v>20000</v>
       </c>
       <c r="AI25">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="AJ25">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="C26" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="D26">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>230</v>
+        <v>438</v>
       </c>
       <c r="F26" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G26" t="s">
         <v>132</v>
@@ -9492,22 +10197,22 @@
         <v>2</v>
       </c>
       <c r="P26" t="s">
-        <v>591</v>
+        <v>465</v>
       </c>
       <c r="Q26" t="s">
         <v>25</v>
       </c>
       <c r="R26" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="S26">
-        <v>2.12</v>
+        <v>2.31</v>
       </c>
       <c r="T26" t="s">
         <v>1135</v>
       </c>
       <c r="U26">
-        <v>1.94</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="V26" t="s">
         <v>129</v>
@@ -9516,16 +10221,16 @@
         <v>128</v>
       </c>
       <c r="Y26" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="Z26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA26" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB26">
-        <v>3</v>
+        <v>125</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>125</v>
       </c>
       <c r="AC26" t="s">
         <v>125</v>
@@ -9537,33 +10242,33 @@
         <v>125</v>
       </c>
       <c r="AF26">
-        <v>630000</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>218</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>218</v>
+        <v>1120000</v>
+      </c>
+      <c r="AI26">
+        <v>30</v>
+      </c>
+      <c r="AJ26">
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>212</v>
+        <v>428</v>
       </c>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C27" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>573</v>
+        <v>438</v>
       </c>
       <c r="F27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G27" t="s">
         <v>132</v>
@@ -9575,22 +10280,22 @@
         <v>2</v>
       </c>
       <c r="P27" t="s">
-        <v>574</v>
+        <v>437</v>
       </c>
       <c r="Q27" t="s">
         <v>25</v>
       </c>
       <c r="R27" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="S27">
-        <v>2.0499999999999998</v>
+        <v>2.21</v>
       </c>
       <c r="T27" t="s">
         <v>1135</v>
       </c>
       <c r="U27">
-        <v>1.84</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="V27" t="s">
         <v>129</v>
@@ -9602,13 +10307,13 @@
         <v>127</v>
       </c>
       <c r="Z27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA27" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB27">
-        <v>1</v>
+        <v>125</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>125</v>
       </c>
       <c r="AC27" t="s">
         <v>125</v>
@@ -9620,33 +10325,33 @@
         <v>125</v>
       </c>
       <c r="AF27">
-        <v>20000</v>
+        <v>1300000</v>
       </c>
       <c r="AI27">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="AJ27">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B28" t="s">
         <v>175</v>
       </c>
       <c r="C28" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>438</v>
+        <v>164</v>
       </c>
       <c r="F28" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G28" t="s">
         <v>132</v>
@@ -9658,7 +10363,7 @@
         <v>2</v>
       </c>
       <c r="P28" t="s">
-        <v>465</v>
+        <v>412</v>
       </c>
       <c r="Q28" t="s">
         <v>25</v>
@@ -9667,13 +10372,13 @@
         <v>1136</v>
       </c>
       <c r="S28">
-        <v>2.31</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="T28" t="s">
         <v>1135</v>
       </c>
       <c r="U28">
-        <v>2.0299999999999998</v>
+        <v>2.08</v>
       </c>
       <c r="V28" t="s">
         <v>129</v>
@@ -9682,10 +10387,10 @@
         <v>128</v>
       </c>
       <c r="Y28" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z28">
-        <v>1</v>
+        <v>125</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>125</v>
       </c>
       <c r="AA28" t="s">
         <v>125</v>
@@ -9703,30 +10408,30 @@
         <v>125</v>
       </c>
       <c r="AF28">
-        <v>1120000</v>
-      </c>
-      <c r="AI28">
-        <v>30</v>
-      </c>
-      <c r="AJ28">
-        <v>30</v>
+        <v>61000</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>428</v>
+        <v>158</v>
       </c>
       <c r="B29" t="s">
         <v>144</v>
       </c>
       <c r="C29" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>438</v>
+        <v>164</v>
       </c>
       <c r="F29" t="s">
         <v>138</v>
@@ -9741,7 +10446,7 @@
         <v>2</v>
       </c>
       <c r="P29" t="s">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="Q29" t="s">
         <v>25</v>
@@ -9750,13 +10455,13 @@
         <v>1136</v>
       </c>
       <c r="S29">
-        <v>2.21</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="T29" t="s">
         <v>1135</v>
       </c>
       <c r="U29">
-        <v>2.0099999999999998</v>
+        <v>2.04</v>
       </c>
       <c r="V29" t="s">
         <v>129</v>
@@ -9768,7 +10473,7 @@
         <v>127</v>
       </c>
       <c r="Z29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA29" t="s">
         <v>125</v>
@@ -9786,33 +10491,33 @@
         <v>125</v>
       </c>
       <c r="AF29">
-        <v>1300000</v>
-      </c>
-      <c r="AI29">
-        <v>50</v>
-      </c>
-      <c r="AJ29">
-        <v>22</v>
+        <v>150000</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
         <v>152</v>
       </c>
       <c r="D30">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E30" t="s">
         <v>164</v>
       </c>
       <c r="F30" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G30" t="s">
         <v>132</v>
@@ -9824,7 +10529,7 @@
         <v>2</v>
       </c>
       <c r="P30" t="s">
-        <v>412</v>
+        <v>365</v>
       </c>
       <c r="Q30" t="s">
         <v>25</v>
@@ -9833,13 +10538,13 @@
         <v>1136</v>
       </c>
       <c r="S30">
-        <v>2.2200000000000002</v>
+        <v>1.91</v>
       </c>
       <c r="T30" t="s">
         <v>1135</v>
       </c>
       <c r="U30">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="V30" t="s">
         <v>129</v>
@@ -9869,7 +10574,7 @@
         <v>125</v>
       </c>
       <c r="AF30">
-        <v>61000</v>
+        <v>270000</v>
       </c>
       <c r="AI30" t="s">
         <v>218</v>
@@ -9878,21 +10583,21 @@
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:36" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>339</v>
       </c>
       <c r="B31" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="C31" t="s">
-        <v>152</v>
+        <v>271</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>164</v>
+        <v>309</v>
       </c>
       <c r="F31" t="s">
         <v>138</v>
@@ -9901,46 +10606,43 @@
         <v>132</v>
       </c>
       <c r="H31" t="s">
-        <v>269</v>
+        <v>1138</v>
       </c>
       <c r="O31">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P31" t="s">
-        <v>401</v>
+        <v>1137</v>
       </c>
       <c r="Q31" t="s">
         <v>25</v>
       </c>
-      <c r="R31" t="s">
+      <c r="R31" s="8" t="s">
         <v>1136</v>
       </c>
       <c r="S31">
-        <v>2.2799999999999998</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="T31" t="s">
         <v>1135</v>
       </c>
       <c r="U31">
-        <v>2.04</v>
-      </c>
-      <c r="V31" t="s">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="X31" t="s">
         <v>129</v>
-      </c>
-      <c r="X31" t="s">
-        <v>128</v>
       </c>
       <c r="Y31" t="s">
         <v>127</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA31" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="AB31">
+        <v>2</v>
       </c>
       <c r="AC31" t="s">
         <v>125</v>
@@ -9952,30 +10654,24 @@
         <v>125</v>
       </c>
       <c r="AF31">
-        <v>150000</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>218</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>218</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>153</v>
+        <v>272</v>
       </c>
       <c r="B32" t="s">
         <v>135</v>
       </c>
       <c r="C32" t="s">
-        <v>152</v>
+        <v>271</v>
       </c>
       <c r="D32">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>164</v>
+        <v>309</v>
       </c>
       <c r="F32" t="s">
         <v>138</v>
@@ -9990,7 +10686,7 @@
         <v>2</v>
       </c>
       <c r="P32" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
       <c r="Q32" t="s">
         <v>25</v>
@@ -9999,13 +10695,13 @@
         <v>1136</v>
       </c>
       <c r="S32">
-        <v>1.91</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="T32" t="s">
         <v>1135</v>
       </c>
       <c r="U32">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V32" t="s">
         <v>129</v>
@@ -10014,16 +10710,16 @@
         <v>128</v>
       </c>
       <c r="Y32" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>125</v>
+        <v>127</v>
+      </c>
+      <c r="Z32">
+        <v>2</v>
       </c>
       <c r="AA32" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="AB32">
+        <v>2</v>
       </c>
       <c r="AC32" t="s">
         <v>125</v>
@@ -10035,170 +10731,179 @@
         <v>125</v>
       </c>
       <c r="AF32">
-        <v>270000</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>218</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="33" spans="1:36" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>339</v>
-      </c>
-      <c r="B33" t="s">
-        <v>175</v>
-      </c>
-      <c r="C33" t="s">
-        <v>271</v>
-      </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-      <c r="E33" t="s">
-        <v>309</v>
-      </c>
-      <c r="F33" t="s">
-        <v>138</v>
-      </c>
-      <c r="G33" t="s">
-        <v>132</v>
-      </c>
-      <c r="H33" t="s">
-        <v>1138</v>
-      </c>
-      <c r="O33">
-        <v>9</v>
-      </c>
-      <c r="P33" t="s">
-        <v>1137</v>
-      </c>
-      <c r="Q33" t="s">
+        <v>29000</v>
+      </c>
+      <c r="AI32">
+        <v>22</v>
+      </c>
+      <c r="AJ32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="37" t="s">
+        <v>934</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>933</v>
+      </c>
+      <c r="D34" s="37">
+        <v>7</v>
+      </c>
+      <c r="E34" s="37">
+        <v>727</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="H34" s="37" t="s">
+        <v>1142</v>
+      </c>
+      <c r="O34" s="37">
+        <v>12</v>
+      </c>
+      <c r="P34" s="37" t="s">
+        <v>1143</v>
+      </c>
+      <c r="Q34" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="R33" s="8" t="s">
+      <c r="R34" s="37" t="s">
         <v>1136</v>
       </c>
-      <c r="S33">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="T33" t="s">
+      <c r="S34" s="37">
+        <v>2.27</v>
+      </c>
+      <c r="T34" s="37" t="s">
         <v>1135</v>
       </c>
-      <c r="U33">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="X33" t="s">
+      <c r="U34" s="37">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X34" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Y34" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z34" s="37">
+        <v>2</v>
+      </c>
+      <c r="AA34" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB34" s="37">
+        <v>2</v>
+      </c>
+      <c r="AC34" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD34" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE34" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF34" s="37">
+        <v>44000</v>
+      </c>
+      <c r="AI34" s="37">
+        <v>3</v>
+      </c>
+      <c r="AJ34" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="D35" s="37">
+        <v>29</v>
+      </c>
+      <c r="E35" s="37">
+        <v>16</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="G35" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="H35" s="37" t="s">
+        <v>1142</v>
+      </c>
+      <c r="O35" s="37">
+        <v>12</v>
+      </c>
+      <c r="P35" s="37" t="s">
+        <v>1141</v>
+      </c>
+      <c r="Q35" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="R35" s="37" t="s">
+        <v>1136</v>
+      </c>
+      <c r="S35" s="37">
+        <v>2.04</v>
+      </c>
+      <c r="T35" s="37" t="s">
+        <v>1135</v>
+      </c>
+      <c r="U35" s="37">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="X35" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y35" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="Z33">
+      <c r="Z35" s="37">
         <v>3</v>
       </c>
-      <c r="AA33" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB33">
-        <v>2</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF33">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>272</v>
-      </c>
-      <c r="B34" t="s">
-        <v>135</v>
-      </c>
-      <c r="C34" t="s">
-        <v>271</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34" t="s">
-        <v>309</v>
-      </c>
-      <c r="F34" t="s">
-        <v>138</v>
-      </c>
-      <c r="G34" t="s">
-        <v>132</v>
-      </c>
-      <c r="H34" t="s">
-        <v>269</v>
-      </c>
-      <c r="O34">
-        <v>2</v>
-      </c>
-      <c r="P34" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>25</v>
-      </c>
-      <c r="R34" t="s">
-        <v>1136</v>
-      </c>
-      <c r="S34">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="T34" t="s">
-        <v>1135</v>
-      </c>
-      <c r="U34">
-        <v>1.89</v>
-      </c>
-      <c r="V34" t="s">
-        <v>129</v>
-      </c>
-      <c r="X34" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z34">
-        <v>2</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB34">
-        <v>2</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF34">
-        <v>29000</v>
-      </c>
-      <c r="AI34">
-        <v>22</v>
-      </c>
-      <c r="AJ34">
-        <v>29</v>
+      <c r="AA35" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB35" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC35" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD35" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE35" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF35" s="37">
+        <v>220000</v>
+      </c>
+      <c r="AG35" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH35" s="37" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AI35" s="37">
+        <v>18</v>
+      </c>
+      <c r="AJ35" s="37" t="s">
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -10206,11 +10911,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982F6E2F-D4E9-42F7-9A79-260E5EF3BF92}">
   <dimension ref="A1:AV617"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
@@ -10448,7 +11153,7 @@
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>1013</v>
       </c>
       <c r="B3" t="s">
@@ -10531,7 +11236,7 @@
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A4" s="37"/>
+      <c r="A4" s="38"/>
       <c r="B4" t="s">
         <v>834</v>
       </c>
@@ -10615,7 +11320,7 @@
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A5" s="37"/>
+      <c r="A5" s="38"/>
       <c r="B5" t="s">
         <v>957</v>
       </c>
@@ -52914,7 +53619,7 @@
       </c>
     </row>
     <row r="588" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A588" s="38" t="s">
+      <c r="A588" s="39" t="s">
         <v>1062</v>
       </c>
       <c r="B588" t="s">
@@ -53000,7 +53705,7 @@
       </c>
     </row>
     <row r="589" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A589" s="38"/>
+      <c r="A589" s="39"/>
       <c r="B589" t="s">
         <v>249</v>
       </c>
@@ -53081,7 +53786,7 @@
       </c>
     </row>
     <row r="590" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A590" s="38"/>
+      <c r="A590" s="39"/>
       <c r="B590" t="s">
         <v>249</v>
       </c>
@@ -53168,7 +53873,7 @@
       </c>
     </row>
     <row r="591" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A591" s="38"/>
+      <c r="A591" s="39"/>
       <c r="B591" t="s">
         <v>198</v>
       </c>
@@ -55130,7 +55835,7 @@
       </c>
     </row>
     <row r="615" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A615" s="39" t="s">
+      <c r="A615" s="40" t="s">
         <v>1063</v>
       </c>
       <c r="B615" t="s">
@@ -55207,7 +55912,7 @@
       </c>
     </row>
     <row r="616" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A616" s="40"/>
+      <c r="A616" s="41"/>
       <c r="B616" t="s">
         <v>136</v>
       </c>
@@ -55279,7 +55984,7 @@
       </c>
     </row>
     <row r="617" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A617" s="40"/>
+      <c r="A617" s="41"/>
       <c r="B617" t="s">
         <v>136</v>
       </c>
@@ -55360,11 +56065,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925EE466-1E30-4040-AF9A-90AF95035931}">
   <dimension ref="A1:AV54"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -55604,7 +56309,7 @@
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>1013</v>
       </c>
       <c r="B3" t="s">
@@ -55690,7 +56395,7 @@
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A4" s="37"/>
+      <c r="A4" s="38"/>
       <c r="B4" t="s">
         <v>145</v>
       </c>
@@ -55774,7 +56479,7 @@
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A5" s="37"/>
+      <c r="A5" s="38"/>
       <c r="B5" t="s">
         <v>834</v>
       </c>
@@ -55858,7 +56563,7 @@
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A6" s="37"/>
+      <c r="A6" s="38"/>
       <c r="B6" t="s">
         <v>239</v>
       </c>
@@ -57718,7 +58423,7 @@
       </c>
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="39" t="s">
         <v>1062</v>
       </c>
       <c r="B28" t="s">
@@ -57801,7 +58506,7 @@
       </c>
     </row>
     <row r="29" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A29" s="38"/>
+      <c r="A29" s="39"/>
       <c r="B29" t="s">
         <v>834</v>
       </c>
@@ -57882,7 +58587,7 @@
       </c>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A30" s="38"/>
+      <c r="A30" s="39"/>
       <c r="B30" t="s">
         <v>242</v>
       </c>
@@ -59678,7 +60383,7 @@
       </c>
     </row>
     <row r="52" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="42" t="s">
         <v>1133</v>
       </c>
       <c r="B52" t="s">
@@ -59764,7 +60469,7 @@
       </c>
     </row>
     <row r="53" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A53" s="41"/>
+      <c r="A53" s="42"/>
       <c r="B53" t="s">
         <v>428</v>
       </c>
@@ -59848,7 +60553,7 @@
       </c>
     </row>
     <row r="54" spans="1:48" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="41"/>
+      <c r="A54" s="42"/>
       <c r="B54" s="11" t="s">
         <v>428</v>
       </c>
@@ -59935,12 +60640,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J84" sqref="J84"/>
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -60560,7 +61265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
@@ -60874,12 +61579,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -61002,7 +61707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -61054,208 +61759,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="39.7265625" customWidth="1"/>
-    <col min="10" max="10" width="21.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23">
-        <v>33</v>
-      </c>
-      <c r="D23">
-        <f>SUM(B2:B23)</f>
-        <v>866</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D25">
-        <f>866-140</f>
-        <v>726</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/OREI_files/10-herd data/10herd_data_sharing_11_30_21.xlsx
+++ b/OREI_files/10-herd data/10herd_data_sharing_11_30_21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="13_ncr:40009_{4E471A33-58E1-4D19-90EB-CEBAB155844B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF7BF013-DB28-44A0-A1AE-22FB7D28D5C0}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:40009_{4E471A33-58E1-4D19-90EB-CEBAB155844B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F43F228B-E383-4998-9DCE-C349E66D8281}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="staph sp num IMI table" sheetId="20" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12979" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13002" uniqueCount="1193">
   <si>
     <t>Freq</t>
   </si>
@@ -3652,12 +3652,31 @@
   <si>
     <t>Species</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Staph. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>species</t>
+    </r>
+  </si>
+  <si>
+    <t>S. agnetis</t>
+  </si>
+  <si>
+    <t>S. hyicus</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3865,6 +3884,24 @@
       <i/>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -4411,13 +4448,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4458,7 +4494,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4476,21 +4512,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -4509,6 +4530,32 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -4574,6 +4621,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -4874,284 +4925,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EA0BAF-4ED7-4706-9FE5-1419444756CA}">
-  <dimension ref="B1:M22"/>
+  <dimension ref="B1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="116" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="22.36328125" style="43" customWidth="1"/>
-    <col min="3" max="3" width="19.453125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="22.36328125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" style="37" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" customWidth="1"/>
     <col min="11" max="11" width="22.36328125" customWidth="1"/>
     <col min="12" max="12" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:12" ht="19" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="43" t="s">
         <v>1189</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="42" t="s">
         <v>1188</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="39" t="s">
         <v>1187</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="38">
         <v>190</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="19" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="39" t="s">
         <v>1186</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="38">
         <v>28</v>
       </c>
-      <c r="K4" s="49" t="s">
+      <c r="K4" s="43" t="s">
         <v>1189</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="L4" s="42" t="s">
         <v>1188</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="39" t="s">
         <v>1185</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="38">
         <v>19</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="39" t="s">
         <v>1187</v>
       </c>
-      <c r="L5" s="44">
+      <c r="L5" s="38">
         <v>190</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="39" t="s">
         <v>1184</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="38">
         <v>15</v>
       </c>
-      <c r="K6" s="45" t="s">
+      <c r="K6" s="39" t="s">
         <v>1186</v>
       </c>
-      <c r="L6" s="44">
+      <c r="L6" s="38">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="41" t="s">
         <v>1183</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="40">
         <v>15</v>
       </c>
-      <c r="K7" s="45" t="s">
+      <c r="K7" s="39" t="s">
         <v>1185</v>
       </c>
-      <c r="L7" s="44">
+      <c r="L7" s="38">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="38">
         <v>7</v>
       </c>
-      <c r="K8" s="45" t="s">
+      <c r="K8" s="39" t="s">
         <v>1184</v>
       </c>
-      <c r="L8" s="44">
+      <c r="L8" s="38">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="39" t="s">
         <v>1180</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="38">
         <v>7</v>
       </c>
-      <c r="K9" s="47" t="s">
+      <c r="K9" s="41" t="s">
         <v>1183</v>
       </c>
-      <c r="L9" s="46">
+      <c r="L9" s="40">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="39" t="s">
         <v>1179</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="38">
         <v>5</v>
       </c>
-      <c r="K10" s="45" t="s">
+      <c r="K10" s="39" t="s">
         <v>1182</v>
       </c>
-      <c r="L10" s="44">
+      <c r="L10" s="38">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="41" t="s">
         <v>1181</v>
       </c>
-      <c r="C11" s="46">
-        <v>2</v>
-      </c>
-      <c r="K11" s="45" t="s">
+      <c r="C11" s="40">
+        <v>2</v>
+      </c>
+      <c r="K11" s="39" t="s">
         <v>1180</v>
       </c>
-      <c r="L11" s="44">
+      <c r="L11" s="38">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="39" t="s">
         <v>1178</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="38">
         <v>1</v>
       </c>
-      <c r="K12" s="45" t="s">
+      <c r="K12" s="39" t="s">
         <v>1179</v>
       </c>
-      <c r="L12" s="44">
+      <c r="L12" s="38">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="39" t="s">
         <v>1177</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="38">
         <v>1</v>
       </c>
-      <c r="K13" s="45" t="s">
+      <c r="K13" s="39" t="s">
         <v>1178</v>
       </c>
-      <c r="L13" s="44">
+      <c r="L13" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="39" t="s">
         <v>1176</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="38">
         <v>1</v>
       </c>
-      <c r="K14" s="45" t="s">
+      <c r="K14" s="39" t="s">
         <v>1177</v>
       </c>
-      <c r="L14" s="44">
+      <c r="L14" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="39" t="s">
         <v>1174</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="38">
         <v>1</v>
       </c>
-      <c r="K15" s="45" t="s">
+      <c r="K15" s="39" t="s">
         <v>1176</v>
       </c>
-      <c r="L15" s="44">
+      <c r="L15" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="41" t="s">
         <v>1175</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C16" s="40">
         <v>1</v>
       </c>
-      <c r="K16" s="45" t="s">
+      <c r="K16" s="39" t="s">
         <v>1174</v>
       </c>
-      <c r="L16" s="44">
+      <c r="L16" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="39" t="s">
         <v>1173</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="38">
         <v>1</v>
       </c>
-      <c r="K17" s="45" t="s">
+      <c r="K17" s="39" t="s">
         <v>1173</v>
       </c>
-      <c r="L17" s="44">
+      <c r="L17" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="39" t="s">
         <v>1172</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="38">
         <v>1</v>
       </c>
-      <c r="K18" s="45" t="s">
+      <c r="K18" s="39" t="s">
         <v>1172</v>
       </c>
-      <c r="L18" s="44">
+      <c r="L18" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="39" t="s">
         <v>1171</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="38">
         <v>1</v>
       </c>
-      <c r="K19" s="45" t="s">
+      <c r="K19" s="39" t="s">
         <v>1171</v>
       </c>
-      <c r="L19" s="44">
+      <c r="L19" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="39" t="s">
         <v>1170</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="38">
         <v>1</v>
       </c>
       <c r="E20">
         <f>SUM(C11:C21)</f>
         <v>12</v>
       </c>
-      <c r="K20" s="45" t="s">
+      <c r="K20" s="39" t="s">
         <v>1170</v>
       </c>
-      <c r="L20" s="44">
+      <c r="L20" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="39" t="s">
         <v>1169</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="38">
         <v>1</v>
       </c>
       <c r="E21">
@@ -5166,10 +5218,10 @@
         <f>12/283</f>
         <v>4.2402826855123678E-2</v>
       </c>
-      <c r="K21" s="45" t="s">
+      <c r="K21" s="39" t="s">
         <v>1169</v>
       </c>
-      <c r="L21" s="44">
+      <c r="L21" s="38">
         <v>1</v>
       </c>
     </row>
@@ -5179,8 +5231,186 @@
         <v>295</v>
       </c>
     </row>
+    <row r="29" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="2:13" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="43" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="39" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C31" s="38">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="39" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C32" s="38">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="39" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C33" s="38">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="39" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C34" s="38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="52" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C35" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="39" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C36" s="38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="39" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C37" s="38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="39" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C38" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="52" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C39" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="49" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C40" s="51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="49" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C41" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="49" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C42" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="49" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C43" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="49" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C44" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="49" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C45" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="49" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C46" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="39" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C47" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="39" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C48" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="39" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C49" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="39" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C50" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="49" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C51" s="38">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5199,7 +5429,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -5404,7 +5634,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -5631,10 +5861,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>427</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -5642,10 +5872,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>123</v>
       </c>
     </row>
@@ -5658,26 +5888,26 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>30</v>
       </c>
     </row>
@@ -5706,10 +5936,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -5721,10 +5951,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>17</v>
       </c>
     </row>
@@ -5745,18 +5975,18 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>10</v>
       </c>
     </row>
@@ -5905,34 +6135,34 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="8">
         <v>2</v>
       </c>
     </row>
@@ -6057,58 +6287,58 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6212,10 +6442,10 @@
       <c r="A3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>34</v>
       </c>
     </row>
@@ -6236,18 +6466,18 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>7</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -6259,10 +6489,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>6</v>
       </c>
     </row>
@@ -6275,10 +6505,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>5</v>
       </c>
     </row>
@@ -6411,18 +6641,18 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <v>1</v>
       </c>
     </row>
@@ -7455,8 +7685,8 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.1796875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="37.1796875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="18" customWidth="1"/>
     <col min="4" max="4" width="14.1796875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="15.6328125" customWidth="1"/>
@@ -7466,10 +7696,10 @@
       <c r="A1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>1167</v>
       </c>
-      <c r="C1" s="19">
+      <c r="C1" s="18">
         <v>71</v>
       </c>
     </row>
@@ -7477,10 +7707,10 @@
       <c r="A2" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>1149</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="19">
         <v>1276</v>
       </c>
     </row>
@@ -7488,10 +7718,10 @@
       <c r="A3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>1150</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="20">
         <v>45</v>
       </c>
     </row>
@@ -7499,10 +7729,10 @@
       <c r="A4" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>1151</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>1321</v>
       </c>
     </row>
@@ -7510,10 +7740,10 @@
       <c r="A5" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>1153</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>1152</v>
       </c>
     </row>
@@ -7526,51 +7756,51 @@
       <c r="A7" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>1166</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>1154</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>1155</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="28" t="s">
         <v>1156</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="35" t="s">
         <v>1162</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="35" t="s">
         <v>1165</v>
       </c>
     </row>
@@ -7578,7 +7808,7 @@
       <c r="A11" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>1157</v>
       </c>
       <c r="C11">
@@ -7587,10 +7817,10 @@
       <c r="D11">
         <v>105</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="29">
         <v>191</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="30">
         <v>40</v>
       </c>
     </row>
@@ -7598,10 +7828,10 @@
       <c r="A12" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="17"/>
       <c r="C12"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -7609,30 +7839,30 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>1158</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>1155</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>1156</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>1157</v>
       </c>
       <c r="C15">
@@ -7641,10 +7871,10 @@
       <c r="D15">
         <v>191</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="31">
         <v>387</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="32">
         <v>350</v>
       </c>
     </row>
@@ -7652,10 +7882,10 @@
       <c r="A16" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="17"/>
       <c r="C16"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
@@ -7664,30 +7894,30 @@
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>1163</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>1155</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="28" t="s">
         <v>1156</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>1157</v>
       </c>
       <c r="C19">
@@ -7696,10 +7926,10 @@
       <c r="D19">
         <v>54</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="31">
         <v>97</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="32">
         <v>10</v>
       </c>
     </row>
@@ -7707,10 +7937,10 @@
       <c r="A20" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="18"/>
+      <c r="B20" s="17"/>
       <c r="C20"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
@@ -7718,30 +7948,30 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="27" t="s">
         <v>1159</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="28" t="s">
         <v>1155</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="28" t="s">
         <v>1156</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>1164</v>
       </c>
       <c r="C23">
@@ -7750,10 +7980,10 @@
       <c r="D23">
         <v>47</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="31">
         <v>97</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="32">
         <v>3</v>
       </c>
     </row>
@@ -7761,7 +7991,7 @@
       <c r="A24" t="s">
         <v>118</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>1160</v>
       </c>
       <c r="C24">
@@ -7770,10 +8000,10 @@
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="31">
         <v>11</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="32">
         <v>0</v>
       </c>
     </row>
@@ -7781,7 +8011,7 @@
       <c r="A25" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>1161</v>
       </c>
       <c r="C25">
@@ -7790,10 +8020,10 @@
       <c r="D25">
         <v>23</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="31">
         <v>43</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="32">
         <v>1</v>
       </c>
     </row>
@@ -9255,86 +9485,86 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>9</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>32</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H15" s="14" t="s">
+      <c r="G15" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="O15" s="14">
-        <v>2</v>
-      </c>
-      <c r="P15" s="14" t="s">
+      <c r="O15" s="13">
+        <v>2</v>
+      </c>
+      <c r="P15" s="13" t="s">
         <v>829</v>
       </c>
-      <c r="Q15" s="14" t="s">
+      <c r="Q15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="R15" s="14" t="s">
+      <c r="R15" s="13" t="s">
         <v>1135</v>
       </c>
-      <c r="S15" s="14">
+      <c r="S15" s="13">
         <v>2.09</v>
       </c>
-      <c r="T15" s="14" t="s">
+      <c r="T15" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="U15" s="14">
+      <c r="U15" s="13">
         <v>1.92</v>
       </c>
-      <c r="V15" s="14" t="s">
+      <c r="V15" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="X15" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y15" s="14" t="s">
+      <c r="X15" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y15" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="Z15" s="14">
+      <c r="Z15" s="13">
         <v>3</v>
       </c>
-      <c r="AA15" s="14" t="s">
+      <c r="AA15" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="AB15" s="14">
+      <c r="AB15" s="13">
         <v>4</v>
       </c>
-      <c r="AC15" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD15" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE15" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF15" s="14">
+      <c r="AC15" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD15" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE15" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF15" s="13">
         <v>133000</v>
       </c>
-      <c r="AI15" s="14">
+      <c r="AI15" s="13">
         <v>26</v>
       </c>
-      <c r="AJ15" s="14">
+      <c r="AJ15" s="13">
         <v>30</v>
       </c>
     </row>
@@ -9836,86 +10066,86 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:36" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:36" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="13">
         <v>34</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="13">
         <v>169</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="G22" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H22" s="14" t="s">
+      <c r="G22" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="O22" s="14">
-        <v>2</v>
-      </c>
-      <c r="P22" s="14" t="s">
+      <c r="O22" s="13">
+        <v>2</v>
+      </c>
+      <c r="P22" s="13" t="s">
         <v>738</v>
       </c>
-      <c r="Q22" s="14" t="s">
+      <c r="Q22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="R22" s="14" t="s">
+      <c r="R22" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="S22" s="14">
+      <c r="S22" s="13">
         <v>1.89</v>
       </c>
-      <c r="T22" s="14" t="s">
+      <c r="T22" s="13" t="s">
         <v>1139</v>
       </c>
-      <c r="U22" s="14">
+      <c r="U22" s="13">
         <v>1.88</v>
       </c>
-      <c r="V22" s="14" t="s">
+      <c r="V22" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="X22" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y22" s="14" t="s">
+      <c r="X22" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y22" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="Z22" s="14">
+      <c r="Z22" s="13">
         <v>3</v>
       </c>
-      <c r="AA22" s="14" t="s">
+      <c r="AA22" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="AB22" s="14">
+      <c r="AB22" s="13">
         <v>3</v>
       </c>
-      <c r="AC22" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD22" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE22" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF22" s="14">
+      <c r="AC22" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD22" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE22" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF22" s="13">
         <v>42000</v>
       </c>
-      <c r="AI22" s="14" t="s">
+      <c r="AI22" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="AJ22" s="14">
+      <c r="AJ22" s="13">
         <v>30</v>
       </c>
     </row>
@@ -10617,7 +10847,7 @@
       <c r="Q31" t="s">
         <v>25</v>
       </c>
-      <c r="R31" s="8" t="s">
+      <c r="R31" s="7" t="s">
         <v>1136</v>
       </c>
       <c r="S31">
@@ -10740,169 +10970,169 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:36" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="37" t="s">
+    <row r="34" spans="1:36" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="36" t="s">
         <v>934</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="36" t="s">
         <v>933</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D34" s="36">
         <v>7</v>
       </c>
-      <c r="E34" s="37">
+      <c r="E34" s="36">
         <v>727</v>
       </c>
-      <c r="F34" s="37" t="s">
+      <c r="F34" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="G34" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="H34" s="37" t="s">
+      <c r="G34" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="H34" s="36" t="s">
         <v>1142</v>
       </c>
-      <c r="O34" s="37">
+      <c r="O34" s="36">
         <v>12</v>
       </c>
-      <c r="P34" s="37" t="s">
+      <c r="P34" s="36" t="s">
         <v>1143</v>
       </c>
-      <c r="Q34" s="37" t="s">
+      <c r="Q34" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="R34" s="37" t="s">
+      <c r="R34" s="36" t="s">
         <v>1136</v>
       </c>
-      <c r="S34" s="37">
+      <c r="S34" s="36">
         <v>2.27</v>
       </c>
-      <c r="T34" s="37" t="s">
+      <c r="T34" s="36" t="s">
         <v>1135</v>
       </c>
-      <c r="U34" s="37">
+      <c r="U34" s="36">
         <v>2.2000000000000002</v>
       </c>
-      <c r="X34" s="37" t="s">
+      <c r="X34" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="Y34" s="37" t="s">
+      <c r="Y34" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="Z34" s="37">
-        <v>2</v>
-      </c>
-      <c r="AA34" s="37" t="s">
+      <c r="Z34" s="36">
+        <v>2</v>
+      </c>
+      <c r="AA34" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="AB34" s="37">
-        <v>2</v>
-      </c>
-      <c r="AC34" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD34" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE34" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF34" s="37">
+      <c r="AB34" s="36">
+        <v>2</v>
+      </c>
+      <c r="AC34" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD34" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE34" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF34" s="36">
         <v>44000</v>
       </c>
-      <c r="AI34" s="37">
+      <c r="AI34" s="36">
         <v>3</v>
       </c>
-      <c r="AJ34" s="37">
+      <c r="AJ34" s="36">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:36" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="37" t="s">
+    <row r="35" spans="1:36" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="36">
         <v>29</v>
       </c>
-      <c r="E35" s="37">
+      <c r="E35" s="36">
         <v>16</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="F35" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="G35" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="H35" s="37" t="s">
+      <c r="G35" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="H35" s="36" t="s">
         <v>1142</v>
       </c>
-      <c r="O35" s="37">
+      <c r="O35" s="36">
         <v>12</v>
       </c>
-      <c r="P35" s="37" t="s">
+      <c r="P35" s="36" t="s">
         <v>1141</v>
       </c>
-      <c r="Q35" s="37" t="s">
+      <c r="Q35" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="R35" s="37" t="s">
+      <c r="R35" s="36" t="s">
         <v>1136</v>
       </c>
-      <c r="S35" s="37">
+      <c r="S35" s="36">
         <v>2.04</v>
       </c>
-      <c r="T35" s="37" t="s">
+      <c r="T35" s="36" t="s">
         <v>1135</v>
       </c>
-      <c r="U35" s="37">
+      <c r="U35" s="36">
         <v>2.0299999999999998</v>
       </c>
-      <c r="X35" s="37" t="s">
+      <c r="X35" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="Y35" s="37" t="s">
+      <c r="Y35" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="Z35" s="37">
+      <c r="Z35" s="36">
         <v>3</v>
       </c>
-      <c r="AA35" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB35" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC35" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD35" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE35" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF35" s="37">
+      <c r="AA35" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB35" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC35" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD35" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE35" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF35" s="36">
         <v>220000</v>
       </c>
-      <c r="AG35" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH35" s="37" t="s">
+      <c r="AG35" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH35" s="36" t="s">
         <v>1140</v>
       </c>
-      <c r="AI35" s="37">
+      <c r="AI35" s="36">
         <v>18</v>
       </c>
-      <c r="AJ35" s="37" t="s">
+      <c r="AJ35" s="36" t="s">
         <v>603</v>
       </c>
     </row>
@@ -10929,7 +11159,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="49" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>1064</v>
       </c>
       <c r="B1" t="s">
@@ -11075,7 +11305,7 @@
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
+      <c r="A2" s="6"/>
       <c r="B2" t="s">
         <v>428</v>
       </c>
@@ -11153,7 +11383,7 @@
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="44" t="s">
         <v>1013</v>
       </c>
       <c r="B3" t="s">
@@ -11236,7 +11466,7 @@
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A4" s="38"/>
+      <c r="A4" s="44"/>
       <c r="B4" t="s">
         <v>834</v>
       </c>
@@ -11320,7 +11550,7 @@
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A5" s="38"/>
+      <c r="A5" s="44"/>
       <c r="B5" t="s">
         <v>957</v>
       </c>
@@ -11395,7 +11625,7 @@
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
+      <c r="A6" s="6"/>
       <c r="B6" t="s">
         <v>957</v>
       </c>
@@ -11470,7 +11700,7 @@
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>946</v>
       </c>
@@ -11545,7 +11775,7 @@
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>145</v>
       </c>
@@ -11617,7 +11847,7 @@
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>145</v>
       </c>
@@ -11689,7 +11919,7 @@
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
+      <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>834</v>
       </c>
@@ -11761,7 +11991,7 @@
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
+      <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>834</v>
       </c>
@@ -11836,7 +12066,7 @@
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>834</v>
       </c>
@@ -11911,7 +12141,7 @@
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
+      <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>242</v>
       </c>
@@ -11983,7 +12213,7 @@
       </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>239</v>
       </c>
@@ -12055,7 +12285,7 @@
       </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
+      <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>239</v>
       </c>
@@ -12130,7 +12360,7 @@
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
+      <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>239</v>
       </c>
@@ -12202,7 +12432,7 @@
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A17" s="7"/>
+      <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>136</v>
       </c>
@@ -12274,7 +12504,7 @@
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>136</v>
       </c>
@@ -12346,7 +12576,7 @@
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A19" s="7"/>
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>686</v>
       </c>
@@ -12421,7 +12651,7 @@
       </c>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A20" s="7"/>
+      <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>686</v>
       </c>
@@ -12493,7 +12723,7 @@
       </c>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
+      <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>686</v>
       </c>
@@ -12568,7 +12798,7 @@
       </c>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A22" s="7"/>
+      <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>686</v>
       </c>
@@ -12640,7 +12870,7 @@
       </c>
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A23" s="7"/>
+      <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>686</v>
       </c>
@@ -12712,7 +12942,7 @@
       </c>
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A24" s="7"/>
+      <c r="A24" s="6"/>
       <c r="B24" t="s">
         <v>641</v>
       </c>
@@ -12784,7 +13014,7 @@
       </c>
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A25" s="7"/>
+      <c r="A25" s="6"/>
       <c r="B25" t="s">
         <v>231</v>
       </c>
@@ -12856,7 +13086,7 @@
       </c>
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A26" s="7"/>
+      <c r="A26" s="6"/>
       <c r="B26" t="s">
         <v>227</v>
       </c>
@@ -12928,7 +13158,7 @@
       </c>
     </row>
     <row r="27" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A27" s="7"/>
+      <c r="A27" s="6"/>
       <c r="B27" t="s">
         <v>530</v>
       </c>
@@ -13000,7 +13230,7 @@
       </c>
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A28" s="7"/>
+      <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>513</v>
       </c>
@@ -13075,7 +13305,7 @@
       </c>
     </row>
     <row r="29" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
+      <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>198</v>
       </c>
@@ -13150,7 +13380,7 @@
       </c>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A30" s="7"/>
+      <c r="A30" s="6"/>
       <c r="B30" t="s">
         <v>198</v>
       </c>
@@ -13225,7 +13455,7 @@
       </c>
     </row>
     <row r="31" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A31" s="7"/>
+      <c r="A31" s="6"/>
       <c r="B31" t="s">
         <v>176</v>
       </c>
@@ -13300,7 +13530,7 @@
       </c>
     </row>
     <row r="32" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A32" s="7"/>
+      <c r="A32" s="6"/>
       <c r="B32" t="s">
         <v>176</v>
       </c>
@@ -13372,7 +13602,7 @@
       </c>
     </row>
     <row r="33" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A33" s="7"/>
+      <c r="A33" s="6"/>
       <c r="B33" t="s">
         <v>153</v>
       </c>
@@ -13444,7 +13674,7 @@
       </c>
     </row>
     <row r="34" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A34" s="7"/>
+      <c r="A34" s="6"/>
       <c r="B34" t="s">
         <v>153</v>
       </c>
@@ -13516,7 +13746,7 @@
       </c>
     </row>
     <row r="35" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A35" s="7"/>
+      <c r="A35" s="6"/>
       <c r="B35" t="s">
         <v>153</v>
       </c>
@@ -13588,7 +13818,7 @@
       </c>
     </row>
     <row r="36" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A36" s="7"/>
+      <c r="A36" s="6"/>
       <c r="B36" t="s">
         <v>153</v>
       </c>
@@ -13660,7 +13890,7 @@
       </c>
     </row>
     <row r="37" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A37" s="7"/>
+      <c r="A37" s="6"/>
       <c r="B37" t="s">
         <v>339</v>
       </c>
@@ -13735,7 +13965,7 @@
       </c>
     </row>
     <row r="38" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A38" s="7"/>
+      <c r="A38" s="6"/>
       <c r="B38" t="s">
         <v>313</v>
       </c>
@@ -13807,7 +14037,7 @@
       </c>
     </row>
     <row r="39" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A39" s="7"/>
+      <c r="A39" s="6"/>
       <c r="B39" t="s">
         <v>272</v>
       </c>
@@ -13879,7 +14109,7 @@
       </c>
     </row>
     <row r="40" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A40" s="7"/>
+      <c r="A40" s="6"/>
       <c r="B40" t="s">
         <v>272</v>
       </c>
@@ -13951,7 +14181,7 @@
       </c>
     </row>
     <row r="41" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A41" s="7"/>
+      <c r="A41" s="6"/>
       <c r="B41" t="s">
         <v>957</v>
       </c>
@@ -14035,7 +14265,7 @@
       </c>
     </row>
     <row r="42" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A42" s="7"/>
+      <c r="A42" s="6"/>
       <c r="B42" t="s">
         <v>145</v>
       </c>
@@ -14119,7 +14349,7 @@
       </c>
     </row>
     <row r="43" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A43" s="7"/>
+      <c r="A43" s="6"/>
       <c r="B43" t="s">
         <v>834</v>
       </c>
@@ -14203,7 +14433,7 @@
       </c>
     </row>
     <row r="44" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A44" s="7"/>
+      <c r="A44" s="6"/>
       <c r="B44" t="s">
         <v>239</v>
       </c>
@@ -14287,7 +14517,7 @@
       </c>
     </row>
     <row r="45" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A45" s="7"/>
+      <c r="A45" s="6"/>
       <c r="B45" t="s">
         <v>136</v>
       </c>
@@ -14371,7 +14601,7 @@
       </c>
     </row>
     <row r="46" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A46" s="7"/>
+      <c r="A46" s="6"/>
       <c r="B46" t="s">
         <v>136</v>
       </c>
@@ -14458,7 +14688,7 @@
       </c>
     </row>
     <row r="47" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A47" s="7"/>
+      <c r="A47" s="6"/>
       <c r="B47" t="s">
         <v>686</v>
       </c>
@@ -14545,7 +14775,7 @@
       </c>
     </row>
     <row r="48" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A48" s="7"/>
+      <c r="A48" s="6"/>
       <c r="B48" t="s">
         <v>686</v>
       </c>
@@ -14632,7 +14862,7 @@
       </c>
     </row>
     <row r="49" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A49" s="7"/>
+      <c r="A49" s="6"/>
       <c r="B49" t="s">
         <v>231</v>
       </c>
@@ -14716,7 +14946,7 @@
       </c>
     </row>
     <row r="50" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A50" s="7"/>
+      <c r="A50" s="6"/>
       <c r="B50" t="s">
         <v>231</v>
       </c>
@@ -14800,7 +15030,7 @@
       </c>
     </row>
     <row r="51" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A51" s="7"/>
+      <c r="A51" s="6"/>
       <c r="B51" t="s">
         <v>227</v>
       </c>
@@ -14884,7 +15114,7 @@
       </c>
     </row>
     <row r="52" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A52" s="7"/>
+      <c r="A52" s="6"/>
       <c r="B52" t="s">
         <v>227</v>
       </c>
@@ -14968,7 +15198,7 @@
       </c>
     </row>
     <row r="53" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A53" s="7"/>
+      <c r="A53" s="6"/>
       <c r="B53" t="s">
         <v>212</v>
       </c>
@@ -15052,7 +15282,7 @@
       </c>
     </row>
     <row r="54" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A54" s="7"/>
+      <c r="A54" s="6"/>
       <c r="B54" t="s">
         <v>212</v>
       </c>
@@ -15136,7 +15366,7 @@
       </c>
     </row>
     <row r="55" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A55" s="7"/>
+      <c r="A55" s="6"/>
       <c r="B55" t="s">
         <v>212</v>
       </c>
@@ -15223,7 +15453,7 @@
       </c>
     </row>
     <row r="56" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A56" s="7"/>
+      <c r="A56" s="6"/>
       <c r="B56" t="s">
         <v>530</v>
       </c>
@@ -15307,7 +15537,7 @@
       </c>
     </row>
     <row r="57" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A57" s="7"/>
+      <c r="A57" s="6"/>
       <c r="B57" t="s">
         <v>187</v>
       </c>
@@ -15394,7 +15624,7 @@
       </c>
     </row>
     <row r="58" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A58" s="7"/>
+      <c r="A58" s="6"/>
       <c r="B58" t="s">
         <v>176</v>
       </c>
@@ -15478,7 +15708,7 @@
       </c>
     </row>
     <row r="59" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A59" s="7"/>
+      <c r="A59" s="6"/>
       <c r="B59" t="s">
         <v>158</v>
       </c>
@@ -15562,7 +15792,7 @@
       </c>
     </row>
     <row r="60" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A60" s="7"/>
+      <c r="A60" s="6"/>
       <c r="B60" t="s">
         <v>339</v>
       </c>
@@ -15646,7 +15876,7 @@
       </c>
     </row>
     <row r="61" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A61" s="7"/>
+      <c r="A61" s="6"/>
       <c r="B61" t="s">
         <v>313</v>
       </c>
@@ -15730,7 +15960,7 @@
       </c>
     </row>
     <row r="62" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A62" s="7"/>
+      <c r="A62" s="6"/>
       <c r="B62" t="s">
         <v>313</v>
       </c>
@@ -15814,7 +16044,7 @@
       </c>
     </row>
     <row r="63" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A63" s="7"/>
+      <c r="A63" s="6"/>
       <c r="B63" t="s">
         <v>957</v>
       </c>
@@ -15886,7 +16116,7 @@
       </c>
     </row>
     <row r="64" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A64" s="7"/>
+      <c r="A64" s="6"/>
       <c r="B64" t="s">
         <v>957</v>
       </c>
@@ -15958,7 +16188,7 @@
       </c>
     </row>
     <row r="65" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A65" s="7"/>
+      <c r="A65" s="6"/>
       <c r="B65" t="s">
         <v>957</v>
       </c>
@@ -16030,7 +16260,7 @@
       </c>
     </row>
     <row r="66" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A66" s="7"/>
+      <c r="A66" s="6"/>
       <c r="B66" t="s">
         <v>957</v>
       </c>
@@ -16102,7 +16332,7 @@
       </c>
     </row>
     <row r="67" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A67" s="7"/>
+      <c r="A67" s="6"/>
       <c r="B67" t="s">
         <v>957</v>
       </c>
@@ -16174,7 +16404,7 @@
       </c>
     </row>
     <row r="68" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A68" s="7"/>
+      <c r="A68" s="6"/>
       <c r="B68" t="s">
         <v>957</v>
       </c>
@@ -16246,7 +16476,7 @@
       </c>
     </row>
     <row r="69" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A69" s="7"/>
+      <c r="A69" s="6"/>
       <c r="B69" t="s">
         <v>957</v>
       </c>
@@ -16318,7 +16548,7 @@
       </c>
     </row>
     <row r="70" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A70" s="7"/>
+      <c r="A70" s="6"/>
       <c r="B70" t="s">
         <v>946</v>
       </c>
@@ -16390,7 +16620,7 @@
       </c>
     </row>
     <row r="71" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A71" s="7"/>
+      <c r="A71" s="6"/>
       <c r="B71" t="s">
         <v>946</v>
       </c>
@@ -16462,7 +16692,7 @@
       </c>
     </row>
     <row r="72" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A72" s="7"/>
+      <c r="A72" s="6"/>
       <c r="B72" t="s">
         <v>946</v>
       </c>
@@ -16534,7 +16764,7 @@
       </c>
     </row>
     <row r="73" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A73" s="7"/>
+      <c r="A73" s="6"/>
       <c r="B73" t="s">
         <v>946</v>
       </c>
@@ -16606,7 +16836,7 @@
       </c>
     </row>
     <row r="74" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A74" s="7"/>
+      <c r="A74" s="6"/>
       <c r="B74" t="s">
         <v>946</v>
       </c>
@@ -16678,7 +16908,7 @@
       </c>
     </row>
     <row r="75" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A75" s="7"/>
+      <c r="A75" s="6"/>
       <c r="B75" t="s">
         <v>946</v>
       </c>
@@ -16750,7 +16980,7 @@
       </c>
     </row>
     <row r="76" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A76" s="7"/>
+      <c r="A76" s="6"/>
       <c r="B76" t="s">
         <v>946</v>
       </c>
@@ -16822,7 +17052,7 @@
       </c>
     </row>
     <row r="77" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A77" s="7"/>
+      <c r="A77" s="6"/>
       <c r="B77" t="s">
         <v>946</v>
       </c>
@@ -16894,7 +17124,7 @@
       </c>
     </row>
     <row r="78" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A78" s="7"/>
+      <c r="A78" s="6"/>
       <c r="B78" t="s">
         <v>946</v>
       </c>
@@ -16969,7 +17199,7 @@
       </c>
     </row>
     <row r="79" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A79" s="7"/>
+      <c r="A79" s="6"/>
       <c r="B79" t="s">
         <v>934</v>
       </c>
@@ -17041,7 +17271,7 @@
       </c>
     </row>
     <row r="80" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A80" s="7"/>
+      <c r="A80" s="6"/>
       <c r="B80" t="s">
         <v>934</v>
       </c>
@@ -17113,7 +17343,7 @@
       </c>
     </row>
     <row r="81" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A81" s="7"/>
+      <c r="A81" s="6"/>
       <c r="B81" t="s">
         <v>934</v>
       </c>
@@ -17185,7 +17415,7 @@
       </c>
     </row>
     <row r="82" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A82" s="7"/>
+      <c r="A82" s="6"/>
       <c r="B82" t="s">
         <v>934</v>
       </c>
@@ -17257,7 +17487,7 @@
       </c>
     </row>
     <row r="83" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A83" s="7"/>
+      <c r="A83" s="6"/>
       <c r="B83" t="s">
         <v>934</v>
       </c>
@@ -17329,7 +17559,7 @@
       </c>
     </row>
     <row r="84" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A84" s="7"/>
+      <c r="A84" s="6"/>
       <c r="B84" t="s">
         <v>934</v>
       </c>
@@ -17401,7 +17631,7 @@
       </c>
     </row>
     <row r="85" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A85" s="7"/>
+      <c r="A85" s="6"/>
       <c r="B85" t="s">
         <v>934</v>
       </c>
@@ -17473,7 +17703,7 @@
       </c>
     </row>
     <row r="86" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A86" s="7"/>
+      <c r="A86" s="6"/>
       <c r="B86" t="s">
         <v>934</v>
       </c>
@@ -17545,7 +17775,7 @@
       </c>
     </row>
     <row r="87" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A87" s="7"/>
+      <c r="A87" s="6"/>
       <c r="B87" t="s">
         <v>934</v>
       </c>
@@ -17617,7 +17847,7 @@
       </c>
     </row>
     <row r="88" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A88" s="7"/>
+      <c r="A88" s="6"/>
       <c r="B88" t="s">
         <v>934</v>
       </c>
@@ -17689,7 +17919,7 @@
       </c>
     </row>
     <row r="89" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A89" s="7"/>
+      <c r="A89" s="6"/>
       <c r="B89" t="s">
         <v>264</v>
       </c>
@@ -17761,7 +17991,7 @@
       </c>
     </row>
     <row r="90" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A90" s="7"/>
+      <c r="A90" s="6"/>
       <c r="B90" t="s">
         <v>264</v>
       </c>
@@ -17833,7 +18063,7 @@
       </c>
     </row>
     <row r="91" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A91" s="7"/>
+      <c r="A91" s="6"/>
       <c r="B91" t="s">
         <v>264</v>
       </c>
@@ -17905,7 +18135,7 @@
       </c>
     </row>
     <row r="92" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A92" s="7"/>
+      <c r="A92" s="6"/>
       <c r="B92" t="s">
         <v>264</v>
       </c>
@@ -17977,7 +18207,7 @@
       </c>
     </row>
     <row r="93" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A93" s="7"/>
+      <c r="A93" s="6"/>
       <c r="B93" t="s">
         <v>264</v>
       </c>
@@ -18049,7 +18279,7 @@
       </c>
     </row>
     <row r="94" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A94" s="7"/>
+      <c r="A94" s="6"/>
       <c r="B94" t="s">
         <v>264</v>
       </c>
@@ -18121,7 +18351,7 @@
       </c>
     </row>
     <row r="95" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A95" s="7"/>
+      <c r="A95" s="6"/>
       <c r="B95" t="s">
         <v>264</v>
       </c>
@@ -18193,7 +18423,7 @@
       </c>
     </row>
     <row r="96" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A96" s="7"/>
+      <c r="A96" s="6"/>
       <c r="B96" t="s">
         <v>264</v>
       </c>
@@ -18265,7 +18495,7 @@
       </c>
     </row>
     <row r="97" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A97" s="7"/>
+      <c r="A97" s="6"/>
       <c r="B97" t="s">
         <v>264</v>
       </c>
@@ -18337,7 +18567,7 @@
       </c>
     </row>
     <row r="98" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A98" s="7"/>
+      <c r="A98" s="6"/>
       <c r="B98" t="s">
         <v>264</v>
       </c>
@@ -18409,7 +18639,7 @@
       </c>
     </row>
     <row r="99" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A99" s="7"/>
+      <c r="A99" s="6"/>
       <c r="B99" t="s">
         <v>264</v>
       </c>
@@ -18481,7 +18711,7 @@
       </c>
     </row>
     <row r="100" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A100" s="7"/>
+      <c r="A100" s="6"/>
       <c r="B100" t="s">
         <v>264</v>
       </c>
@@ -18553,7 +18783,7 @@
       </c>
     </row>
     <row r="101" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A101" s="7"/>
+      <c r="A101" s="6"/>
       <c r="B101" t="s">
         <v>264</v>
       </c>
@@ -18625,7 +18855,7 @@
       </c>
     </row>
     <row r="102" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A102" s="7"/>
+      <c r="A102" s="6"/>
       <c r="B102" t="s">
         <v>264</v>
       </c>
@@ -18694,7 +18924,7 @@
       </c>
     </row>
     <row r="103" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A103" s="7"/>
+      <c r="A103" s="6"/>
       <c r="B103" t="s">
         <v>264</v>
       </c>
@@ -18766,7 +18996,7 @@
       </c>
     </row>
     <row r="104" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A104" s="7"/>
+      <c r="A104" s="6"/>
       <c r="B104" t="s">
         <v>264</v>
       </c>
@@ -18838,7 +19068,7 @@
       </c>
     </row>
     <row r="105" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A105" s="7"/>
+      <c r="A105" s="6"/>
       <c r="B105" t="s">
         <v>264</v>
       </c>
@@ -18910,7 +19140,7 @@
       </c>
     </row>
     <row r="106" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A106" s="7"/>
+      <c r="A106" s="6"/>
       <c r="B106" t="s">
         <v>264</v>
       </c>
@@ -18982,7 +19212,7 @@
       </c>
     </row>
     <row r="107" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A107" s="7"/>
+      <c r="A107" s="6"/>
       <c r="B107" t="s">
         <v>264</v>
       </c>
@@ -19054,7 +19284,7 @@
       </c>
     </row>
     <row r="108" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A108" s="7"/>
+      <c r="A108" s="6"/>
       <c r="B108" t="s">
         <v>264</v>
       </c>
@@ -19126,7 +19356,7 @@
       </c>
     </row>
     <row r="109" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A109" s="7"/>
+      <c r="A109" s="6"/>
       <c r="B109" t="s">
         <v>264</v>
       </c>
@@ -19198,7 +19428,7 @@
       </c>
     </row>
     <row r="110" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A110" s="7"/>
+      <c r="A110" s="6"/>
       <c r="B110" t="s">
         <v>264</v>
       </c>
@@ -19270,7 +19500,7 @@
       </c>
     </row>
     <row r="111" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A111" s="7"/>
+      <c r="A111" s="6"/>
       <c r="B111" t="s">
         <v>264</v>
       </c>
@@ -19342,7 +19572,7 @@
       </c>
     </row>
     <row r="112" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A112" s="7"/>
+      <c r="A112" s="6"/>
       <c r="B112" t="s">
         <v>264</v>
       </c>
@@ -19414,7 +19644,7 @@
       </c>
     </row>
     <row r="113" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A113" s="7"/>
+      <c r="A113" s="6"/>
       <c r="B113" t="s">
         <v>264</v>
       </c>
@@ -19486,7 +19716,7 @@
       </c>
     </row>
     <row r="114" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A114" s="7"/>
+      <c r="A114" s="6"/>
       <c r="B114" t="s">
         <v>264</v>
       </c>
@@ -19558,7 +19788,7 @@
       </c>
     </row>
     <row r="115" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A115" s="7"/>
+      <c r="A115" s="6"/>
       <c r="B115" t="s">
         <v>264</v>
       </c>
@@ -19630,7 +19860,7 @@
       </c>
     </row>
     <row r="116" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A116" s="7"/>
+      <c r="A116" s="6"/>
       <c r="B116" t="s">
         <v>264</v>
       </c>
@@ -19702,7 +19932,7 @@
       </c>
     </row>
     <row r="117" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A117" s="7"/>
+      <c r="A117" s="6"/>
       <c r="B117" t="s">
         <v>264</v>
       </c>
@@ -19774,7 +20004,7 @@
       </c>
     </row>
     <row r="118" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A118" s="7"/>
+      <c r="A118" s="6"/>
       <c r="B118" t="s">
         <v>145</v>
       </c>
@@ -19846,7 +20076,7 @@
       </c>
     </row>
     <row r="119" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A119" s="7"/>
+      <c r="A119" s="6"/>
       <c r="B119" t="s">
         <v>145</v>
       </c>
@@ -19918,7 +20148,7 @@
       </c>
     </row>
     <row r="120" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A120" s="7"/>
+      <c r="A120" s="6"/>
       <c r="B120" t="s">
         <v>145</v>
       </c>
@@ -19990,7 +20220,7 @@
       </c>
     </row>
     <row r="121" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A121" s="7"/>
+      <c r="A121" s="6"/>
       <c r="B121" t="s">
         <v>145</v>
       </c>
@@ -20062,7 +20292,7 @@
       </c>
     </row>
     <row r="122" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A122" s="7"/>
+      <c r="A122" s="6"/>
       <c r="B122" t="s">
         <v>145</v>
       </c>
@@ -20134,7 +20364,7 @@
       </c>
     </row>
     <row r="123" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A123" s="7"/>
+      <c r="A123" s="6"/>
       <c r="B123" t="s">
         <v>145</v>
       </c>
@@ -20206,7 +20436,7 @@
       </c>
     </row>
     <row r="124" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A124" s="7"/>
+      <c r="A124" s="6"/>
       <c r="B124" t="s">
         <v>145</v>
       </c>
@@ -20278,7 +20508,7 @@
       </c>
     </row>
     <row r="125" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A125" s="7"/>
+      <c r="A125" s="6"/>
       <c r="B125" t="s">
         <v>145</v>
       </c>
@@ -20350,7 +20580,7 @@
       </c>
     </row>
     <row r="126" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A126" s="7"/>
+      <c r="A126" s="6"/>
       <c r="B126" t="s">
         <v>145</v>
       </c>
@@ -20422,7 +20652,7 @@
       </c>
     </row>
     <row r="127" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A127" s="7"/>
+      <c r="A127" s="6"/>
       <c r="B127" t="s">
         <v>145</v>
       </c>
@@ -20494,7 +20724,7 @@
       </c>
     </row>
     <row r="128" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A128" s="7"/>
+      <c r="A128" s="6"/>
       <c r="B128" t="s">
         <v>145</v>
       </c>
@@ -20566,7 +20796,7 @@
       </c>
     </row>
     <row r="129" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A129" s="7"/>
+      <c r="A129" s="6"/>
       <c r="B129" t="s">
         <v>145</v>
       </c>
@@ -20638,7 +20868,7 @@
       </c>
     </row>
     <row r="130" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A130" s="7"/>
+      <c r="A130" s="6"/>
       <c r="B130" t="s">
         <v>145</v>
       </c>
@@ -20710,7 +20940,7 @@
       </c>
     </row>
     <row r="131" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A131" s="7"/>
+      <c r="A131" s="6"/>
       <c r="B131" t="s">
         <v>145</v>
       </c>
@@ -20782,7 +21012,7 @@
       </c>
     </row>
     <row r="132" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A132" s="7"/>
+      <c r="A132" s="6"/>
       <c r="B132" t="s">
         <v>145</v>
       </c>
@@ -20854,7 +21084,7 @@
       </c>
     </row>
     <row r="133" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A133" s="7"/>
+      <c r="A133" s="6"/>
       <c r="B133" t="s">
         <v>145</v>
       </c>
@@ -20926,7 +21156,7 @@
       </c>
     </row>
     <row r="134" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A134" s="7"/>
+      <c r="A134" s="6"/>
       <c r="B134" t="s">
         <v>145</v>
       </c>
@@ -20998,7 +21228,7 @@
       </c>
     </row>
     <row r="135" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A135" s="7"/>
+      <c r="A135" s="6"/>
       <c r="B135" t="s">
         <v>145</v>
       </c>
@@ -21070,7 +21300,7 @@
       </c>
     </row>
     <row r="136" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A136" s="7"/>
+      <c r="A136" s="6"/>
       <c r="B136" t="s">
         <v>145</v>
       </c>
@@ -21142,7 +21372,7 @@
       </c>
     </row>
     <row r="137" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A137" s="7"/>
+      <c r="A137" s="6"/>
       <c r="B137" t="s">
         <v>145</v>
       </c>
@@ -21214,7 +21444,7 @@
       </c>
     </row>
     <row r="138" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A138" s="7"/>
+      <c r="A138" s="6"/>
       <c r="B138" t="s">
         <v>145</v>
       </c>
@@ -21286,7 +21516,7 @@
       </c>
     </row>
     <row r="139" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A139" s="7"/>
+      <c r="A139" s="6"/>
       <c r="B139" t="s">
         <v>145</v>
       </c>
@@ -21358,7 +21588,7 @@
       </c>
     </row>
     <row r="140" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A140" s="7"/>
+      <c r="A140" s="6"/>
       <c r="B140" t="s">
         <v>145</v>
       </c>
@@ -21430,7 +21660,7 @@
       </c>
     </row>
     <row r="141" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A141" s="7"/>
+      <c r="A141" s="6"/>
       <c r="B141" t="s">
         <v>145</v>
       </c>
@@ -21502,7 +21732,7 @@
       </c>
     </row>
     <row r="142" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A142" s="7"/>
+      <c r="A142" s="6"/>
       <c r="B142" t="s">
         <v>834</v>
       </c>
@@ -21574,7 +21804,7 @@
       </c>
     </row>
     <row r="143" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A143" s="7"/>
+      <c r="A143" s="6"/>
       <c r="B143" t="s">
         <v>834</v>
       </c>
@@ -21646,7 +21876,7 @@
       </c>
     </row>
     <row r="144" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A144" s="7"/>
+      <c r="A144" s="6"/>
       <c r="B144" t="s">
         <v>834</v>
       </c>
@@ -21718,7 +21948,7 @@
       </c>
     </row>
     <row r="145" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A145" s="7"/>
+      <c r="A145" s="6"/>
       <c r="B145" t="s">
         <v>834</v>
       </c>
@@ -21790,7 +22020,7 @@
       </c>
     </row>
     <row r="146" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A146" s="7"/>
+      <c r="A146" s="6"/>
       <c r="B146" t="s">
         <v>834</v>
       </c>
@@ -21862,7 +22092,7 @@
       </c>
     </row>
     <row r="147" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A147" s="7"/>
+      <c r="A147" s="6"/>
       <c r="B147" t="s">
         <v>834</v>
       </c>
@@ -21934,7 +22164,7 @@
       </c>
     </row>
     <row r="148" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A148" s="7"/>
+      <c r="A148" s="6"/>
       <c r="B148" t="s">
         <v>834</v>
       </c>
@@ -22006,7 +22236,7 @@
       </c>
     </row>
     <row r="149" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A149" s="7"/>
+      <c r="A149" s="6"/>
       <c r="B149" t="s">
         <v>834</v>
       </c>
@@ -22078,7 +22308,7 @@
       </c>
     </row>
     <row r="150" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A150" s="7"/>
+      <c r="A150" s="6"/>
       <c r="B150" t="s">
         <v>834</v>
       </c>
@@ -22150,7 +22380,7 @@
       </c>
     </row>
     <row r="151" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A151" s="7"/>
+      <c r="A151" s="6"/>
       <c r="B151" t="s">
         <v>834</v>
       </c>
@@ -22222,7 +22452,7 @@
       </c>
     </row>
     <row r="152" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A152" s="7"/>
+      <c r="A152" s="6"/>
       <c r="B152" t="s">
         <v>834</v>
       </c>
@@ -22294,7 +22524,7 @@
       </c>
     </row>
     <row r="153" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A153" s="7"/>
+      <c r="A153" s="6"/>
       <c r="B153" t="s">
         <v>834</v>
       </c>
@@ -22366,7 +22596,7 @@
       </c>
     </row>
     <row r="154" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A154" s="7"/>
+      <c r="A154" s="6"/>
       <c r="B154" t="s">
         <v>834</v>
       </c>
@@ -22438,7 +22668,7 @@
       </c>
     </row>
     <row r="155" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A155" s="7"/>
+      <c r="A155" s="6"/>
       <c r="B155" t="s">
         <v>834</v>
       </c>
@@ -22510,7 +22740,7 @@
       </c>
     </row>
     <row r="156" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A156" s="7"/>
+      <c r="A156" s="6"/>
       <c r="B156" t="s">
         <v>834</v>
       </c>
@@ -22582,7 +22812,7 @@
       </c>
     </row>
     <row r="157" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A157" s="7"/>
+      <c r="A157" s="6"/>
       <c r="B157" t="s">
         <v>834</v>
       </c>
@@ -22654,7 +22884,7 @@
       </c>
     </row>
     <row r="158" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A158" s="7"/>
+      <c r="A158" s="6"/>
       <c r="B158" t="s">
         <v>834</v>
       </c>
@@ -22726,7 +22956,7 @@
       </c>
     </row>
     <row r="159" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A159" s="7"/>
+      <c r="A159" s="6"/>
       <c r="B159" t="s">
         <v>834</v>
       </c>
@@ -22798,7 +23028,7 @@
       </c>
     </row>
     <row r="160" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A160" s="7"/>
+      <c r="A160" s="6"/>
       <c r="B160" t="s">
         <v>834</v>
       </c>
@@ -22870,7 +23100,7 @@
       </c>
     </row>
     <row r="161" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A161" s="7"/>
+      <c r="A161" s="6"/>
       <c r="B161" t="s">
         <v>834</v>
       </c>
@@ -22942,7 +23172,7 @@
       </c>
     </row>
     <row r="162" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A162" s="7"/>
+      <c r="A162" s="6"/>
       <c r="B162" t="s">
         <v>258</v>
       </c>
@@ -23014,7 +23244,7 @@
       </c>
     </row>
     <row r="163" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A163" s="7"/>
+      <c r="A163" s="6"/>
       <c r="B163" t="s">
         <v>258</v>
       </c>
@@ -23086,7 +23316,7 @@
       </c>
     </row>
     <row r="164" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A164" s="7"/>
+      <c r="A164" s="6"/>
       <c r="B164" t="s">
         <v>258</v>
       </c>
@@ -23158,7 +23388,7 @@
       </c>
     </row>
     <row r="165" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A165" s="7"/>
+      <c r="A165" s="6"/>
       <c r="B165" t="s">
         <v>258</v>
       </c>
@@ -23230,7 +23460,7 @@
       </c>
     </row>
     <row r="166" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A166" s="7"/>
+      <c r="A166" s="6"/>
       <c r="B166" t="s">
         <v>258</v>
       </c>
@@ -23302,7 +23532,7 @@
       </c>
     </row>
     <row r="167" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A167" s="7"/>
+      <c r="A167" s="6"/>
       <c r="B167" t="s">
         <v>258</v>
       </c>
@@ -23374,7 +23604,7 @@
       </c>
     </row>
     <row r="168" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A168" s="7"/>
+      <c r="A168" s="6"/>
       <c r="B168" t="s">
         <v>258</v>
       </c>
@@ -23446,7 +23676,7 @@
       </c>
     </row>
     <row r="169" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A169" s="7"/>
+      <c r="A169" s="6"/>
       <c r="B169" t="s">
         <v>258</v>
       </c>
@@ -23518,7 +23748,7 @@
       </c>
     </row>
     <row r="170" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A170" s="7"/>
+      <c r="A170" s="6"/>
       <c r="B170" t="s">
         <v>258</v>
       </c>
@@ -23590,7 +23820,7 @@
       </c>
     </row>
     <row r="171" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A171" s="7"/>
+      <c r="A171" s="6"/>
       <c r="B171" t="s">
         <v>258</v>
       </c>
@@ -23662,7 +23892,7 @@
       </c>
     </row>
     <row r="172" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A172" s="7"/>
+      <c r="A172" s="6"/>
       <c r="B172" t="s">
         <v>258</v>
       </c>
@@ -23728,7 +23958,7 @@
       </c>
     </row>
     <row r="173" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A173" s="7"/>
+      <c r="A173" s="6"/>
       <c r="B173" t="s">
         <v>258</v>
       </c>
@@ -23800,7 +24030,7 @@
       </c>
     </row>
     <row r="174" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A174" s="7"/>
+      <c r="A174" s="6"/>
       <c r="B174" t="s">
         <v>258</v>
       </c>
@@ -23872,7 +24102,7 @@
       </c>
     </row>
     <row r="175" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A175" s="7"/>
+      <c r="A175" s="6"/>
       <c r="B175" t="s">
         <v>258</v>
       </c>
@@ -23944,7 +24174,7 @@
       </c>
     </row>
     <row r="176" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A176" s="7"/>
+      <c r="A176" s="6"/>
       <c r="B176" t="s">
         <v>258</v>
       </c>
@@ -24016,7 +24246,7 @@
       </c>
     </row>
     <row r="177" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A177" s="7"/>
+      <c r="A177" s="6"/>
       <c r="B177" t="s">
         <v>258</v>
       </c>
@@ -24088,7 +24318,7 @@
       </c>
     </row>
     <row r="178" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A178" s="7"/>
+      <c r="A178" s="6"/>
       <c r="B178" t="s">
         <v>255</v>
       </c>
@@ -24160,7 +24390,7 @@
       </c>
     </row>
     <row r="179" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A179" s="7"/>
+      <c r="A179" s="6"/>
       <c r="B179" t="s">
         <v>255</v>
       </c>
@@ -24232,7 +24462,7 @@
       </c>
     </row>
     <row r="180" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A180" s="7"/>
+      <c r="A180" s="6"/>
       <c r="B180" t="s">
         <v>255</v>
       </c>
@@ -24304,7 +24534,7 @@
       </c>
     </row>
     <row r="181" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A181" s="7"/>
+      <c r="A181" s="6"/>
       <c r="B181" t="s">
         <v>255</v>
       </c>
@@ -24376,7 +24606,7 @@
       </c>
     </row>
     <row r="182" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A182" s="7"/>
+      <c r="A182" s="6"/>
       <c r="B182" t="s">
         <v>255</v>
       </c>
@@ -24448,7 +24678,7 @@
       </c>
     </row>
     <row r="183" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A183" s="7"/>
+      <c r="A183" s="6"/>
       <c r="B183" t="s">
         <v>255</v>
       </c>
@@ -24520,7 +24750,7 @@
       </c>
     </row>
     <row r="184" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A184" s="7"/>
+      <c r="A184" s="6"/>
       <c r="B184" t="s">
         <v>255</v>
       </c>
@@ -24592,7 +24822,7 @@
       </c>
     </row>
     <row r="185" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A185" s="7"/>
+      <c r="A185" s="6"/>
       <c r="B185" t="s">
         <v>255</v>
       </c>
@@ -24661,7 +24891,7 @@
       </c>
     </row>
     <row r="186" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A186" s="7"/>
+      <c r="A186" s="6"/>
       <c r="B186" t="s">
         <v>255</v>
       </c>
@@ -24736,7 +24966,7 @@
       </c>
     </row>
     <row r="187" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A187" s="7"/>
+      <c r="A187" s="6"/>
       <c r="B187" t="s">
         <v>255</v>
       </c>
@@ -24808,7 +25038,7 @@
       </c>
     </row>
     <row r="188" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A188" s="7"/>
+      <c r="A188" s="6"/>
       <c r="B188" t="s">
         <v>255</v>
       </c>
@@ -24880,7 +25110,7 @@
       </c>
     </row>
     <row r="189" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A189" s="7"/>
+      <c r="A189" s="6"/>
       <c r="B189" t="s">
         <v>255</v>
       </c>
@@ -24952,7 +25182,7 @@
       </c>
     </row>
     <row r="190" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A190" s="7"/>
+      <c r="A190" s="6"/>
       <c r="B190" t="s">
         <v>252</v>
       </c>
@@ -25024,7 +25254,7 @@
       </c>
     </row>
     <row r="191" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A191" s="7"/>
+      <c r="A191" s="6"/>
       <c r="B191" t="s">
         <v>252</v>
       </c>
@@ -25096,7 +25326,7 @@
       </c>
     </row>
     <row r="192" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A192" s="7"/>
+      <c r="A192" s="6"/>
       <c r="B192" t="s">
         <v>252</v>
       </c>
@@ -25168,7 +25398,7 @@
       </c>
     </row>
     <row r="193" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A193" s="7"/>
+      <c r="A193" s="6"/>
       <c r="B193" t="s">
         <v>252</v>
       </c>
@@ -25240,7 +25470,7 @@
       </c>
     </row>
     <row r="194" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A194" s="7"/>
+      <c r="A194" s="6"/>
       <c r="B194" t="s">
         <v>252</v>
       </c>
@@ -25312,7 +25542,7 @@
       </c>
     </row>
     <row r="195" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A195" s="7"/>
+      <c r="A195" s="6"/>
       <c r="B195" t="s">
         <v>252</v>
       </c>
@@ -25384,7 +25614,7 @@
       </c>
     </row>
     <row r="196" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A196" s="7"/>
+      <c r="A196" s="6"/>
       <c r="B196" t="s">
         <v>252</v>
       </c>
@@ -25456,7 +25686,7 @@
       </c>
     </row>
     <row r="197" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A197" s="7"/>
+      <c r="A197" s="6"/>
       <c r="B197" t="s">
         <v>252</v>
       </c>
@@ -25528,7 +25758,7 @@
       </c>
     </row>
     <row r="198" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A198" s="7"/>
+      <c r="A198" s="6"/>
       <c r="B198" t="s">
         <v>252</v>
       </c>
@@ -25600,7 +25830,7 @@
       </c>
     </row>
     <row r="199" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A199" s="7"/>
+      <c r="A199" s="6"/>
       <c r="B199" t="s">
         <v>252</v>
       </c>
@@ -25672,7 +25902,7 @@
       </c>
     </row>
     <row r="200" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A200" s="7"/>
+      <c r="A200" s="6"/>
       <c r="B200" t="s">
         <v>252</v>
       </c>
@@ -25744,7 +25974,7 @@
       </c>
     </row>
     <row r="201" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A201" s="7"/>
+      <c r="A201" s="6"/>
       <c r="B201" t="s">
         <v>249</v>
       </c>
@@ -25816,7 +26046,7 @@
       </c>
     </row>
     <row r="202" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A202" s="7"/>
+      <c r="A202" s="6"/>
       <c r="B202" t="s">
         <v>249</v>
       </c>
@@ -25888,7 +26118,7 @@
       </c>
     </row>
     <row r="203" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A203" s="7"/>
+      <c r="A203" s="6"/>
       <c r="B203" t="s">
         <v>249</v>
       </c>
@@ -25960,7 +26190,7 @@
       </c>
     </row>
     <row r="204" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A204" s="7"/>
+      <c r="A204" s="6"/>
       <c r="B204" t="s">
         <v>249</v>
       </c>
@@ -26032,7 +26262,7 @@
       </c>
     </row>
     <row r="205" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A205" s="7"/>
+      <c r="A205" s="6"/>
       <c r="B205" t="s">
         <v>249</v>
       </c>
@@ -26104,7 +26334,7 @@
       </c>
     </row>
     <row r="206" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A206" s="7"/>
+      <c r="A206" s="6"/>
       <c r="B206" t="s">
         <v>249</v>
       </c>
@@ -26176,7 +26406,7 @@
       </c>
     </row>
     <row r="207" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A207" s="7"/>
+      <c r="A207" s="6"/>
       <c r="B207" t="s">
         <v>249</v>
       </c>
@@ -26248,7 +26478,7 @@
       </c>
     </row>
     <row r="208" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A208" s="7"/>
+      <c r="A208" s="6"/>
       <c r="B208" t="s">
         <v>249</v>
       </c>
@@ -26320,7 +26550,7 @@
       </c>
     </row>
     <row r="209" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A209" s="7"/>
+      <c r="A209" s="6"/>
       <c r="B209" t="s">
         <v>249</v>
       </c>
@@ -26392,7 +26622,7 @@
       </c>
     </row>
     <row r="210" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A210" s="7"/>
+      <c r="A210" s="6"/>
       <c r="B210" t="s">
         <v>249</v>
       </c>
@@ -26464,7 +26694,7 @@
       </c>
     </row>
     <row r="211" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A211" s="7"/>
+      <c r="A211" s="6"/>
       <c r="B211" t="s">
         <v>249</v>
       </c>
@@ -26536,7 +26766,7 @@
       </c>
     </row>
     <row r="212" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A212" s="7"/>
+      <c r="A212" s="6"/>
       <c r="B212" t="s">
         <v>249</v>
       </c>
@@ -26611,7 +26841,7 @@
       </c>
     </row>
     <row r="213" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A213" s="7"/>
+      <c r="A213" s="6"/>
       <c r="B213" t="s">
         <v>242</v>
       </c>
@@ -26683,7 +26913,7 @@
       </c>
     </row>
     <row r="214" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A214" s="7"/>
+      <c r="A214" s="6"/>
       <c r="B214" t="s">
         <v>242</v>
       </c>
@@ -26755,7 +26985,7 @@
       </c>
     </row>
     <row r="215" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A215" s="7"/>
+      <c r="A215" s="6"/>
       <c r="B215" t="s">
         <v>242</v>
       </c>
@@ -26827,7 +27057,7 @@
       </c>
     </row>
     <row r="216" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A216" s="7"/>
+      <c r="A216" s="6"/>
       <c r="B216" t="s">
         <v>242</v>
       </c>
@@ -26899,7 +27129,7 @@
       </c>
     </row>
     <row r="217" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A217" s="7"/>
+      <c r="A217" s="6"/>
       <c r="B217" t="s">
         <v>242</v>
       </c>
@@ -26974,7 +27204,7 @@
       </c>
     </row>
     <row r="218" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A218" s="7"/>
+      <c r="A218" s="6"/>
       <c r="B218" t="s">
         <v>242</v>
       </c>
@@ -27046,7 +27276,7 @@
       </c>
     </row>
     <row r="219" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A219" s="7"/>
+      <c r="A219" s="6"/>
       <c r="B219" t="s">
         <v>242</v>
       </c>
@@ -27118,7 +27348,7 @@
       </c>
     </row>
     <row r="220" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A220" s="7"/>
+      <c r="A220" s="6"/>
       <c r="B220" t="s">
         <v>242</v>
       </c>
@@ -27190,7 +27420,7 @@
       </c>
     </row>
     <row r="221" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A221" s="7"/>
+      <c r="A221" s="6"/>
       <c r="B221" t="s">
         <v>242</v>
       </c>
@@ -27262,7 +27492,7 @@
       </c>
     </row>
     <row r="222" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A222" s="7"/>
+      <c r="A222" s="6"/>
       <c r="B222" t="s">
         <v>242</v>
       </c>
@@ -27334,7 +27564,7 @@
       </c>
     </row>
     <row r="223" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A223" s="7"/>
+      <c r="A223" s="6"/>
       <c r="B223" t="s">
         <v>242</v>
       </c>
@@ -27406,7 +27636,7 @@
       </c>
     </row>
     <row r="224" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A224" s="7"/>
+      <c r="A224" s="6"/>
       <c r="B224" t="s">
         <v>242</v>
       </c>
@@ -27478,7 +27708,7 @@
       </c>
     </row>
     <row r="225" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A225" s="7"/>
+      <c r="A225" s="6"/>
       <c r="B225" t="s">
         <v>242</v>
       </c>
@@ -27541,7 +27771,7 @@
       </c>
     </row>
     <row r="226" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A226" s="7"/>
+      <c r="A226" s="6"/>
       <c r="B226" t="s">
         <v>242</v>
       </c>
@@ -27613,7 +27843,7 @@
       </c>
     </row>
     <row r="227" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A227" s="7"/>
+      <c r="A227" s="6"/>
       <c r="B227" t="s">
         <v>239</v>
       </c>
@@ -27685,7 +27915,7 @@
       </c>
     </row>
     <row r="228" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A228" s="7"/>
+      <c r="A228" s="6"/>
       <c r="B228" t="s">
         <v>239</v>
       </c>
@@ -27757,7 +27987,7 @@
       </c>
     </row>
     <row r="229" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A229" s="7"/>
+      <c r="A229" s="6"/>
       <c r="B229" t="s">
         <v>239</v>
       </c>
@@ -27826,7 +28056,7 @@
       </c>
     </row>
     <row r="230" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A230" s="7"/>
+      <c r="A230" s="6"/>
       <c r="B230" t="s">
         <v>239</v>
       </c>
@@ -27898,7 +28128,7 @@
       </c>
     </row>
     <row r="231" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A231" s="7"/>
+      <c r="A231" s="6"/>
       <c r="B231" t="s">
         <v>239</v>
       </c>
@@ -27970,7 +28200,7 @@
       </c>
     </row>
     <row r="232" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A232" s="7"/>
+      <c r="A232" s="6"/>
       <c r="B232" t="s">
         <v>239</v>
       </c>
@@ -28042,7 +28272,7 @@
       </c>
     </row>
     <row r="233" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A233" s="7"/>
+      <c r="A233" s="6"/>
       <c r="B233" t="s">
         <v>239</v>
       </c>
@@ -28117,7 +28347,7 @@
       </c>
     </row>
     <row r="234" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A234" s="7"/>
+      <c r="A234" s="6"/>
       <c r="B234" t="s">
         <v>239</v>
       </c>
@@ -28189,7 +28419,7 @@
       </c>
     </row>
     <row r="235" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A235" s="7"/>
+      <c r="A235" s="6"/>
       <c r="B235" t="s">
         <v>239</v>
       </c>
@@ -28261,7 +28491,7 @@
       </c>
     </row>
     <row r="236" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A236" s="7"/>
+      <c r="A236" s="6"/>
       <c r="B236" t="s">
         <v>239</v>
       </c>
@@ -28333,7 +28563,7 @@
       </c>
     </row>
     <row r="237" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A237" s="7"/>
+      <c r="A237" s="6"/>
       <c r="B237" t="s">
         <v>239</v>
       </c>
@@ -28405,7 +28635,7 @@
       </c>
     </row>
     <row r="238" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A238" s="7"/>
+      <c r="A238" s="6"/>
       <c r="B238" t="s">
         <v>239</v>
       </c>
@@ -28477,7 +28707,7 @@
       </c>
     </row>
     <row r="239" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A239" s="7"/>
+      <c r="A239" s="6"/>
       <c r="B239" t="s">
         <v>239</v>
       </c>
@@ -28549,7 +28779,7 @@
       </c>
     </row>
     <row r="240" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A240" s="7"/>
+      <c r="A240" s="6"/>
       <c r="B240" t="s">
         <v>136</v>
       </c>
@@ -28621,7 +28851,7 @@
       </c>
     </row>
     <row r="241" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A241" s="7"/>
+      <c r="A241" s="6"/>
       <c r="B241" t="s">
         <v>136</v>
       </c>
@@ -28693,7 +28923,7 @@
       </c>
     </row>
     <row r="242" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A242" s="7"/>
+      <c r="A242" s="6"/>
       <c r="B242" t="s">
         <v>136</v>
       </c>
@@ -28765,7 +28995,7 @@
       </c>
     </row>
     <row r="243" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A243" s="7"/>
+      <c r="A243" s="6"/>
       <c r="B243" t="s">
         <v>136</v>
       </c>
@@ -28837,7 +29067,7 @@
       </c>
     </row>
     <row r="244" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A244" s="7"/>
+      <c r="A244" s="6"/>
       <c r="B244" t="s">
         <v>136</v>
       </c>
@@ -28912,7 +29142,7 @@
       </c>
     </row>
     <row r="245" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A245" s="7"/>
+      <c r="A245" s="6"/>
       <c r="B245" t="s">
         <v>136</v>
       </c>
@@ -28984,7 +29214,7 @@
       </c>
     </row>
     <row r="246" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A246" s="7"/>
+      <c r="A246" s="6"/>
       <c r="B246" t="s">
         <v>136</v>
       </c>
@@ -29056,7 +29286,7 @@
       </c>
     </row>
     <row r="247" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A247" s="7"/>
+      <c r="A247" s="6"/>
       <c r="B247" t="s">
         <v>136</v>
       </c>
@@ -29128,7 +29358,7 @@
       </c>
     </row>
     <row r="248" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A248" s="7"/>
+      <c r="A248" s="6"/>
       <c r="B248" t="s">
         <v>136</v>
       </c>
@@ -29200,7 +29430,7 @@
       </c>
     </row>
     <row r="249" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A249" s="7"/>
+      <c r="A249" s="6"/>
       <c r="B249" t="s">
         <v>136</v>
       </c>
@@ -29272,7 +29502,7 @@
       </c>
     </row>
     <row r="250" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A250" s="7"/>
+      <c r="A250" s="6"/>
       <c r="B250" t="s">
         <v>136</v>
       </c>
@@ -29347,7 +29577,7 @@
       </c>
     </row>
     <row r="251" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A251" s="7"/>
+      <c r="A251" s="6"/>
       <c r="B251" t="s">
         <v>714</v>
       </c>
@@ -29419,7 +29649,7 @@
       </c>
     </row>
     <row r="252" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A252" s="7"/>
+      <c r="A252" s="6"/>
       <c r="B252" t="s">
         <v>714</v>
       </c>
@@ -29491,7 +29721,7 @@
       </c>
     </row>
     <row r="253" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A253" s="7"/>
+      <c r="A253" s="6"/>
       <c r="B253" t="s">
         <v>714</v>
       </c>
@@ -29563,7 +29793,7 @@
       </c>
     </row>
     <row r="254" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A254" s="7"/>
+      <c r="A254" s="6"/>
       <c r="B254" t="s">
         <v>714</v>
       </c>
@@ -29635,7 +29865,7 @@
       </c>
     </row>
     <row r="255" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A255" s="7"/>
+      <c r="A255" s="6"/>
       <c r="B255" t="s">
         <v>714</v>
       </c>
@@ -29707,7 +29937,7 @@
       </c>
     </row>
     <row r="256" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A256" s="7"/>
+      <c r="A256" s="6"/>
       <c r="B256" t="s">
         <v>714</v>
       </c>
@@ -29779,7 +30009,7 @@
       </c>
     </row>
     <row r="257" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A257" s="7"/>
+      <c r="A257" s="6"/>
       <c r="B257" t="s">
         <v>714</v>
       </c>
@@ -29851,7 +30081,7 @@
       </c>
     </row>
     <row r="258" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A258" s="7"/>
+      <c r="A258" s="6"/>
       <c r="B258" t="s">
         <v>714</v>
       </c>
@@ -29923,7 +30153,7 @@
       </c>
     </row>
     <row r="259" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A259" s="7"/>
+      <c r="A259" s="6"/>
       <c r="B259" t="s">
         <v>714</v>
       </c>
@@ -29995,7 +30225,7 @@
       </c>
     </row>
     <row r="260" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A260" s="7"/>
+      <c r="A260" s="6"/>
       <c r="B260" t="s">
         <v>714</v>
       </c>
@@ -30067,7 +30297,7 @@
       </c>
     </row>
     <row r="261" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A261" s="7"/>
+      <c r="A261" s="6"/>
       <c r="B261" t="s">
         <v>714</v>
       </c>
@@ -30139,7 +30369,7 @@
       </c>
     </row>
     <row r="262" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A262" s="7"/>
+      <c r="A262" s="6"/>
       <c r="B262" t="s">
         <v>714</v>
       </c>
@@ -30211,7 +30441,7 @@
       </c>
     </row>
     <row r="263" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A263" s="7"/>
+      <c r="A263" s="6"/>
       <c r="B263" t="s">
         <v>714</v>
       </c>
@@ -30283,7 +30513,7 @@
       </c>
     </row>
     <row r="264" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A264" s="7"/>
+      <c r="A264" s="6"/>
       <c r="B264" t="s">
         <v>714</v>
       </c>
@@ -30355,7 +30585,7 @@
       </c>
     </row>
     <row r="265" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A265" s="7"/>
+      <c r="A265" s="6"/>
       <c r="B265" t="s">
         <v>714</v>
       </c>
@@ -30427,7 +30657,7 @@
       </c>
     </row>
     <row r="266" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A266" s="7"/>
+      <c r="A266" s="6"/>
       <c r="B266" t="s">
         <v>714</v>
       </c>
@@ -30499,7 +30729,7 @@
       </c>
     </row>
     <row r="267" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A267" s="7"/>
+      <c r="A267" s="6"/>
       <c r="B267" t="s">
         <v>714</v>
       </c>
@@ -30571,7 +30801,7 @@
       </c>
     </row>
     <row r="268" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A268" s="7"/>
+      <c r="A268" s="6"/>
       <c r="B268" t="s">
         <v>714</v>
       </c>
@@ -30643,7 +30873,7 @@
       </c>
     </row>
     <row r="269" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A269" s="7"/>
+      <c r="A269" s="6"/>
       <c r="B269" t="s">
         <v>714</v>
       </c>
@@ -30715,7 +30945,7 @@
       </c>
     </row>
     <row r="270" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A270" s="7"/>
+      <c r="A270" s="6"/>
       <c r="B270" t="s">
         <v>714</v>
       </c>
@@ -30787,7 +31017,7 @@
       </c>
     </row>
     <row r="271" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A271" s="7"/>
+      <c r="A271" s="6"/>
       <c r="B271" t="s">
         <v>714</v>
       </c>
@@ -30859,7 +31089,7 @@
       </c>
     </row>
     <row r="272" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A272" s="7"/>
+      <c r="A272" s="6"/>
       <c r="B272" t="s">
         <v>714</v>
       </c>
@@ -30931,7 +31161,7 @@
       </c>
     </row>
     <row r="273" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A273" s="7"/>
+      <c r="A273" s="6"/>
       <c r="B273" t="s">
         <v>714</v>
       </c>
@@ -31003,7 +31233,7 @@
       </c>
     </row>
     <row r="274" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A274" s="7"/>
+      <c r="A274" s="6"/>
       <c r="B274" t="s">
         <v>686</v>
       </c>
@@ -31075,7 +31305,7 @@
       </c>
     </row>
     <row r="275" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A275" s="7"/>
+      <c r="A275" s="6"/>
       <c r="B275" t="s">
         <v>686</v>
       </c>
@@ -31147,7 +31377,7 @@
       </c>
     </row>
     <row r="276" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A276" s="7"/>
+      <c r="A276" s="6"/>
       <c r="B276" t="s">
         <v>686</v>
       </c>
@@ -31219,7 +31449,7 @@
       </c>
     </row>
     <row r="277" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A277" s="7"/>
+      <c r="A277" s="6"/>
       <c r="B277" t="s">
         <v>686</v>
       </c>
@@ -31291,7 +31521,7 @@
       </c>
     </row>
     <row r="278" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A278" s="7"/>
+      <c r="A278" s="6"/>
       <c r="B278" t="s">
         <v>686</v>
       </c>
@@ -31363,7 +31593,7 @@
       </c>
     </row>
     <row r="279" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A279" s="7"/>
+      <c r="A279" s="6"/>
       <c r="B279" t="s">
         <v>686</v>
       </c>
@@ -31435,7 +31665,7 @@
       </c>
     </row>
     <row r="280" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A280" s="7"/>
+      <c r="A280" s="6"/>
       <c r="B280" t="s">
         <v>686</v>
       </c>
@@ -31507,7 +31737,7 @@
       </c>
     </row>
     <row r="281" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A281" s="7"/>
+      <c r="A281" s="6"/>
       <c r="B281" t="s">
         <v>686</v>
       </c>
@@ -31582,7 +31812,7 @@
       </c>
     </row>
     <row r="282" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A282" s="7"/>
+      <c r="A282" s="6"/>
       <c r="B282" t="s">
         <v>686</v>
       </c>
@@ -31654,7 +31884,7 @@
       </c>
     </row>
     <row r="283" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A283" s="7"/>
+      <c r="A283" s="6"/>
       <c r="B283" t="s">
         <v>686</v>
       </c>
@@ -31726,7 +31956,7 @@
       </c>
     </row>
     <row r="284" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A284" s="7"/>
+      <c r="A284" s="6"/>
       <c r="B284" t="s">
         <v>686</v>
       </c>
@@ -31798,7 +32028,7 @@
       </c>
     </row>
     <row r="285" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A285" s="7"/>
+      <c r="A285" s="6"/>
       <c r="B285" t="s">
         <v>686</v>
       </c>
@@ -31870,7 +32100,7 @@
       </c>
     </row>
     <row r="286" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A286" s="7"/>
+      <c r="A286" s="6"/>
       <c r="B286" t="s">
         <v>686</v>
       </c>
@@ -31942,7 +32172,7 @@
       </c>
     </row>
     <row r="287" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A287" s="7"/>
+      <c r="A287" s="6"/>
       <c r="B287" t="s">
         <v>686</v>
       </c>
@@ -32014,7 +32244,7 @@
       </c>
     </row>
     <row r="288" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A288" s="7"/>
+      <c r="A288" s="6"/>
       <c r="B288" t="s">
         <v>686</v>
       </c>
@@ -32086,7 +32316,7 @@
       </c>
     </row>
     <row r="289" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A289" s="7"/>
+      <c r="A289" s="6"/>
       <c r="B289" t="s">
         <v>686</v>
       </c>
@@ -32158,7 +32388,7 @@
       </c>
     </row>
     <row r="290" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A290" s="7"/>
+      <c r="A290" s="6"/>
       <c r="B290" t="s">
         <v>686</v>
       </c>
@@ -32230,7 +32460,7 @@
       </c>
     </row>
     <row r="291" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A291" s="7"/>
+      <c r="A291" s="6"/>
       <c r="B291" t="s">
         <v>686</v>
       </c>
@@ -32302,7 +32532,7 @@
       </c>
     </row>
     <row r="292" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A292" s="7"/>
+      <c r="A292" s="6"/>
       <c r="B292" t="s">
         <v>686</v>
       </c>
@@ -32374,7 +32604,7 @@
       </c>
     </row>
     <row r="293" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A293" s="7"/>
+      <c r="A293" s="6"/>
       <c r="B293" t="s">
         <v>686</v>
       </c>
@@ -32446,7 +32676,7 @@
       </c>
     </row>
     <row r="294" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A294" s="7"/>
+      <c r="A294" s="6"/>
       <c r="B294" t="s">
         <v>641</v>
       </c>
@@ -32518,7 +32748,7 @@
       </c>
     </row>
     <row r="295" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A295" s="7"/>
+      <c r="A295" s="6"/>
       <c r="B295" t="s">
         <v>641</v>
       </c>
@@ -32590,7 +32820,7 @@
       </c>
     </row>
     <row r="296" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A296" s="7"/>
+      <c r="A296" s="6"/>
       <c r="B296" t="s">
         <v>641</v>
       </c>
@@ -32662,7 +32892,7 @@
       </c>
     </row>
     <row r="297" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A297" s="7"/>
+      <c r="A297" s="6"/>
       <c r="B297" t="s">
         <v>641</v>
       </c>
@@ -32734,7 +32964,7 @@
       </c>
     </row>
     <row r="298" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A298" s="7"/>
+      <c r="A298" s="6"/>
       <c r="B298" t="s">
         <v>641</v>
       </c>
@@ -32806,7 +33036,7 @@
       </c>
     </row>
     <row r="299" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A299" s="7"/>
+      <c r="A299" s="6"/>
       <c r="B299" t="s">
         <v>641</v>
       </c>
@@ -32878,7 +33108,7 @@
       </c>
     </row>
     <row r="300" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A300" s="7"/>
+      <c r="A300" s="6"/>
       <c r="B300" t="s">
         <v>641</v>
       </c>
@@ -32950,7 +33180,7 @@
       </c>
     </row>
     <row r="301" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A301" s="7"/>
+      <c r="A301" s="6"/>
       <c r="B301" t="s">
         <v>641</v>
       </c>
@@ -33022,7 +33252,7 @@
       </c>
     </row>
     <row r="302" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A302" s="7"/>
+      <c r="A302" s="6"/>
       <c r="B302" t="s">
         <v>641</v>
       </c>
@@ -33094,7 +33324,7 @@
       </c>
     </row>
     <row r="303" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A303" s="7"/>
+      <c r="A303" s="6"/>
       <c r="B303" t="s">
         <v>641</v>
       </c>
@@ -33169,7 +33399,7 @@
       </c>
     </row>
     <row r="304" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A304" s="7"/>
+      <c r="A304" s="6"/>
       <c r="B304" t="s">
         <v>641</v>
       </c>
@@ -33241,7 +33471,7 @@
       </c>
     </row>
     <row r="305" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A305" s="7"/>
+      <c r="A305" s="6"/>
       <c r="B305" t="s">
         <v>641</v>
       </c>
@@ -33313,7 +33543,7 @@
       </c>
     </row>
     <row r="306" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A306" s="7"/>
+      <c r="A306" s="6"/>
       <c r="B306" t="s">
         <v>641</v>
       </c>
@@ -33385,7 +33615,7 @@
       </c>
     </row>
     <row r="307" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A307" s="7"/>
+      <c r="A307" s="6"/>
       <c r="B307" t="s">
         <v>641</v>
       </c>
@@ -33457,7 +33687,7 @@
       </c>
     </row>
     <row r="308" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A308" s="7"/>
+      <c r="A308" s="6"/>
       <c r="B308" t="s">
         <v>641</v>
       </c>
@@ -33529,7 +33759,7 @@
       </c>
     </row>
     <row r="309" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A309" s="7"/>
+      <c r="A309" s="6"/>
       <c r="B309" t="s">
         <v>641</v>
       </c>
@@ -33601,7 +33831,7 @@
       </c>
     </row>
     <row r="310" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A310" s="7"/>
+      <c r="A310" s="6"/>
       <c r="B310" t="s">
         <v>641</v>
       </c>
@@ -33673,7 +33903,7 @@
       </c>
     </row>
     <row r="311" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A311" s="7"/>
+      <c r="A311" s="6"/>
       <c r="B311" t="s">
         <v>641</v>
       </c>
@@ -33745,7 +33975,7 @@
       </c>
     </row>
     <row r="312" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A312" s="7"/>
+      <c r="A312" s="6"/>
       <c r="B312" t="s">
         <v>641</v>
       </c>
@@ -33817,7 +34047,7 @@
       </c>
     </row>
     <row r="313" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A313" s="7"/>
+      <c r="A313" s="6"/>
       <c r="B313" t="s">
         <v>641</v>
       </c>
@@ -33889,7 +34119,7 @@
       </c>
     </row>
     <row r="314" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A314" s="7"/>
+      <c r="A314" s="6"/>
       <c r="B314" t="s">
         <v>641</v>
       </c>
@@ -33961,7 +34191,7 @@
       </c>
     </row>
     <row r="315" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A315" s="7"/>
+      <c r="A315" s="6"/>
       <c r="B315" t="s">
         <v>641</v>
       </c>
@@ -34033,7 +34263,7 @@
       </c>
     </row>
     <row r="316" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A316" s="7"/>
+      <c r="A316" s="6"/>
       <c r="B316" t="s">
         <v>641</v>
       </c>
@@ -34105,7 +34335,7 @@
       </c>
     </row>
     <row r="317" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A317" s="7"/>
+      <c r="A317" s="6"/>
       <c r="B317" t="s">
         <v>641</v>
       </c>
@@ -34177,7 +34407,7 @@
       </c>
     </row>
     <row r="318" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A318" s="7"/>
+      <c r="A318" s="6"/>
       <c r="B318" t="s">
         <v>641</v>
       </c>
@@ -34249,7 +34479,7 @@
       </c>
     </row>
     <row r="319" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A319" s="7"/>
+      <c r="A319" s="6"/>
       <c r="B319" t="s">
         <v>641</v>
       </c>
@@ -34321,7 +34551,7 @@
       </c>
     </row>
     <row r="320" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A320" s="7"/>
+      <c r="A320" s="6"/>
       <c r="B320" t="s">
         <v>641</v>
       </c>
@@ -34393,7 +34623,7 @@
       </c>
     </row>
     <row r="321" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A321" s="7"/>
+      <c r="A321" s="6"/>
       <c r="B321" t="s">
         <v>231</v>
       </c>
@@ -34465,7 +34695,7 @@
       </c>
     </row>
     <row r="322" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A322" s="7"/>
+      <c r="A322" s="6"/>
       <c r="B322" t="s">
         <v>231</v>
       </c>
@@ -34537,7 +34767,7 @@
       </c>
     </row>
     <row r="323" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A323" s="7"/>
+      <c r="A323" s="6"/>
       <c r="B323" t="s">
         <v>231</v>
       </c>
@@ -34609,7 +34839,7 @@
       </c>
     </row>
     <row r="324" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A324" s="7"/>
+      <c r="A324" s="6"/>
       <c r="B324" t="s">
         <v>231</v>
       </c>
@@ -34681,7 +34911,7 @@
       </c>
     </row>
     <row r="325" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A325" s="7"/>
+      <c r="A325" s="6"/>
       <c r="B325" t="s">
         <v>231</v>
       </c>
@@ -34753,7 +34983,7 @@
       </c>
     </row>
     <row r="326" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A326" s="7"/>
+      <c r="A326" s="6"/>
       <c r="B326" t="s">
         <v>231</v>
       </c>
@@ -34825,7 +35055,7 @@
       </c>
     </row>
     <row r="327" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A327" s="7"/>
+      <c r="A327" s="6"/>
       <c r="B327" t="s">
         <v>231</v>
       </c>
@@ -34897,7 +35127,7 @@
       </c>
     </row>
     <row r="328" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A328" s="7"/>
+      <c r="A328" s="6"/>
       <c r="B328" t="s">
         <v>231</v>
       </c>
@@ -34969,7 +35199,7 @@
       </c>
     </row>
     <row r="329" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A329" s="7"/>
+      <c r="A329" s="6"/>
       <c r="B329" t="s">
         <v>231</v>
       </c>
@@ -35041,7 +35271,7 @@
       </c>
     </row>
     <row r="330" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A330" s="7"/>
+      <c r="A330" s="6"/>
       <c r="B330" t="s">
         <v>231</v>
       </c>
@@ -35113,7 +35343,7 @@
       </c>
     </row>
     <row r="331" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A331" s="7"/>
+      <c r="A331" s="6"/>
       <c r="B331" t="s">
         <v>231</v>
       </c>
@@ -35185,7 +35415,7 @@
       </c>
     </row>
     <row r="332" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A332" s="7"/>
+      <c r="A332" s="6"/>
       <c r="B332" t="s">
         <v>231</v>
       </c>
@@ -35257,7 +35487,7 @@
       </c>
     </row>
     <row r="333" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A333" s="7"/>
+      <c r="A333" s="6"/>
       <c r="B333" t="s">
         <v>231</v>
       </c>
@@ -35329,7 +35559,7 @@
       </c>
     </row>
     <row r="334" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A334" s="7"/>
+      <c r="A334" s="6"/>
       <c r="B334" t="s">
         <v>231</v>
       </c>
@@ -35401,7 +35631,7 @@
       </c>
     </row>
     <row r="335" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A335" s="7"/>
+      <c r="A335" s="6"/>
       <c r="B335" t="s">
         <v>231</v>
       </c>
@@ -35473,7 +35703,7 @@
       </c>
     </row>
     <row r="336" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A336" s="7"/>
+      <c r="A336" s="6"/>
       <c r="B336" t="s">
         <v>231</v>
       </c>
@@ -35545,7 +35775,7 @@
       </c>
     </row>
     <row r="337" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A337" s="7"/>
+      <c r="A337" s="6"/>
       <c r="B337" t="s">
         <v>231</v>
       </c>
@@ -35617,7 +35847,7 @@
       </c>
     </row>
     <row r="338" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A338" s="7"/>
+      <c r="A338" s="6"/>
       <c r="B338" t="s">
         <v>231</v>
       </c>
@@ -35689,7 +35919,7 @@
       </c>
     </row>
     <row r="339" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A339" s="7"/>
+      <c r="A339" s="6"/>
       <c r="B339" t="s">
         <v>231</v>
       </c>
@@ -35761,7 +35991,7 @@
       </c>
     </row>
     <row r="340" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A340" s="7"/>
+      <c r="A340" s="6"/>
       <c r="B340" t="s">
         <v>227</v>
       </c>
@@ -35833,7 +36063,7 @@
       </c>
     </row>
     <row r="341" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A341" s="7"/>
+      <c r="A341" s="6"/>
       <c r="B341" t="s">
         <v>227</v>
       </c>
@@ -35905,7 +36135,7 @@
       </c>
     </row>
     <row r="342" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A342" s="7"/>
+      <c r="A342" s="6"/>
       <c r="B342" t="s">
         <v>227</v>
       </c>
@@ -35977,7 +36207,7 @@
       </c>
     </row>
     <row r="343" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A343" s="7"/>
+      <c r="A343" s="6"/>
       <c r="B343" t="s">
         <v>227</v>
       </c>
@@ -36049,7 +36279,7 @@
       </c>
     </row>
     <row r="344" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A344" s="7"/>
+      <c r="A344" s="6"/>
       <c r="B344" t="s">
         <v>227</v>
       </c>
@@ -36121,7 +36351,7 @@
       </c>
     </row>
     <row r="345" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A345" s="7"/>
+      <c r="A345" s="6"/>
       <c r="B345" t="s">
         <v>227</v>
       </c>
@@ -36193,7 +36423,7 @@
       </c>
     </row>
     <row r="346" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A346" s="7"/>
+      <c r="A346" s="6"/>
       <c r="B346" t="s">
         <v>227</v>
       </c>
@@ -36265,7 +36495,7 @@
       </c>
     </row>
     <row r="347" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A347" s="7"/>
+      <c r="A347" s="6"/>
       <c r="B347" t="s">
         <v>227</v>
       </c>
@@ -36337,7 +36567,7 @@
       </c>
     </row>
     <row r="348" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A348" s="7"/>
+      <c r="A348" s="6"/>
       <c r="B348" t="s">
         <v>227</v>
       </c>
@@ -36409,7 +36639,7 @@
       </c>
     </row>
     <row r="349" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A349" s="7"/>
+      <c r="A349" s="6"/>
       <c r="B349" t="s">
         <v>227</v>
       </c>
@@ -36481,7 +36711,7 @@
       </c>
     </row>
     <row r="350" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A350" s="7"/>
+      <c r="A350" s="6"/>
       <c r="B350" t="s">
         <v>227</v>
       </c>
@@ -36553,7 +36783,7 @@
       </c>
     </row>
     <row r="351" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A351" s="7"/>
+      <c r="A351" s="6"/>
       <c r="B351" t="s">
         <v>227</v>
       </c>
@@ -36625,7 +36855,7 @@
       </c>
     </row>
     <row r="352" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A352" s="7"/>
+      <c r="A352" s="6"/>
       <c r="B352" t="s">
         <v>227</v>
       </c>
@@ -36697,7 +36927,7 @@
       </c>
     </row>
     <row r="353" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A353" s="7"/>
+      <c r="A353" s="6"/>
       <c r="B353" t="s">
         <v>227</v>
       </c>
@@ -36769,7 +36999,7 @@
       </c>
     </row>
     <row r="354" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A354" s="7"/>
+      <c r="A354" s="6"/>
       <c r="B354" t="s">
         <v>227</v>
       </c>
@@ -36841,7 +37071,7 @@
       </c>
     </row>
     <row r="355" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A355" s="7"/>
+      <c r="A355" s="6"/>
       <c r="B355" t="s">
         <v>227</v>
       </c>
@@ -36913,7 +37143,7 @@
       </c>
     </row>
     <row r="356" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A356" s="7"/>
+      <c r="A356" s="6"/>
       <c r="B356" t="s">
         <v>227</v>
       </c>
@@ -36985,7 +37215,7 @@
       </c>
     </row>
     <row r="357" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A357" s="7"/>
+      <c r="A357" s="6"/>
       <c r="B357" t="s">
         <v>227</v>
       </c>
@@ -37057,7 +37287,7 @@
       </c>
     </row>
     <row r="358" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A358" s="7"/>
+      <c r="A358" s="6"/>
       <c r="B358" t="s">
         <v>227</v>
       </c>
@@ -37129,7 +37359,7 @@
       </c>
     </row>
     <row r="359" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A359" s="7"/>
+      <c r="A359" s="6"/>
       <c r="B359" t="s">
         <v>227</v>
       </c>
@@ -37201,7 +37431,7 @@
       </c>
     </row>
     <row r="360" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A360" s="7"/>
+      <c r="A360" s="6"/>
       <c r="B360" t="s">
         <v>227</v>
       </c>
@@ -37276,7 +37506,7 @@
       </c>
     </row>
     <row r="361" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A361" s="7"/>
+      <c r="A361" s="6"/>
       <c r="B361" t="s">
         <v>227</v>
       </c>
@@ -37348,7 +37578,7 @@
       </c>
     </row>
     <row r="362" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A362" s="7"/>
+      <c r="A362" s="6"/>
       <c r="B362" t="s">
         <v>227</v>
       </c>
@@ -37420,7 +37650,7 @@
       </c>
     </row>
     <row r="363" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A363" s="7"/>
+      <c r="A363" s="6"/>
       <c r="B363" t="s">
         <v>212</v>
       </c>
@@ -37492,7 +37722,7 @@
       </c>
     </row>
     <row r="364" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A364" s="7"/>
+      <c r="A364" s="6"/>
       <c r="B364" t="s">
         <v>212</v>
       </c>
@@ -37564,7 +37794,7 @@
       </c>
     </row>
     <row r="365" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A365" s="7"/>
+      <c r="A365" s="6"/>
       <c r="B365" t="s">
         <v>212</v>
       </c>
@@ -37636,7 +37866,7 @@
       </c>
     </row>
     <row r="366" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A366" s="7"/>
+      <c r="A366" s="6"/>
       <c r="B366" t="s">
         <v>212</v>
       </c>
@@ -37708,7 +37938,7 @@
       </c>
     </row>
     <row r="367" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A367" s="7"/>
+      <c r="A367" s="6"/>
       <c r="B367" t="s">
         <v>212</v>
       </c>
@@ -37780,7 +38010,7 @@
       </c>
     </row>
     <row r="368" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A368" s="7"/>
+      <c r="A368" s="6"/>
       <c r="B368" t="s">
         <v>212</v>
       </c>
@@ -37852,7 +38082,7 @@
       </c>
     </row>
     <row r="369" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A369" s="7"/>
+      <c r="A369" s="6"/>
       <c r="B369" t="s">
         <v>212</v>
       </c>
@@ -37924,7 +38154,7 @@
       </c>
     </row>
     <row r="370" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A370" s="7"/>
+      <c r="A370" s="6"/>
       <c r="B370" t="s">
         <v>212</v>
       </c>
@@ -37996,7 +38226,7 @@
       </c>
     </row>
     <row r="371" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A371" s="7"/>
+      <c r="A371" s="6"/>
       <c r="B371" t="s">
         <v>212</v>
       </c>
@@ -38068,7 +38298,7 @@
       </c>
     </row>
     <row r="372" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A372" s="7"/>
+      <c r="A372" s="6"/>
       <c r="B372" t="s">
         <v>212</v>
       </c>
@@ -38140,7 +38370,7 @@
       </c>
     </row>
     <row r="373" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A373" s="7"/>
+      <c r="A373" s="6"/>
       <c r="B373" t="s">
         <v>212</v>
       </c>
@@ -38212,7 +38442,7 @@
       </c>
     </row>
     <row r="374" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A374" s="7"/>
+      <c r="A374" s="6"/>
       <c r="B374" t="s">
         <v>212</v>
       </c>
@@ -38284,7 +38514,7 @@
       </c>
     </row>
     <row r="375" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A375" s="7"/>
+      <c r="A375" s="6"/>
       <c r="B375" t="s">
         <v>212</v>
       </c>
@@ -38356,7 +38586,7 @@
       </c>
     </row>
     <row r="376" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A376" s="7"/>
+      <c r="A376" s="6"/>
       <c r="B376" t="s">
         <v>212</v>
       </c>
@@ -38428,7 +38658,7 @@
       </c>
     </row>
     <row r="377" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A377" s="7"/>
+      <c r="A377" s="6"/>
       <c r="B377" t="s">
         <v>212</v>
       </c>
@@ -38500,7 +38730,7 @@
       </c>
     </row>
     <row r="378" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A378" s="7"/>
+      <c r="A378" s="6"/>
       <c r="B378" t="s">
         <v>212</v>
       </c>
@@ -38569,7 +38799,7 @@
       </c>
     </row>
     <row r="379" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A379" s="7"/>
+      <c r="A379" s="6"/>
       <c r="B379" t="s">
         <v>212</v>
       </c>
@@ -38641,7 +38871,7 @@
       </c>
     </row>
     <row r="380" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A380" s="7"/>
+      <c r="A380" s="6"/>
       <c r="B380" t="s">
         <v>212</v>
       </c>
@@ -38713,7 +38943,7 @@
       </c>
     </row>
     <row r="381" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A381" s="7"/>
+      <c r="A381" s="6"/>
       <c r="B381" t="s">
         <v>212</v>
       </c>
@@ -38785,7 +39015,7 @@
       </c>
     </row>
     <row r="382" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A382" s="7"/>
+      <c r="A382" s="6"/>
       <c r="B382" t="s">
         <v>212</v>
       </c>
@@ -38857,7 +39087,7 @@
       </c>
     </row>
     <row r="383" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A383" s="7"/>
+      <c r="A383" s="6"/>
       <c r="B383" t="s">
         <v>212</v>
       </c>
@@ -38929,7 +39159,7 @@
       </c>
     </row>
     <row r="384" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A384" s="7"/>
+      <c r="A384" s="6"/>
       <c r="B384" t="s">
         <v>212</v>
       </c>
@@ -39001,7 +39231,7 @@
       </c>
     </row>
     <row r="385" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A385" s="7"/>
+      <c r="A385" s="6"/>
       <c r="B385" t="s">
         <v>212</v>
       </c>
@@ -39070,7 +39300,7 @@
       </c>
     </row>
     <row r="386" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A386" s="7"/>
+      <c r="A386" s="6"/>
       <c r="B386" t="s">
         <v>530</v>
       </c>
@@ -39142,7 +39372,7 @@
       </c>
     </row>
     <row r="387" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A387" s="7"/>
+      <c r="A387" s="6"/>
       <c r="B387" t="s">
         <v>530</v>
       </c>
@@ -39214,7 +39444,7 @@
       </c>
     </row>
     <row r="388" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A388" s="7"/>
+      <c r="A388" s="6"/>
       <c r="B388" t="s">
         <v>530</v>
       </c>
@@ -39286,7 +39516,7 @@
       </c>
     </row>
     <row r="389" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A389" s="7"/>
+      <c r="A389" s="6"/>
       <c r="B389" t="s">
         <v>530</v>
       </c>
@@ -39358,7 +39588,7 @@
       </c>
     </row>
     <row r="390" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A390" s="7"/>
+      <c r="A390" s="6"/>
       <c r="B390" t="s">
         <v>530</v>
       </c>
@@ -39430,7 +39660,7 @@
       </c>
     </row>
     <row r="391" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A391" s="7"/>
+      <c r="A391" s="6"/>
       <c r="B391" t="s">
         <v>530</v>
       </c>
@@ -39502,7 +39732,7 @@
       </c>
     </row>
     <row r="392" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A392" s="7"/>
+      <c r="A392" s="6"/>
       <c r="B392" t="s">
         <v>530</v>
       </c>
@@ -39574,7 +39804,7 @@
       </c>
     </row>
     <row r="393" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A393" s="7"/>
+      <c r="A393" s="6"/>
       <c r="B393" t="s">
         <v>530</v>
       </c>
@@ -39646,7 +39876,7 @@
       </c>
     </row>
     <row r="394" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A394" s="7"/>
+      <c r="A394" s="6"/>
       <c r="B394" t="s">
         <v>530</v>
       </c>
@@ -39718,7 +39948,7 @@
       </c>
     </row>
     <row r="395" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A395" s="7"/>
+      <c r="A395" s="6"/>
       <c r="B395" t="s">
         <v>530</v>
       </c>
@@ -39790,7 +40020,7 @@
       </c>
     </row>
     <row r="396" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A396" s="7"/>
+      <c r="A396" s="6"/>
       <c r="B396" t="s">
         <v>530</v>
       </c>
@@ -39862,7 +40092,7 @@
       </c>
     </row>
     <row r="397" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A397" s="7"/>
+      <c r="A397" s="6"/>
       <c r="B397" t="s">
         <v>530</v>
       </c>
@@ -39934,7 +40164,7 @@
       </c>
     </row>
     <row r="398" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A398" s="7"/>
+      <c r="A398" s="6"/>
       <c r="B398" t="s">
         <v>530</v>
       </c>
@@ -40006,7 +40236,7 @@
       </c>
     </row>
     <row r="399" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A399" s="7"/>
+      <c r="A399" s="6"/>
       <c r="B399" t="s">
         <v>530</v>
       </c>
@@ -40078,7 +40308,7 @@
       </c>
     </row>
     <row r="400" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A400" s="7"/>
+      <c r="A400" s="6"/>
       <c r="B400" t="s">
         <v>513</v>
       </c>
@@ -40150,7 +40380,7 @@
       </c>
     </row>
     <row r="401" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A401" s="7"/>
+      <c r="A401" s="6"/>
       <c r="B401" t="s">
         <v>513</v>
       </c>
@@ -40222,7 +40452,7 @@
       </c>
     </row>
     <row r="402" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A402" s="7"/>
+      <c r="A402" s="6"/>
       <c r="B402" t="s">
         <v>513</v>
       </c>
@@ -40294,7 +40524,7 @@
       </c>
     </row>
     <row r="403" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A403" s="7"/>
+      <c r="A403" s="6"/>
       <c r="B403" t="s">
         <v>513</v>
       </c>
@@ -40366,7 +40596,7 @@
       </c>
     </row>
     <row r="404" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A404" s="7"/>
+      <c r="A404" s="6"/>
       <c r="B404" t="s">
         <v>513</v>
       </c>
@@ -40438,7 +40668,7 @@
       </c>
     </row>
     <row r="405" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A405" s="7"/>
+      <c r="A405" s="6"/>
       <c r="B405" t="s">
         <v>513</v>
       </c>
@@ -40510,7 +40740,7 @@
       </c>
     </row>
     <row r="406" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A406" s="7"/>
+      <c r="A406" s="6"/>
       <c r="B406" t="s">
         <v>513</v>
       </c>
@@ -40582,7 +40812,7 @@
       </c>
     </row>
     <row r="407" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A407" s="7"/>
+      <c r="A407" s="6"/>
       <c r="B407" t="s">
         <v>513</v>
       </c>
@@ -40654,7 +40884,7 @@
       </c>
     </row>
     <row r="408" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A408" s="7"/>
+      <c r="A408" s="6"/>
       <c r="B408" t="s">
         <v>513</v>
       </c>
@@ -40726,7 +40956,7 @@
       </c>
     </row>
     <row r="409" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A409" s="7"/>
+      <c r="A409" s="6"/>
       <c r="B409" t="s">
         <v>513</v>
       </c>
@@ -40798,7 +41028,7 @@
       </c>
     </row>
     <row r="410" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A410" s="7"/>
+      <c r="A410" s="6"/>
       <c r="B410" t="s">
         <v>513</v>
       </c>
@@ -40870,7 +41100,7 @@
       </c>
     </row>
     <row r="411" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A411" s="7"/>
+      <c r="A411" s="6"/>
       <c r="B411" t="s">
         <v>513</v>
       </c>
@@ -40942,7 +41172,7 @@
       </c>
     </row>
     <row r="412" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A412" s="7"/>
+      <c r="A412" s="6"/>
       <c r="B412" t="s">
         <v>513</v>
       </c>
@@ -41014,7 +41244,7 @@
       </c>
     </row>
     <row r="413" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A413" s="7"/>
+      <c r="A413" s="6"/>
       <c r="B413" t="s">
         <v>513</v>
       </c>
@@ -41086,7 +41316,7 @@
       </c>
     </row>
     <row r="414" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A414" s="7"/>
+      <c r="A414" s="6"/>
       <c r="B414" t="s">
         <v>513</v>
       </c>
@@ -41158,7 +41388,7 @@
       </c>
     </row>
     <row r="415" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A415" s="7"/>
+      <c r="A415" s="6"/>
       <c r="B415" t="s">
         <v>198</v>
       </c>
@@ -41230,7 +41460,7 @@
       </c>
     </row>
     <row r="416" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A416" s="7"/>
+      <c r="A416" s="6"/>
       <c r="B416" t="s">
         <v>198</v>
       </c>
@@ -41302,7 +41532,7 @@
       </c>
     </row>
     <row r="417" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A417" s="7"/>
+      <c r="A417" s="6"/>
       <c r="B417" t="s">
         <v>198</v>
       </c>
@@ -41374,7 +41604,7 @@
       </c>
     </row>
     <row r="418" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A418" s="7"/>
+      <c r="A418" s="6"/>
       <c r="B418" t="s">
         <v>198</v>
       </c>
@@ -41446,7 +41676,7 @@
       </c>
     </row>
     <row r="419" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A419" s="7"/>
+      <c r="A419" s="6"/>
       <c r="B419" t="s">
         <v>198</v>
       </c>
@@ -41518,7 +41748,7 @@
       </c>
     </row>
     <row r="420" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A420" s="7"/>
+      <c r="A420" s="6"/>
       <c r="B420" t="s">
         <v>198</v>
       </c>
@@ -41590,7 +41820,7 @@
       </c>
     </row>
     <row r="421" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A421" s="7"/>
+      <c r="A421" s="6"/>
       <c r="B421" t="s">
         <v>198</v>
       </c>
@@ -41662,7 +41892,7 @@
       </c>
     </row>
     <row r="422" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A422" s="7"/>
+      <c r="A422" s="6"/>
       <c r="B422" t="s">
         <v>198</v>
       </c>
@@ -41734,7 +41964,7 @@
       </c>
     </row>
     <row r="423" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A423" s="7"/>
+      <c r="A423" s="6"/>
       <c r="B423" t="s">
         <v>198</v>
       </c>
@@ -41806,7 +42036,7 @@
       </c>
     </row>
     <row r="424" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A424" s="7"/>
+      <c r="A424" s="6"/>
       <c r="B424" t="s">
         <v>198</v>
       </c>
@@ -41878,7 +42108,7 @@
       </c>
     </row>
     <row r="425" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A425" s="7"/>
+      <c r="A425" s="6"/>
       <c r="B425" t="s">
         <v>198</v>
       </c>
@@ -41950,7 +42180,7 @@
       </c>
     </row>
     <row r="426" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A426" s="7"/>
+      <c r="A426" s="6"/>
       <c r="B426" t="s">
         <v>198</v>
       </c>
@@ -42022,7 +42252,7 @@
       </c>
     </row>
     <row r="427" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A427" s="7"/>
+      <c r="A427" s="6"/>
       <c r="B427" t="s">
         <v>198</v>
       </c>
@@ -42094,7 +42324,7 @@
       </c>
     </row>
     <row r="428" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A428" s="7"/>
+      <c r="A428" s="6"/>
       <c r="B428" t="s">
         <v>198</v>
       </c>
@@ -42166,7 +42396,7 @@
       </c>
     </row>
     <row r="429" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A429" s="7"/>
+      <c r="A429" s="6"/>
       <c r="B429" t="s">
         <v>198</v>
       </c>
@@ -42238,7 +42468,7 @@
       </c>
     </row>
     <row r="430" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A430" s="7"/>
+      <c r="A430" s="6"/>
       <c r="B430" t="s">
         <v>198</v>
       </c>
@@ -42310,7 +42540,7 @@
       </c>
     </row>
     <row r="431" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A431" s="7"/>
+      <c r="A431" s="6"/>
       <c r="B431" t="s">
         <v>198</v>
       </c>
@@ -42382,7 +42612,7 @@
       </c>
     </row>
     <row r="432" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A432" s="7"/>
+      <c r="A432" s="6"/>
       <c r="B432" t="s">
         <v>187</v>
       </c>
@@ -42454,7 +42684,7 @@
       </c>
     </row>
     <row r="433" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A433" s="7"/>
+      <c r="A433" s="6"/>
       <c r="B433" t="s">
         <v>187</v>
       </c>
@@ -42526,7 +42756,7 @@
       </c>
     </row>
     <row r="434" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A434" s="7"/>
+      <c r="A434" s="6"/>
       <c r="B434" t="s">
         <v>187</v>
       </c>
@@ -42598,7 +42828,7 @@
       </c>
     </row>
     <row r="435" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A435" s="7"/>
+      <c r="A435" s="6"/>
       <c r="B435" t="s">
         <v>187</v>
       </c>
@@ -42670,7 +42900,7 @@
       </c>
     </row>
     <row r="436" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A436" s="7"/>
+      <c r="A436" s="6"/>
       <c r="B436" t="s">
         <v>187</v>
       </c>
@@ -42742,7 +42972,7 @@
       </c>
     </row>
     <row r="437" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A437" s="7"/>
+      <c r="A437" s="6"/>
       <c r="B437" t="s">
         <v>187</v>
       </c>
@@ -42814,7 +43044,7 @@
       </c>
     </row>
     <row r="438" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A438" s="7"/>
+      <c r="A438" s="6"/>
       <c r="B438" t="s">
         <v>187</v>
       </c>
@@ -42886,7 +43116,7 @@
       </c>
     </row>
     <row r="439" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A439" s="7"/>
+      <c r="A439" s="6"/>
       <c r="B439" t="s">
         <v>187</v>
       </c>
@@ -42958,7 +43188,7 @@
       </c>
     </row>
     <row r="440" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A440" s="7"/>
+      <c r="A440" s="6"/>
       <c r="B440" t="s">
         <v>187</v>
       </c>
@@ -43030,7 +43260,7 @@
       </c>
     </row>
     <row r="441" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A441" s="7"/>
+      <c r="A441" s="6"/>
       <c r="B441" t="s">
         <v>187</v>
       </c>
@@ -43102,7 +43332,7 @@
       </c>
     </row>
     <row r="442" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A442" s="7"/>
+      <c r="A442" s="6"/>
       <c r="B442" t="s">
         <v>187</v>
       </c>
@@ -43174,7 +43404,7 @@
       </c>
     </row>
     <row r="443" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A443" s="7"/>
+      <c r="A443" s="6"/>
       <c r="B443" t="s">
         <v>187</v>
       </c>
@@ -43246,7 +43476,7 @@
       </c>
     </row>
     <row r="444" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A444" s="7"/>
+      <c r="A444" s="6"/>
       <c r="B444" t="s">
         <v>187</v>
       </c>
@@ -43318,7 +43548,7 @@
       </c>
     </row>
     <row r="445" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A445" s="7"/>
+      <c r="A445" s="6"/>
       <c r="B445" t="s">
         <v>187</v>
       </c>
@@ -43390,7 +43620,7 @@
       </c>
     </row>
     <row r="446" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A446" s="7"/>
+      <c r="A446" s="6"/>
       <c r="B446" t="s">
         <v>187</v>
       </c>
@@ -43462,7 +43692,7 @@
       </c>
     </row>
     <row r="447" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A447" s="7"/>
+      <c r="A447" s="6"/>
       <c r="B447" t="s">
         <v>187</v>
       </c>
@@ -43534,7 +43764,7 @@
       </c>
     </row>
     <row r="448" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A448" s="7"/>
+      <c r="A448" s="6"/>
       <c r="B448" t="s">
         <v>187</v>
       </c>
@@ -43606,7 +43836,7 @@
       </c>
     </row>
     <row r="449" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A449" s="7"/>
+      <c r="A449" s="6"/>
       <c r="B449" t="s">
         <v>187</v>
       </c>
@@ -43681,7 +43911,7 @@
       </c>
     </row>
     <row r="450" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A450" s="7"/>
+      <c r="A450" s="6"/>
       <c r="B450" t="s">
         <v>187</v>
       </c>
@@ -43756,7 +43986,7 @@
       </c>
     </row>
     <row r="451" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A451" s="7"/>
+      <c r="A451" s="6"/>
       <c r="B451" t="s">
         <v>428</v>
       </c>
@@ -43828,7 +44058,7 @@
       </c>
     </row>
     <row r="452" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A452" s="7"/>
+      <c r="A452" s="6"/>
       <c r="B452" t="s">
         <v>428</v>
       </c>
@@ -43900,7 +44130,7 @@
       </c>
     </row>
     <row r="453" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A453" s="7"/>
+      <c r="A453" s="6"/>
       <c r="B453" t="s">
         <v>428</v>
       </c>
@@ -43972,7 +44202,7 @@
       </c>
     </row>
     <row r="454" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A454" s="7"/>
+      <c r="A454" s="6"/>
       <c r="B454" t="s">
         <v>428</v>
       </c>
@@ -44044,7 +44274,7 @@
       </c>
     </row>
     <row r="455" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A455" s="7"/>
+      <c r="A455" s="6"/>
       <c r="B455" t="s">
         <v>428</v>
       </c>
@@ -44116,7 +44346,7 @@
       </c>
     </row>
     <row r="456" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A456" s="7"/>
+      <c r="A456" s="6"/>
       <c r="B456" t="s">
         <v>428</v>
       </c>
@@ -44185,7 +44415,7 @@
       </c>
     </row>
     <row r="457" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A457" s="7"/>
+      <c r="A457" s="6"/>
       <c r="B457" t="s">
         <v>428</v>
       </c>
@@ -44257,7 +44487,7 @@
       </c>
     </row>
     <row r="458" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A458" s="7"/>
+      <c r="A458" s="6"/>
       <c r="B458" t="s">
         <v>428</v>
       </c>
@@ -44329,7 +44559,7 @@
       </c>
     </row>
     <row r="459" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A459" s="7"/>
+      <c r="A459" s="6"/>
       <c r="B459" t="s">
         <v>428</v>
       </c>
@@ -44401,7 +44631,7 @@
       </c>
     </row>
     <row r="460" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A460" s="7"/>
+      <c r="A460" s="6"/>
       <c r="B460" t="s">
         <v>428</v>
       </c>
@@ -44473,7 +44703,7 @@
       </c>
     </row>
     <row r="461" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A461" s="7"/>
+      <c r="A461" s="6"/>
       <c r="B461" t="s">
         <v>428</v>
       </c>
@@ -44545,7 +44775,7 @@
       </c>
     </row>
     <row r="462" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A462" s="7"/>
+      <c r="A462" s="6"/>
       <c r="B462" t="s">
         <v>428</v>
       </c>
@@ -44617,7 +44847,7 @@
       </c>
     </row>
     <row r="463" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A463" s="7"/>
+      <c r="A463" s="6"/>
       <c r="B463" t="s">
         <v>428</v>
       </c>
@@ -44689,7 +44919,7 @@
       </c>
     </row>
     <row r="464" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A464" s="7"/>
+      <c r="A464" s="6"/>
       <c r="B464" t="s">
         <v>428</v>
       </c>
@@ -44761,7 +44991,7 @@
       </c>
     </row>
     <row r="465" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A465" s="7"/>
+      <c r="A465" s="6"/>
       <c r="B465" t="s">
         <v>428</v>
       </c>
@@ -44833,7 +45063,7 @@
       </c>
     </row>
     <row r="466" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A466" s="7"/>
+      <c r="A466" s="6"/>
       <c r="B466" t="s">
         <v>428</v>
       </c>
@@ -44905,7 +45135,7 @@
       </c>
     </row>
     <row r="467" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A467" s="7"/>
+      <c r="A467" s="6"/>
       <c r="B467" t="s">
         <v>428</v>
       </c>
@@ -44977,7 +45207,7 @@
       </c>
     </row>
     <row r="468" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A468" s="7"/>
+      <c r="A468" s="6"/>
       <c r="B468" t="s">
         <v>428</v>
       </c>
@@ -45049,7 +45279,7 @@
       </c>
     </row>
     <row r="469" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A469" s="7"/>
+      <c r="A469" s="6"/>
       <c r="B469" t="s">
         <v>428</v>
       </c>
@@ -45121,7 +45351,7 @@
       </c>
     </row>
     <row r="470" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A470" s="7"/>
+      <c r="A470" s="6"/>
       <c r="B470" t="s">
         <v>428</v>
       </c>
@@ -45193,7 +45423,7 @@
       </c>
     </row>
     <row r="471" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A471" s="7"/>
+      <c r="A471" s="6"/>
       <c r="B471" t="s">
         <v>428</v>
       </c>
@@ -45265,7 +45495,7 @@
       </c>
     </row>
     <row r="472" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A472" s="7"/>
+      <c r="A472" s="6"/>
       <c r="B472" t="s">
         <v>428</v>
       </c>
@@ -45337,7 +45567,7 @@
       </c>
     </row>
     <row r="473" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A473" s="7"/>
+      <c r="A473" s="6"/>
       <c r="B473" t="s">
         <v>176</v>
       </c>
@@ -45409,7 +45639,7 @@
       </c>
     </row>
     <row r="474" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A474" s="7"/>
+      <c r="A474" s="6"/>
       <c r="B474" t="s">
         <v>176</v>
       </c>
@@ -45481,7 +45711,7 @@
       </c>
     </row>
     <row r="475" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A475" s="7"/>
+      <c r="A475" s="6"/>
       <c r="B475" t="s">
         <v>176</v>
       </c>
@@ -45553,7 +45783,7 @@
       </c>
     </row>
     <row r="476" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A476" s="7"/>
+      <c r="A476" s="6"/>
       <c r="B476" t="s">
         <v>176</v>
       </c>
@@ -45625,7 +45855,7 @@
       </c>
     </row>
     <row r="477" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A477" s="7"/>
+      <c r="A477" s="6"/>
       <c r="B477" t="s">
         <v>176</v>
       </c>
@@ -45697,7 +45927,7 @@
       </c>
     </row>
     <row r="478" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A478" s="7"/>
+      <c r="A478" s="6"/>
       <c r="B478" t="s">
         <v>176</v>
       </c>
@@ -45769,7 +45999,7 @@
       </c>
     </row>
     <row r="479" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A479" s="7"/>
+      <c r="A479" s="6"/>
       <c r="B479" t="s">
         <v>176</v>
       </c>
@@ -45841,7 +46071,7 @@
       </c>
     </row>
     <row r="480" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A480" s="7"/>
+      <c r="A480" s="6"/>
       <c r="B480" t="s">
         <v>176</v>
       </c>
@@ -45913,7 +46143,7 @@
       </c>
     </row>
     <row r="481" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A481" s="7"/>
+      <c r="A481" s="6"/>
       <c r="B481" t="s">
         <v>176</v>
       </c>
@@ -45985,7 +46215,7 @@
       </c>
     </row>
     <row r="482" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A482" s="7"/>
+      <c r="A482" s="6"/>
       <c r="B482" t="s">
         <v>176</v>
       </c>
@@ -46057,7 +46287,7 @@
       </c>
     </row>
     <row r="483" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A483" s="7"/>
+      <c r="A483" s="6"/>
       <c r="B483" t="s">
         <v>176</v>
       </c>
@@ -46129,7 +46359,7 @@
       </c>
     </row>
     <row r="484" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A484" s="7"/>
+      <c r="A484" s="6"/>
       <c r="B484" t="s">
         <v>176</v>
       </c>
@@ -46201,7 +46431,7 @@
       </c>
     </row>
     <row r="485" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A485" s="7"/>
+      <c r="A485" s="6"/>
       <c r="B485" t="s">
         <v>176</v>
       </c>
@@ -46273,7 +46503,7 @@
       </c>
     </row>
     <row r="486" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A486" s="7"/>
+      <c r="A486" s="6"/>
       <c r="B486" t="s">
         <v>176</v>
       </c>
@@ -46345,7 +46575,7 @@
       </c>
     </row>
     <row r="487" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A487" s="7"/>
+      <c r="A487" s="6"/>
       <c r="B487" t="s">
         <v>176</v>
       </c>
@@ -46417,7 +46647,7 @@
       </c>
     </row>
     <row r="488" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A488" s="7"/>
+      <c r="A488" s="6"/>
       <c r="B488" t="s">
         <v>176</v>
       </c>
@@ -46489,7 +46719,7 @@
       </c>
     </row>
     <row r="489" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A489" s="7"/>
+      <c r="A489" s="6"/>
       <c r="B489" t="s">
         <v>176</v>
       </c>
@@ -46561,7 +46791,7 @@
       </c>
     </row>
     <row r="490" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A490" s="7"/>
+      <c r="A490" s="6"/>
       <c r="B490" t="s">
         <v>158</v>
       </c>
@@ -46633,7 +46863,7 @@
       </c>
     </row>
     <row r="491" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A491" s="7"/>
+      <c r="A491" s="6"/>
       <c r="B491" t="s">
         <v>158</v>
       </c>
@@ -46705,7 +46935,7 @@
       </c>
     </row>
     <row r="492" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A492" s="7"/>
+      <c r="A492" s="6"/>
       <c r="B492" t="s">
         <v>158</v>
       </c>
@@ -46777,7 +47007,7 @@
       </c>
     </row>
     <row r="493" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A493" s="7"/>
+      <c r="A493" s="6"/>
       <c r="B493" t="s">
         <v>158</v>
       </c>
@@ -46849,7 +47079,7 @@
       </c>
     </row>
     <row r="494" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A494" s="7"/>
+      <c r="A494" s="6"/>
       <c r="B494" t="s">
         <v>158</v>
       </c>
@@ -46921,7 +47151,7 @@
       </c>
     </row>
     <row r="495" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A495" s="7"/>
+      <c r="A495" s="6"/>
       <c r="B495" t="s">
         <v>158</v>
       </c>
@@ -46993,7 +47223,7 @@
       </c>
     </row>
     <row r="496" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A496" s="7"/>
+      <c r="A496" s="6"/>
       <c r="B496" t="s">
         <v>158</v>
       </c>
@@ -47065,7 +47295,7 @@
       </c>
     </row>
     <row r="497" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A497" s="7"/>
+      <c r="A497" s="6"/>
       <c r="B497" t="s">
         <v>158</v>
       </c>
@@ -47137,7 +47367,7 @@
       </c>
     </row>
     <row r="498" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A498" s="7"/>
+      <c r="A498" s="6"/>
       <c r="B498" t="s">
         <v>158</v>
       </c>
@@ -47209,7 +47439,7 @@
       </c>
     </row>
     <row r="499" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A499" s="7"/>
+      <c r="A499" s="6"/>
       <c r="B499" t="s">
         <v>158</v>
       </c>
@@ -47281,7 +47511,7 @@
       </c>
     </row>
     <row r="500" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A500" s="7"/>
+      <c r="A500" s="6"/>
       <c r="B500" t="s">
         <v>158</v>
       </c>
@@ -47353,7 +47583,7 @@
       </c>
     </row>
     <row r="501" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A501" s="7"/>
+      <c r="A501" s="6"/>
       <c r="B501" t="s">
         <v>158</v>
       </c>
@@ -47425,7 +47655,7 @@
       </c>
     </row>
     <row r="502" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A502" s="7"/>
+      <c r="A502" s="6"/>
       <c r="B502" t="s">
         <v>158</v>
       </c>
@@ -47497,7 +47727,7 @@
       </c>
     </row>
     <row r="503" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A503" s="7"/>
+      <c r="A503" s="6"/>
       <c r="B503" t="s">
         <v>158</v>
       </c>
@@ -47569,7 +47799,7 @@
       </c>
     </row>
     <row r="504" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A504" s="7"/>
+      <c r="A504" s="6"/>
       <c r="B504" t="s">
         <v>158</v>
       </c>
@@ -47641,7 +47871,7 @@
       </c>
     </row>
     <row r="505" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A505" s="7"/>
+      <c r="A505" s="6"/>
       <c r="B505" t="s">
         <v>158</v>
       </c>
@@ -47713,7 +47943,7 @@
       </c>
     </row>
     <row r="506" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A506" s="7"/>
+      <c r="A506" s="6"/>
       <c r="B506" t="s">
         <v>158</v>
       </c>
@@ -47785,7 +48015,7 @@
       </c>
     </row>
     <row r="507" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A507" s="7"/>
+      <c r="A507" s="6"/>
       <c r="B507" t="s">
         <v>158</v>
       </c>
@@ -47857,7 +48087,7 @@
       </c>
     </row>
     <row r="508" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A508" s="7"/>
+      <c r="A508" s="6"/>
       <c r="B508" t="s">
         <v>158</v>
       </c>
@@ -47929,7 +48159,7 @@
       </c>
     </row>
     <row r="509" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A509" s="7"/>
+      <c r="A509" s="6"/>
       <c r="B509" t="s">
         <v>158</v>
       </c>
@@ -48001,7 +48231,7 @@
       </c>
     </row>
     <row r="510" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A510" s="7"/>
+      <c r="A510" s="6"/>
       <c r="B510" t="s">
         <v>153</v>
       </c>
@@ -48070,7 +48300,7 @@
       </c>
     </row>
     <row r="511" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A511" s="7"/>
+      <c r="A511" s="6"/>
       <c r="B511" t="s">
         <v>153</v>
       </c>
@@ -48142,7 +48372,7 @@
       </c>
     </row>
     <row r="512" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A512" s="7"/>
+      <c r="A512" s="6"/>
       <c r="B512" t="s">
         <v>153</v>
       </c>
@@ -48214,7 +48444,7 @@
       </c>
     </row>
     <row r="513" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A513" s="7"/>
+      <c r="A513" s="6"/>
       <c r="B513" t="s">
         <v>153</v>
       </c>
@@ -48286,7 +48516,7 @@
       </c>
     </row>
     <row r="514" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A514" s="7"/>
+      <c r="A514" s="6"/>
       <c r="B514" t="s">
         <v>153</v>
       </c>
@@ -48358,7 +48588,7 @@
       </c>
     </row>
     <row r="515" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A515" s="7"/>
+      <c r="A515" s="6"/>
       <c r="B515" t="s">
         <v>153</v>
       </c>
@@ -48430,7 +48660,7 @@
       </c>
     </row>
     <row r="516" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A516" s="7"/>
+      <c r="A516" s="6"/>
       <c r="B516" t="s">
         <v>153</v>
       </c>
@@ -48502,7 +48732,7 @@
       </c>
     </row>
     <row r="517" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A517" s="7"/>
+      <c r="A517" s="6"/>
       <c r="B517" t="s">
         <v>153</v>
       </c>
@@ -48574,7 +48804,7 @@
       </c>
     </row>
     <row r="518" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A518" s="7"/>
+      <c r="A518" s="6"/>
       <c r="B518" t="s">
         <v>153</v>
       </c>
@@ -48646,7 +48876,7 @@
       </c>
     </row>
     <row r="519" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A519" s="7"/>
+      <c r="A519" s="6"/>
       <c r="B519" t="s">
         <v>153</v>
       </c>
@@ -48718,7 +48948,7 @@
       </c>
     </row>
     <row r="520" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A520" s="7"/>
+      <c r="A520" s="6"/>
       <c r="B520" t="s">
         <v>153</v>
       </c>
@@ -48790,7 +49020,7 @@
       </c>
     </row>
     <row r="521" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A521" s="7"/>
+      <c r="A521" s="6"/>
       <c r="B521" t="s">
         <v>153</v>
       </c>
@@ -48862,7 +49092,7 @@
       </c>
     </row>
     <row r="522" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A522" s="7"/>
+      <c r="A522" s="6"/>
       <c r="B522" t="s">
         <v>153</v>
       </c>
@@ -48934,7 +49164,7 @@
       </c>
     </row>
     <row r="523" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A523" s="7"/>
+      <c r="A523" s="6"/>
       <c r="B523" t="s">
         <v>153</v>
       </c>
@@ -49006,7 +49236,7 @@
       </c>
     </row>
     <row r="524" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A524" s="7"/>
+      <c r="A524" s="6"/>
       <c r="B524" t="s">
         <v>153</v>
       </c>
@@ -49078,7 +49308,7 @@
       </c>
     </row>
     <row r="525" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A525" s="7"/>
+      <c r="A525" s="6"/>
       <c r="B525" t="s">
         <v>153</v>
       </c>
@@ -49150,7 +49380,7 @@
       </c>
     </row>
     <row r="526" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A526" s="7"/>
+      <c r="A526" s="6"/>
       <c r="B526" t="s">
         <v>339</v>
       </c>
@@ -49222,7 +49452,7 @@
       </c>
     </row>
     <row r="527" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A527" s="7"/>
+      <c r="A527" s="6"/>
       <c r="B527" t="s">
         <v>339</v>
       </c>
@@ -49294,7 +49524,7 @@
       </c>
     </row>
     <row r="528" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A528" s="7"/>
+      <c r="A528" s="6"/>
       <c r="B528" t="s">
         <v>339</v>
       </c>
@@ -49366,7 +49596,7 @@
       </c>
     </row>
     <row r="529" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A529" s="7"/>
+      <c r="A529" s="6"/>
       <c r="B529" t="s">
         <v>339</v>
       </c>
@@ -49438,7 +49668,7 @@
       </c>
     </row>
     <row r="530" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A530" s="7"/>
+      <c r="A530" s="6"/>
       <c r="B530" t="s">
         <v>339</v>
       </c>
@@ -49510,7 +49740,7 @@
       </c>
     </row>
     <row r="531" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A531" s="7"/>
+      <c r="A531" s="6"/>
       <c r="B531" t="s">
         <v>339</v>
       </c>
@@ -49582,7 +49812,7 @@
       </c>
     </row>
     <row r="532" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A532" s="7"/>
+      <c r="A532" s="6"/>
       <c r="B532" t="s">
         <v>339</v>
       </c>
@@ -49654,7 +49884,7 @@
       </c>
     </row>
     <row r="533" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A533" s="7"/>
+      <c r="A533" s="6"/>
       <c r="B533" t="s">
         <v>339</v>
       </c>
@@ -49726,7 +49956,7 @@
       </c>
     </row>
     <row r="534" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A534" s="7"/>
+      <c r="A534" s="6"/>
       <c r="B534" t="s">
         <v>339</v>
       </c>
@@ -49798,7 +50028,7 @@
       </c>
     </row>
     <row r="535" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A535" s="7"/>
+      <c r="A535" s="6"/>
       <c r="B535" t="s">
         <v>339</v>
       </c>
@@ -49870,7 +50100,7 @@
       </c>
     </row>
     <row r="536" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A536" s="7"/>
+      <c r="A536" s="6"/>
       <c r="B536" t="s">
         <v>339</v>
       </c>
@@ -49942,7 +50172,7 @@
       </c>
     </row>
     <row r="537" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A537" s="7"/>
+      <c r="A537" s="6"/>
       <c r="B537" t="s">
         <v>339</v>
       </c>
@@ -50008,7 +50238,7 @@
       </c>
     </row>
     <row r="538" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A538" s="7"/>
+      <c r="A538" s="6"/>
       <c r="B538" t="s">
         <v>339</v>
       </c>
@@ -50074,7 +50304,7 @@
       </c>
     </row>
     <row r="539" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A539" s="7"/>
+      <c r="A539" s="6"/>
       <c r="B539" t="s">
         <v>339</v>
       </c>
@@ -50146,7 +50376,7 @@
       </c>
     </row>
     <row r="540" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A540" s="7"/>
+      <c r="A540" s="6"/>
       <c r="B540" t="s">
         <v>339</v>
       </c>
@@ -50218,7 +50448,7 @@
       </c>
     </row>
     <row r="541" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A541" s="7"/>
+      <c r="A541" s="6"/>
       <c r="B541" t="s">
         <v>339</v>
       </c>
@@ -50290,7 +50520,7 @@
       </c>
     </row>
     <row r="542" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A542" s="7"/>
+      <c r="A542" s="6"/>
       <c r="B542" t="s">
         <v>339</v>
       </c>
@@ -50362,7 +50592,7 @@
       </c>
     </row>
     <row r="543" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A543" s="7"/>
+      <c r="A543" s="6"/>
       <c r="B543" t="s">
         <v>339</v>
       </c>
@@ -50434,7 +50664,7 @@
       </c>
     </row>
     <row r="544" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A544" s="7"/>
+      <c r="A544" s="6"/>
       <c r="B544" t="s">
         <v>313</v>
       </c>
@@ -50506,7 +50736,7 @@
       </c>
     </row>
     <row r="545" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A545" s="7"/>
+      <c r="A545" s="6"/>
       <c r="B545" t="s">
         <v>313</v>
       </c>
@@ -50578,7 +50808,7 @@
       </c>
     </row>
     <row r="546" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A546" s="7"/>
+      <c r="A546" s="6"/>
       <c r="B546" t="s">
         <v>313</v>
       </c>
@@ -50650,7 +50880,7 @@
       </c>
     </row>
     <row r="547" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A547" s="7"/>
+      <c r="A547" s="6"/>
       <c r="B547" t="s">
         <v>313</v>
       </c>
@@ -50722,7 +50952,7 @@
       </c>
     </row>
     <row r="548" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A548" s="7"/>
+      <c r="A548" s="6"/>
       <c r="B548" t="s">
         <v>313</v>
       </c>
@@ -50794,7 +51024,7 @@
       </c>
     </row>
     <row r="549" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A549" s="7"/>
+      <c r="A549" s="6"/>
       <c r="B549" t="s">
         <v>313</v>
       </c>
@@ -50866,7 +51096,7 @@
       </c>
     </row>
     <row r="550" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A550" s="7"/>
+      <c r="A550" s="6"/>
       <c r="B550" t="s">
         <v>313</v>
       </c>
@@ -50938,7 +51168,7 @@
       </c>
     </row>
     <row r="551" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A551" s="7"/>
+      <c r="A551" s="6"/>
       <c r="B551" t="s">
         <v>313</v>
       </c>
@@ -51010,7 +51240,7 @@
       </c>
     </row>
     <row r="552" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A552" s="7"/>
+      <c r="A552" s="6"/>
       <c r="B552" t="s">
         <v>313</v>
       </c>
@@ -51082,7 +51312,7 @@
       </c>
     </row>
     <row r="553" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A553" s="7"/>
+      <c r="A553" s="6"/>
       <c r="B553" t="s">
         <v>313</v>
       </c>
@@ -51154,7 +51384,7 @@
       </c>
     </row>
     <row r="554" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A554" s="7"/>
+      <c r="A554" s="6"/>
       <c r="B554" t="s">
         <v>313</v>
       </c>
@@ -51226,7 +51456,7 @@
       </c>
     </row>
     <row r="555" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A555" s="7"/>
+      <c r="A555" s="6"/>
       <c r="B555" t="s">
         <v>313</v>
       </c>
@@ -51298,7 +51528,7 @@
       </c>
     </row>
     <row r="556" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A556" s="7"/>
+      <c r="A556" s="6"/>
       <c r="B556" t="s">
         <v>313</v>
       </c>
@@ -51370,7 +51600,7 @@
       </c>
     </row>
     <row r="557" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A557" s="7"/>
+      <c r="A557" s="6"/>
       <c r="B557" t="s">
         <v>313</v>
       </c>
@@ -51445,7 +51675,7 @@
       </c>
     </row>
     <row r="558" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A558" s="7"/>
+      <c r="A558" s="6"/>
       <c r="B558" t="s">
         <v>313</v>
       </c>
@@ -51517,7 +51747,7 @@
       </c>
     </row>
     <row r="559" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A559" s="7"/>
+      <c r="A559" s="6"/>
       <c r="B559" t="s">
         <v>313</v>
       </c>
@@ -51592,7 +51822,7 @@
       </c>
     </row>
     <row r="560" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A560" s="7"/>
+      <c r="A560" s="6"/>
       <c r="B560" t="s">
         <v>313</v>
       </c>
@@ -51664,7 +51894,7 @@
       </c>
     </row>
     <row r="561" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A561" s="7"/>
+      <c r="A561" s="6"/>
       <c r="B561" t="s">
         <v>313</v>
       </c>
@@ -51736,7 +51966,7 @@
       </c>
     </row>
     <row r="562" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A562" s="7"/>
+      <c r="A562" s="6"/>
       <c r="B562" t="s">
         <v>272</v>
       </c>
@@ -51808,7 +52038,7 @@
       </c>
     </row>
     <row r="563" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A563" s="7"/>
+      <c r="A563" s="6"/>
       <c r="B563" t="s">
         <v>272</v>
       </c>
@@ -51880,7 +52110,7 @@
       </c>
     </row>
     <row r="564" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A564" s="7"/>
+      <c r="A564" s="6"/>
       <c r="B564" t="s">
         <v>272</v>
       </c>
@@ -51952,7 +52182,7 @@
       </c>
     </row>
     <row r="565" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A565" s="7"/>
+      <c r="A565" s="6"/>
       <c r="B565" t="s">
         <v>272</v>
       </c>
@@ -52024,7 +52254,7 @@
       </c>
     </row>
     <row r="566" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A566" s="7"/>
+      <c r="A566" s="6"/>
       <c r="B566" t="s">
         <v>272</v>
       </c>
@@ -52096,7 +52326,7 @@
       </c>
     </row>
     <row r="567" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A567" s="7"/>
+      <c r="A567" s="6"/>
       <c r="B567" t="s">
         <v>272</v>
       </c>
@@ -52168,7 +52398,7 @@
       </c>
     </row>
     <row r="568" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A568" s="7"/>
+      <c r="A568" s="6"/>
       <c r="B568" t="s">
         <v>272</v>
       </c>
@@ -52240,7 +52470,7 @@
       </c>
     </row>
     <row r="569" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A569" s="7"/>
+      <c r="A569" s="6"/>
       <c r="B569" t="s">
         <v>272</v>
       </c>
@@ -52312,7 +52542,7 @@
       </c>
     </row>
     <row r="570" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A570" s="7"/>
+      <c r="A570" s="6"/>
       <c r="B570" t="s">
         <v>272</v>
       </c>
@@ -52384,7 +52614,7 @@
       </c>
     </row>
     <row r="571" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A571" s="7"/>
+      <c r="A571" s="6"/>
       <c r="B571" t="s">
         <v>272</v>
       </c>
@@ -52456,7 +52686,7 @@
       </c>
     </row>
     <row r="572" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A572" s="7"/>
+      <c r="A572" s="6"/>
       <c r="B572" t="s">
         <v>272</v>
       </c>
@@ -52528,7 +52758,7 @@
       </c>
     </row>
     <row r="573" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A573" s="7"/>
+      <c r="A573" s="6"/>
       <c r="B573" t="s">
         <v>272</v>
       </c>
@@ -52600,7 +52830,7 @@
       </c>
     </row>
     <row r="574" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A574" s="7"/>
+      <c r="A574" s="6"/>
       <c r="B574" t="s">
         <v>272</v>
       </c>
@@ -52672,7 +52902,7 @@
       </c>
     </row>
     <row r="575" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A575" s="7"/>
+      <c r="A575" s="6"/>
       <c r="B575" t="s">
         <v>272</v>
       </c>
@@ -52744,7 +52974,7 @@
       </c>
     </row>
     <row r="576" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A576" s="7"/>
+      <c r="A576" s="6"/>
       <c r="B576" t="s">
         <v>272</v>
       </c>
@@ -52816,7 +53046,7 @@
       </c>
     </row>
     <row r="577" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A577" s="7"/>
+      <c r="A577" s="6"/>
       <c r="B577" t="s">
         <v>272</v>
       </c>
@@ -52888,7 +53118,7 @@
       </c>
     </row>
     <row r="578" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A578" s="7"/>
+      <c r="A578" s="6"/>
       <c r="B578" t="s">
         <v>272</v>
       </c>
@@ -52960,7 +53190,7 @@
       </c>
     </row>
     <row r="579" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A579" s="7"/>
+      <c r="A579" s="6"/>
       <c r="B579" t="s">
         <v>272</v>
       </c>
@@ -53032,7 +53262,7 @@
       </c>
     </row>
     <row r="580" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A580" s="7"/>
+      <c r="A580" s="6"/>
       <c r="B580" t="s">
         <v>272</v>
       </c>
@@ -53104,7 +53334,7 @@
       </c>
     </row>
     <row r="581" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A581" s="7"/>
+      <c r="A581" s="6"/>
       <c r="B581" t="s">
         <v>272</v>
       </c>
@@ -53176,7 +53406,7 @@
       </c>
     </row>
     <row r="582" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A582" s="7"/>
+      <c r="A582" s="6"/>
       <c r="B582" t="s">
         <v>272</v>
       </c>
@@ -53248,7 +53478,7 @@
       </c>
     </row>
     <row r="583" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A583" s="7"/>
+      <c r="A583" s="6"/>
       <c r="B583" t="s">
         <v>272</v>
       </c>
@@ -53320,7 +53550,7 @@
       </c>
     </row>
     <row r="584" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A584" s="7"/>
+      <c r="A584" s="6"/>
       <c r="B584" t="s">
         <v>272</v>
       </c>
@@ -53391,154 +53621,154 @@
         <v>13</v>
       </c>
     </row>
-    <row r="585" spans="1:48" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A585" s="15"/>
-      <c r="B585" s="11" t="s">
+    <row r="585" spans="1:48" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A585" s="14"/>
+      <c r="B585" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C585" s="11" t="s">
+      <c r="C585" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D585" s="11" t="s">
+      <c r="D585" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="E585" s="11">
+      <c r="E585" s="10">
         <v>35</v>
       </c>
-      <c r="F585" s="11" t="s">
+      <c r="F585" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="G585" s="11" t="s">
+      <c r="G585" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H585" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="I585" s="11" t="s">
+      <c r="H585" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I585" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="P585" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q585" s="11" t="s">
+      <c r="P585" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q585" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="R585" s="11" t="s">
+      <c r="R585" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AG585" s="11" t="s">
+      <c r="AG585" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="AI585" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ585" s="11" t="s">
+      <c r="AI585" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ585" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="AK585" s="11">
+      <c r="AK585" s="10">
         <v>1</v>
       </c>
-      <c r="AL585" s="11" t="s">
+      <c r="AL585" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="AM585" s="11">
+      <c r="AM585" s="10">
         <v>1</v>
       </c>
-      <c r="AN585" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO585" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AP585" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ585" s="11">
+      <c r="AN585" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO585" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP585" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ585" s="10">
         <v>78000</v>
       </c>
-      <c r="AT585" s="11" t="s">
+      <c r="AT585" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="AU585" s="11">
+      <c r="AU585" s="10">
         <v>30</v>
       </c>
     </row>
-    <row r="586" spans="1:48" s="11" customFormat="1" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A586" s="10" t="s">
+    <row r="586" spans="1:48" s="10" customFormat="1" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A586" s="9" t="s">
         <v>1061</v>
       </c>
-      <c r="B586" s="11" t="s">
+      <c r="B586" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C586" s="11" t="s">
+      <c r="C586" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D586" s="11" t="s">
+      <c r="D586" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E586" s="11">
+      <c r="E586" s="10">
         <v>9</v>
       </c>
-      <c r="F586" s="11" t="s">
+      <c r="F586" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="G586" s="11" t="s">
+      <c r="G586" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="H586" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="I586" s="11" t="s">
+      <c r="H586" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I586" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="P586" s="11">
+      <c r="P586" s="10">
         <v>21</v>
       </c>
-      <c r="Q586" s="11" t="s">
+      <c r="Q586" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="R586" s="11" t="s">
+      <c r="R586" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AG586" s="11" t="s">
+      <c r="AG586" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="AI586" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ586" s="11" t="s">
+      <c r="AI586" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ586" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AK586" s="11">
+      <c r="AK586" s="10">
         <v>1</v>
       </c>
-      <c r="AL586" s="11" t="s">
+      <c r="AL586" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="AM586" s="11">
+      <c r="AM586" s="10">
         <v>1</v>
       </c>
-      <c r="AN586" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO586" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AP586" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ586" s="11">
+      <c r="AN586" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO586" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP586" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ586" s="10">
         <v>13000</v>
       </c>
-      <c r="AT586" s="11">
-        <v>2</v>
-      </c>
-      <c r="AU586" s="11">
+      <c r="AT586" s="10">
+        <v>2</v>
+      </c>
+      <c r="AU586" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="587" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A587" s="9"/>
+      <c r="A587" s="8"/>
       <c r="B587" t="s">
         <v>264</v>
       </c>
@@ -53619,7 +53849,7 @@
       </c>
     </row>
     <row r="588" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A588" s="39" t="s">
+      <c r="A588" s="45" t="s">
         <v>1062</v>
       </c>
       <c r="B588" t="s">
@@ -53705,7 +53935,7 @@
       </c>
     </row>
     <row r="589" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A589" s="39"/>
+      <c r="A589" s="45"/>
       <c r="B589" t="s">
         <v>249</v>
       </c>
@@ -53786,7 +54016,7 @@
       </c>
     </row>
     <row r="590" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A590" s="39"/>
+      <c r="A590" s="45"/>
       <c r="B590" t="s">
         <v>249</v>
       </c>
@@ -53873,7 +54103,7 @@
       </c>
     </row>
     <row r="591" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A591" s="39"/>
+      <c r="A591" s="45"/>
       <c r="B591" t="s">
         <v>198</v>
       </c>
@@ -53957,7 +54187,7 @@
       </c>
     </row>
     <row r="592" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A592" s="9"/>
+      <c r="A592" s="8"/>
       <c r="B592" t="s">
         <v>187</v>
       </c>
@@ -54041,7 +54271,7 @@
       </c>
     </row>
     <row r="593" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A593" s="9"/>
+      <c r="A593" s="8"/>
       <c r="B593" t="s">
         <v>258</v>
       </c>
@@ -54122,7 +54352,7 @@
       </c>
     </row>
     <row r="594" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A594" s="9"/>
+      <c r="A594" s="8"/>
       <c r="B594" t="s">
         <v>255</v>
       </c>
@@ -54209,7 +54439,7 @@
       </c>
     </row>
     <row r="595" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A595" s="9"/>
+      <c r="A595" s="8"/>
       <c r="B595" t="s">
         <v>252</v>
       </c>
@@ -54290,7 +54520,7 @@
       </c>
     </row>
     <row r="596" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A596" s="9"/>
+      <c r="A596" s="8"/>
       <c r="B596" t="s">
         <v>242</v>
       </c>
@@ -54371,7 +54601,7 @@
       </c>
     </row>
     <row r="597" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A597" s="9"/>
+      <c r="A597" s="8"/>
       <c r="B597" t="s">
         <v>231</v>
       </c>
@@ -54452,7 +54682,7 @@
       </c>
     </row>
     <row r="598" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A598" s="9"/>
+      <c r="A598" s="8"/>
       <c r="B598" t="s">
         <v>231</v>
       </c>
@@ -54533,7 +54763,7 @@
       </c>
     </row>
     <row r="599" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A599" s="9"/>
+      <c r="A599" s="8"/>
       <c r="B599" t="s">
         <v>212</v>
       </c>
@@ -54614,7 +54844,7 @@
       </c>
     </row>
     <row r="600" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A600" s="9"/>
+      <c r="A600" s="8"/>
       <c r="B600" t="s">
         <v>212</v>
       </c>
@@ -54695,7 +54925,7 @@
       </c>
     </row>
     <row r="601" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A601" s="9"/>
+      <c r="A601" s="8"/>
       <c r="B601" t="s">
         <v>212</v>
       </c>
@@ -54776,7 +55006,7 @@
       </c>
     </row>
     <row r="602" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A602" s="9"/>
+      <c r="A602" s="8"/>
       <c r="B602" t="s">
         <v>198</v>
       </c>
@@ -54857,7 +55087,7 @@
       </c>
     </row>
     <row r="603" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A603" s="9"/>
+      <c r="A603" s="8"/>
       <c r="B603" t="s">
         <v>198</v>
       </c>
@@ -54938,7 +55168,7 @@
       </c>
     </row>
     <row r="604" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A604" s="9"/>
+      <c r="A604" s="8"/>
       <c r="B604" t="s">
         <v>198</v>
       </c>
@@ -55022,7 +55252,7 @@
       </c>
     </row>
     <row r="605" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A605" s="9"/>
+      <c r="A605" s="8"/>
       <c r="B605" t="s">
         <v>176</v>
       </c>
@@ -55103,7 +55333,7 @@
       </c>
     </row>
     <row r="606" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A606" s="9"/>
+      <c r="A606" s="8"/>
       <c r="B606" t="s">
         <v>176</v>
       </c>
@@ -55184,7 +55414,7 @@
       </c>
     </row>
     <row r="607" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A607" s="9"/>
+      <c r="A607" s="8"/>
       <c r="B607" t="s">
         <v>176</v>
       </c>
@@ -55265,7 +55495,7 @@
       </c>
     </row>
     <row r="608" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A608" s="9"/>
+      <c r="A608" s="8"/>
       <c r="B608" t="s">
         <v>176</v>
       </c>
@@ -55346,7 +55576,7 @@
       </c>
     </row>
     <row r="609" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A609" s="9"/>
+      <c r="A609" s="8"/>
       <c r="B609" t="s">
         <v>158</v>
       </c>
@@ -55427,7 +55657,7 @@
       </c>
     </row>
     <row r="610" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A610" s="9"/>
+      <c r="A610" s="8"/>
       <c r="B610" t="s">
         <v>158</v>
       </c>
@@ -55508,7 +55738,7 @@
       </c>
     </row>
     <row r="611" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A611" s="9"/>
+      <c r="A611" s="8"/>
       <c r="B611" t="s">
         <v>158</v>
       </c>
@@ -55589,7 +55819,7 @@
       </c>
     </row>
     <row r="612" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A612" s="9"/>
+      <c r="A612" s="8"/>
       <c r="B612" t="s">
         <v>158</v>
       </c>
@@ -55670,7 +55900,7 @@
       </c>
     </row>
     <row r="613" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A613" s="9"/>
+      <c r="A613" s="8"/>
       <c r="B613" t="s">
         <v>158</v>
       </c>
@@ -55750,92 +55980,92 @@
         <v>128</v>
       </c>
     </row>
-    <row r="614" spans="1:48" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A614" s="12"/>
-      <c r="B614" s="11" t="s">
+    <row r="614" spans="1:48" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A614" s="11"/>
+      <c r="B614" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C614" s="11" t="s">
+      <c r="C614" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D614" s="11" t="s">
+      <c r="D614" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="E614" s="11">
+      <c r="E614" s="10">
         <v>20</v>
       </c>
-      <c r="F614" s="11" t="s">
+      <c r="F614" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="G614" s="11" t="s">
+      <c r="G614" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H614" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="I614" s="11" t="s">
+      <c r="H614" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I614" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="J614" s="11" t="s">
+      <c r="J614" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="K614" s="11" t="s">
+      <c r="K614" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="P614" s="11">
+      <c r="P614" s="10">
         <v>27</v>
       </c>
-      <c r="Q614" s="11" t="s">
+      <c r="Q614" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="R614" s="11" t="s">
+      <c r="R614" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="T614" s="11" t="s">
+      <c r="T614" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="U614" s="11" t="s">
+      <c r="U614" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="V614" s="11" t="s">
+      <c r="V614" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="AG614" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI614" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ614" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK614" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AL614" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM614" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN614" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO614" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AP614" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ614" s="11">
+      <c r="AG614" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI614" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ614" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK614" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL614" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM614" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN614" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO614" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP614" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ614" s="10">
         <v>94000</v>
       </c>
-      <c r="AV614" s="11" t="s">
+      <c r="AV614" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="615" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A615" s="40" t="s">
+      <c r="A615" s="46" t="s">
         <v>1063</v>
       </c>
       <c r="B615" t="s">
@@ -55912,7 +56142,7 @@
       </c>
     </row>
     <row r="616" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A616" s="41"/>
+      <c r="A616" s="47"/>
       <c r="B616" t="s">
         <v>136</v>
       </c>
@@ -55984,7 +56214,7 @@
       </c>
     </row>
     <row r="617" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A617" s="41"/>
+      <c r="A617" s="47"/>
       <c r="B617" t="s">
         <v>136</v>
       </c>
@@ -56079,7 +56309,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>1064</v>
       </c>
       <c r="B1" t="s">
@@ -56225,7 +56455,7 @@
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
+      <c r="A2" s="6"/>
       <c r="B2" t="s">
         <v>834</v>
       </c>
@@ -56309,7 +56539,7 @@
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="44" t="s">
         <v>1013</v>
       </c>
       <c r="B3" t="s">
@@ -56395,7 +56625,7 @@
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A4" s="38"/>
+      <c r="A4" s="44"/>
       <c r="B4" t="s">
         <v>145</v>
       </c>
@@ -56479,7 +56709,7 @@
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A5" s="38"/>
+      <c r="A5" s="44"/>
       <c r="B5" t="s">
         <v>834</v>
       </c>
@@ -56563,7 +56793,7 @@
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A6" s="38"/>
+      <c r="A6" s="44"/>
       <c r="B6" t="s">
         <v>239</v>
       </c>
@@ -56647,7 +56877,7 @@
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>136</v>
       </c>
@@ -56731,7 +56961,7 @@
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>136</v>
       </c>
@@ -56818,7 +57048,7 @@
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>686</v>
       </c>
@@ -56905,7 +57135,7 @@
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
+      <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>686</v>
       </c>
@@ -56992,7 +57222,7 @@
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
+      <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>231</v>
       </c>
@@ -57076,7 +57306,7 @@
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>231</v>
       </c>
@@ -57160,7 +57390,7 @@
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
+      <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>227</v>
       </c>
@@ -57244,7 +57474,7 @@
       </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>227</v>
       </c>
@@ -57328,7 +57558,7 @@
       </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
+      <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>212</v>
       </c>
@@ -57412,7 +57642,7 @@
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
+      <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>212</v>
       </c>
@@ -57496,7 +57726,7 @@
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A17" s="7"/>
+      <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>212</v>
       </c>
@@ -57583,7 +57813,7 @@
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>530</v>
       </c>
@@ -57667,7 +57897,7 @@
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A19" s="7"/>
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>187</v>
       </c>
@@ -57754,7 +57984,7 @@
       </c>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A20" s="7"/>
+      <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>176</v>
       </c>
@@ -57838,7 +58068,7 @@
       </c>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
+      <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>158</v>
       </c>
@@ -57922,7 +58152,7 @@
       </c>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A22" s="7"/>
+      <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>339</v>
       </c>
@@ -58006,7 +58236,7 @@
       </c>
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A23" s="7"/>
+      <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>313</v>
       </c>
@@ -58089,92 +58319,92 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:48" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="15"/>
-      <c r="B24" s="11" t="s">
+    <row r="24" spans="1:48" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="14"/>
+      <c r="B24" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>5</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H24" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="I24" s="11" t="s">
+      <c r="H24" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="J24" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="K24" s="11" t="s">
+      <c r="J24" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="P24" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="11" t="s">
+      <c r="P24" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="R24" s="11" t="s">
+      <c r="R24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="T24" s="11" t="s">
+      <c r="T24" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="U24" s="11" t="s">
+      <c r="U24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AG24" s="11" t="s">
+      <c r="AG24" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="AI24" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ24" s="11" t="s">
+      <c r="AI24" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ24" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="AK24" s="11">
-        <v>2</v>
-      </c>
-      <c r="AL24" s="11" t="s">
+      <c r="AK24" s="10">
+        <v>2</v>
+      </c>
+      <c r="AL24" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="AM24" s="11">
-        <v>2</v>
-      </c>
-      <c r="AN24" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO24" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AP24" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ24" s="11">
+      <c r="AM24" s="10">
+        <v>2</v>
+      </c>
+      <c r="AN24" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO24" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP24" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ24" s="10">
         <v>69000</v>
       </c>
-      <c r="AT24" s="11">
+      <c r="AT24" s="10">
         <v>50</v>
       </c>
-      <c r="AU24" s="11" t="s">
+      <c r="AU24" s="10" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
+      <c r="A25" s="8"/>
       <c r="B25" t="s">
         <v>264</v>
       </c>
@@ -58255,7 +58485,7 @@
       </c>
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A26" s="9"/>
+      <c r="A26" s="8"/>
       <c r="B26" t="s">
         <v>264</v>
       </c>
@@ -58339,7 +58569,7 @@
       </c>
     </row>
     <row r="27" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A27" s="9"/>
+      <c r="A27" s="8"/>
       <c r="B27" t="s">
         <v>145</v>
       </c>
@@ -58423,7 +58653,7 @@
       </c>
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="45" t="s">
         <v>1062</v>
       </c>
       <c r="B28" t="s">
@@ -58506,7 +58736,7 @@
       </c>
     </row>
     <row r="29" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A29" s="39"/>
+      <c r="A29" s="45"/>
       <c r="B29" t="s">
         <v>834</v>
       </c>
@@ -58587,7 +58817,7 @@
       </c>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A30" s="39"/>
+      <c r="A30" s="45"/>
       <c r="B30" t="s">
         <v>242</v>
       </c>
@@ -58683,7 +58913,7 @@
       </c>
     </row>
     <row r="31" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A31" s="9"/>
+      <c r="A31" s="8"/>
       <c r="B31" t="s">
         <v>242</v>
       </c>
@@ -58764,7 +58994,7 @@
       </c>
     </row>
     <row r="32" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A32" s="9"/>
+      <c r="A32" s="8"/>
       <c r="B32" t="s">
         <v>239</v>
       </c>
@@ -58845,7 +59075,7 @@
       </c>
     </row>
     <row r="33" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A33" s="9"/>
+      <c r="A33" s="8"/>
       <c r="B33" t="s">
         <v>239</v>
       </c>
@@ -58926,7 +59156,7 @@
       </c>
     </row>
     <row r="34" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A34" s="9"/>
+      <c r="A34" s="8"/>
       <c r="B34" t="s">
         <v>136</v>
       </c>
@@ -59007,7 +59237,7 @@
       </c>
     </row>
     <row r="35" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A35" s="9"/>
+      <c r="A35" s="8"/>
       <c r="B35" t="s">
         <v>136</v>
       </c>
@@ -59088,7 +59318,7 @@
       </c>
     </row>
     <row r="36" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A36" s="9"/>
+      <c r="A36" s="8"/>
       <c r="B36" t="s">
         <v>231</v>
       </c>
@@ -59169,7 +59399,7 @@
       </c>
     </row>
     <row r="37" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A37" s="9"/>
+      <c r="A37" s="8"/>
       <c r="B37" t="s">
         <v>231</v>
       </c>
@@ -59250,7 +59480,7 @@
       </c>
     </row>
     <row r="38" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A38" s="9"/>
+      <c r="A38" s="8"/>
       <c r="B38" t="s">
         <v>227</v>
       </c>
@@ -59331,7 +59561,7 @@
       </c>
     </row>
     <row r="39" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A39" s="9"/>
+      <c r="A39" s="8"/>
       <c r="B39" t="s">
         <v>227</v>
       </c>
@@ -59412,7 +59642,7 @@
       </c>
     </row>
     <row r="40" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A40" s="9"/>
+      <c r="A40" s="8"/>
       <c r="B40" t="s">
         <v>227</v>
       </c>
@@ -59493,7 +59723,7 @@
       </c>
     </row>
     <row r="41" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A41" s="9"/>
+      <c r="A41" s="8"/>
       <c r="B41" t="s">
         <v>227</v>
       </c>
@@ -59574,7 +59804,7 @@
       </c>
     </row>
     <row r="42" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A42" s="9"/>
+      <c r="A42" s="8"/>
       <c r="B42" t="s">
         <v>212</v>
       </c>
@@ -59655,7 +59885,7 @@
       </c>
     </row>
     <row r="43" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A43" s="9"/>
+      <c r="A43" s="8"/>
       <c r="B43" t="s">
         <v>530</v>
       </c>
@@ -59736,7 +59966,7 @@
       </c>
     </row>
     <row r="44" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A44" s="9"/>
+      <c r="A44" s="8"/>
       <c r="B44" t="s">
         <v>530</v>
       </c>
@@ -59817,7 +60047,7 @@
       </c>
     </row>
     <row r="45" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A45" s="9"/>
+      <c r="A45" s="8"/>
       <c r="B45" t="s">
         <v>513</v>
       </c>
@@ -59898,7 +60128,7 @@
       </c>
     </row>
     <row r="46" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A46" s="9"/>
+      <c r="A46" s="8"/>
       <c r="B46" t="s">
         <v>513</v>
       </c>
@@ -59979,7 +60209,7 @@
       </c>
     </row>
     <row r="47" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A47" s="9"/>
+      <c r="A47" s="8"/>
       <c r="B47" t="s">
         <v>158</v>
       </c>
@@ -60060,7 +60290,7 @@
       </c>
     </row>
     <row r="48" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A48" s="9"/>
+      <c r="A48" s="8"/>
       <c r="B48" t="s">
         <v>153</v>
       </c>
@@ -60141,7 +60371,7 @@
       </c>
     </row>
     <row r="49" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A49" s="9"/>
+      <c r="A49" s="8"/>
       <c r="B49" t="s">
         <v>153</v>
       </c>
@@ -60221,169 +60451,169 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:48" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="12"/>
-      <c r="B50" s="11" t="s">
+    <row r="50" spans="1:48" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="11"/>
+      <c r="B50" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="10">
         <v>29</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="G50" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="I50" s="11" t="s">
+      <c r="I50" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="J50" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="K50" s="11" t="s">
+      <c r="J50" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="K50" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="P50" s="11">
+      <c r="P50" s="10">
         <v>27</v>
       </c>
-      <c r="Q50" s="11" t="s">
+      <c r="Q50" s="10" t="s">
         <v>1069</v>
       </c>
-      <c r="R50" s="11" t="s">
+      <c r="R50" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="T50" s="11" t="s">
+      <c r="T50" s="10" t="s">
         <v>1068</v>
       </c>
-      <c r="U50" s="11" t="s">
+      <c r="U50" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AG50" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI50" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ50" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK50" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AL50" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM50" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN50" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO50" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AP50" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ50" s="11">
+      <c r="AG50" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI50" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ50" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK50" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL50" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM50" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN50" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO50" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP50" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ50" s="10">
         <v>380000</v>
       </c>
-      <c r="AV50" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:48" s="16" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="17" t="s">
+      <c r="AV50" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:48" s="15" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="16" t="s">
         <v>1134</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="15">
         <v>6</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F51" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G51" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="H51" s="16" t="s">
+      <c r="H51" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="I51" s="16" t="s">
+      <c r="I51" s="15" t="s">
         <v>1067</v>
       </c>
-      <c r="J51" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="K51" s="16" t="s">
+      <c r="J51" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K51" s="15" t="s">
         <v>1067</v>
       </c>
-      <c r="P51" s="16">
+      <c r="P51" s="15">
         <v>26</v>
       </c>
-      <c r="Q51" s="16" t="s">
+      <c r="Q51" s="15" t="s">
         <v>1066</v>
       </c>
-      <c r="R51" s="16" t="s">
+      <c r="R51" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="T51" s="16" t="s">
+      <c r="T51" s="15" t="s">
         <v>1065</v>
       </c>
-      <c r="U51" s="16" t="s">
+      <c r="U51" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AG51" s="16" t="s">
+      <c r="AG51" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="AI51" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ51" s="16" t="s">
+      <c r="AI51" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ51" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="AK51" s="16">
-        <v>2</v>
-      </c>
-      <c r="AL51" s="16" t="s">
+      <c r="AK51" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL51" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AM51" s="16">
+      <c r="AM51" s="15">
         <v>3</v>
       </c>
-      <c r="AN51" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO51" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="AP51" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ51" s="16">
+      <c r="AN51" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO51" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP51" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ51" s="15">
         <v>43000</v>
       </c>
     </row>
     <row r="52" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="48" t="s">
         <v>1133</v>
       </c>
       <c r="B52" t="s">
@@ -60469,7 +60699,7 @@
       </c>
     </row>
     <row r="53" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A53" s="42"/>
+      <c r="A53" s="48"/>
       <c r="B53" t="s">
         <v>428</v>
       </c>
@@ -60552,81 +60782,81 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:48" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="42"/>
-      <c r="B54" s="11" t="s">
+    <row r="54" spans="1:48" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="48"/>
+      <c r="B54" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="10">
         <v>31</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="G54" s="11" t="s">
+      <c r="G54" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="H54" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="I54" s="11" t="s">
+      <c r="H54" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I54" s="10" t="s">
         <v>966</v>
       </c>
-      <c r="J54" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="K54" s="11" t="s">
+      <c r="J54" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="K54" s="10" t="s">
         <v>981</v>
       </c>
-      <c r="P54" s="11">
+      <c r="P54" s="10">
         <v>1</v>
       </c>
-      <c r="Q54" s="11" t="s">
+      <c r="Q54" s="10" t="s">
         <v>980</v>
       </c>
-      <c r="R54" s="11" t="s">
+      <c r="R54" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="T54" s="11" t="s">
+      <c r="T54" s="10" t="s">
         <v>979</v>
       </c>
-      <c r="U54" s="11" t="s">
+      <c r="U54" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AG54" s="11" t="s">
+      <c r="AG54" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="AI54" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ54" s="11" t="s">
+      <c r="AI54" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ54" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="AK54" s="11">
+      <c r="AK54" s="10">
         <v>3</v>
       </c>
-      <c r="AL54" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM54" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN54" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO54" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AP54" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ54" s="11">
+      <c r="AL54" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM54" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN54" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO54" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP54" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ54" s="10">
         <v>760000</v>
       </c>
     </row>
@@ -60670,8 +60900,8 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">

--- a/OREI_files/10-herd data/10herd_data_sharing_11_30_21.xlsx
+++ b/OREI_files/10-herd data/10herd_data_sharing_11_30_21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:40009_{4E471A33-58E1-4D19-90EB-CEBAB155844B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F43F228B-E383-4998-9DCE-C349E66D8281}"/>
+  <xr:revisionPtr revIDLastSave="161" documentId="13_ncr:40009_{4E471A33-58E1-4D19-90EB-CEBAB155844B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3ECC36DB-3B39-4CD5-9914-84CD9BAB7D0C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="staph sp num IMI table" sheetId="20" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13002" uniqueCount="1193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13045" uniqueCount="1202">
   <si>
     <t>Freq</t>
   </si>
@@ -3671,12 +3671,89 @@
   <si>
     <t>S. hyicus</t>
   </si>
+  <si>
+    <t>No. IMI</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table 1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Number of intramammary infections for each NASM species identified</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S. auricularis, S. capitis, S. cohnii, S. epidermidis, S. gallinarum, S. hominis, S. pseudintermedius, S. saprophyticus, S. succinus, M. fleurettii, Staph. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>species</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> S. hyicus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M. sciuri</t>
+  </si>
+  <si>
+    <t>Total number NASM IMI:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Table 1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Number of intramammary infections for each NASM species identified</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No. IMI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3902,6 +3979,36 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -4141,7 +4248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -4403,6 +4510,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4448,7 +4579,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4531,6 +4662,47 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4546,15 +4718,31 @@
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4625,6 +4813,10 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -4925,10 +5117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EA0BAF-4ED7-4706-9FE5-1419444756CA}">
-  <dimension ref="B1:M51"/>
+  <dimension ref="B1:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="116" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4938,10 +5130,18 @@
     <col min="5" max="5" width="17.36328125" customWidth="1"/>
     <col min="11" max="11" width="22.36328125" customWidth="1"/>
     <col min="12" max="12" width="19.453125" customWidth="1"/>
+    <col min="16" max="16" width="41.26953125" customWidth="1"/>
+    <col min="17" max="17" width="9.7265625" customWidth="1"/>
+    <col min="18" max="18" width="41.26953125" customWidth="1"/>
+    <col min="19" max="19" width="9.6328125" customWidth="1"/>
+    <col min="21" max="21" width="20.1796875" customWidth="1"/>
+    <col min="22" max="22" width="12.90625" customWidth="1"/>
+    <col min="23" max="23" width="17.6328125" customWidth="1"/>
+    <col min="24" max="24" width="35.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:12" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:24" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="43" t="s">
         <v>1189</v>
       </c>
@@ -4949,15 +5149,27 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:24" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="39" t="s">
         <v>1187</v>
       </c>
       <c r="C3" s="38">
         <v>190</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P3" s="56" t="s">
+        <v>1199</v>
+      </c>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="58"/>
+      <c r="U3" s="56" t="s">
+        <v>1194</v>
+      </c>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="58"/>
+    </row>
+    <row r="4" spans="2:24" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="39" t="s">
         <v>1186</v>
       </c>
@@ -4970,8 +5182,32 @@
       <c r="L4" s="42" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P4" s="49" t="s">
+        <v>1200</v>
+      </c>
+      <c r="Q4" s="50" t="s">
+        <v>1201</v>
+      </c>
+      <c r="R4" s="49" t="s">
+        <v>1200</v>
+      </c>
+      <c r="S4" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="U4" s="49" t="s">
+        <v>1189</v>
+      </c>
+      <c r="V4" s="50" t="s">
+        <v>1193</v>
+      </c>
+      <c r="W4" s="49" t="s">
+        <v>1189</v>
+      </c>
+      <c r="X4" s="49" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="39" t="s">
         <v>1185</v>
       </c>
@@ -4984,8 +5220,32 @@
       <c r="L5" s="38">
         <v>190</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P5" s="66" t="s">
+        <v>1187</v>
+      </c>
+      <c r="Q5" s="38">
+        <v>190</v>
+      </c>
+      <c r="R5" s="64" t="s">
+        <v>1196</v>
+      </c>
+      <c r="S5" s="45">
+        <v>3</v>
+      </c>
+      <c r="U5" s="39" t="s">
+        <v>1187</v>
+      </c>
+      <c r="V5" s="38">
+        <v>190</v>
+      </c>
+      <c r="W5" s="44" t="s">
+        <v>1177</v>
+      </c>
+      <c r="X5" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="39" t="s">
         <v>1184</v>
       </c>
@@ -4998,8 +5258,32 @@
       <c r="L6" s="38">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P6" s="66" t="s">
+        <v>1186</v>
+      </c>
+      <c r="Q6" s="38">
+        <v>28</v>
+      </c>
+      <c r="R6" s="65" t="s">
+        <v>1197</v>
+      </c>
+      <c r="S6" s="46">
+        <v>2</v>
+      </c>
+      <c r="U6" s="39" t="s">
+        <v>1186</v>
+      </c>
+      <c r="V6" s="38">
+        <v>28</v>
+      </c>
+      <c r="W6" s="44" t="s">
+        <v>1176</v>
+      </c>
+      <c r="X6" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="41" t="s">
         <v>1183</v>
       </c>
@@ -5012,8 +5296,32 @@
       <c r="L7" s="38">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P7" s="66" t="s">
+        <v>1185</v>
+      </c>
+      <c r="Q7" s="38">
+        <v>19</v>
+      </c>
+      <c r="R7" s="67" t="s">
+        <v>1195</v>
+      </c>
+      <c r="S7" s="70">
+        <v>1</v>
+      </c>
+      <c r="U7" s="39" t="s">
+        <v>1185</v>
+      </c>
+      <c r="V7" s="38">
+        <v>19</v>
+      </c>
+      <c r="W7" s="44" t="s">
+        <v>1174</v>
+      </c>
+      <c r="X7" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="39" t="s">
         <v>1182</v>
       </c>
@@ -5026,8 +5334,28 @@
       <c r="L8" s="38">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P8" s="66" t="s">
+        <v>1184</v>
+      </c>
+      <c r="Q8" s="38">
+        <v>15</v>
+      </c>
+      <c r="R8" s="68"/>
+      <c r="S8" s="71"/>
+      <c r="U8" s="39" t="s">
+        <v>1184</v>
+      </c>
+      <c r="V8" s="38">
+        <v>15</v>
+      </c>
+      <c r="W8" s="44" t="s">
+        <v>1175</v>
+      </c>
+      <c r="X8" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="39" t="s">
         <v>1180</v>
       </c>
@@ -5040,8 +5368,28 @@
       <c r="L9" s="40">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P9" s="64" t="s">
+        <v>1191</v>
+      </c>
+      <c r="Q9" s="48">
+        <v>11</v>
+      </c>
+      <c r="R9" s="68"/>
+      <c r="S9" s="71"/>
+      <c r="U9" s="47" t="s">
+        <v>1191</v>
+      </c>
+      <c r="V9" s="48">
+        <v>11</v>
+      </c>
+      <c r="W9" s="44" t="s">
+        <v>1173</v>
+      </c>
+      <c r="X9" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="39" t="s">
         <v>1179</v>
       </c>
@@ -5054,8 +5402,28 @@
       <c r="L10" s="38">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P10" s="66" t="s">
+        <v>1182</v>
+      </c>
+      <c r="Q10" s="38">
+        <v>7</v>
+      </c>
+      <c r="R10" s="68"/>
+      <c r="S10" s="71"/>
+      <c r="U10" s="39" t="s">
+        <v>1182</v>
+      </c>
+      <c r="V10" s="38">
+        <v>7</v>
+      </c>
+      <c r="W10" s="39" t="s">
+        <v>1172</v>
+      </c>
+      <c r="X10" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="41" t="s">
         <v>1181</v>
       </c>
@@ -5068,8 +5436,28 @@
       <c r="L11" s="38">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P11" s="66" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Q11" s="38">
+        <v>7</v>
+      </c>
+      <c r="R11" s="69"/>
+      <c r="S11" s="72"/>
+      <c r="U11" s="39" t="s">
+        <v>1180</v>
+      </c>
+      <c r="V11" s="38">
+        <v>7</v>
+      </c>
+      <c r="W11" s="39" t="s">
+        <v>1171</v>
+      </c>
+      <c r="X11" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="39" t="s">
         <v>1178</v>
       </c>
@@ -5082,8 +5470,32 @@
       <c r="L12" s="38">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P12" s="66" t="s">
+        <v>1179</v>
+      </c>
+      <c r="Q12" s="38">
+        <v>5</v>
+      </c>
+      <c r="R12" s="55" t="s">
+        <v>1198</v>
+      </c>
+      <c r="S12" s="54">
+        <v>298</v>
+      </c>
+      <c r="U12" s="39" t="s">
+        <v>1179</v>
+      </c>
+      <c r="V12" s="38">
+        <v>5</v>
+      </c>
+      <c r="W12" s="39" t="s">
+        <v>1170</v>
+      </c>
+      <c r="X12" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="39" t="s">
         <v>1177</v>
       </c>
@@ -5096,8 +5508,20 @@
       <c r="L13" s="38">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U13" s="47" t="s">
+        <v>1192</v>
+      </c>
+      <c r="V13" s="45">
+        <v>3</v>
+      </c>
+      <c r="W13" s="39" t="s">
+        <v>1169</v>
+      </c>
+      <c r="X13" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="39" t="s">
         <v>1176</v>
       </c>
@@ -5110,8 +5534,20 @@
       <c r="L14" s="38">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U14" s="44" t="s">
+        <v>1181</v>
+      </c>
+      <c r="V14" s="46">
+        <v>2</v>
+      </c>
+      <c r="W14" s="51" t="s">
+        <v>1190</v>
+      </c>
+      <c r="X14" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="39" t="s">
         <v>1174</v>
       </c>
@@ -5124,8 +5560,14 @@
       <c r="L15" s="38">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U15" s="51" t="s">
+        <v>1178</v>
+      </c>
+      <c r="V15" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="41" t="s">
         <v>1175</v>
       </c>
@@ -5273,11 +5715,11 @@
       </c>
     </row>
     <row r="35" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="47" t="s">
         <v>1191</v>
       </c>
-      <c r="C35" s="53">
-        <v>10</v>
+      <c r="C35" s="48">
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5305,66 +5747,66 @@
       </c>
     </row>
     <row r="39" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="47" t="s">
         <v>1192</v>
       </c>
-      <c r="C39" s="50">
+      <c r="C39" s="45">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="44" t="s">
         <v>1181</v>
       </c>
-      <c r="C40" s="51">
+      <c r="C40" s="46">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="44" t="s">
         <v>1178</v>
       </c>
-      <c r="C41" s="51">
+      <c r="C41" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="44" t="s">
         <v>1177</v>
       </c>
-      <c r="C42" s="51">
+      <c r="C42" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="44" t="s">
         <v>1176</v>
       </c>
-      <c r="C43" s="51">
+      <c r="C43" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="44" t="s">
         <v>1174</v>
       </c>
-      <c r="C44" s="51">
+      <c r="C44" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="49" t="s">
+      <c r="B45" s="44" t="s">
         <v>1175</v>
       </c>
-      <c r="C45" s="51">
+      <c r="C45" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="44" t="s">
         <v>1173</v>
       </c>
-      <c r="C46" s="51">
+      <c r="C46" s="46">
         <v>1</v>
       </c>
     </row>
@@ -5384,7 +5826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="39" t="s">
         <v>1170</v>
       </c>
@@ -5392,7 +5834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B50" s="39" t="s">
         <v>1169</v>
       </c>
@@ -5400,15 +5842,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="49" t="s">
+    <row r="51" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="44" t="s">
         <v>1190</v>
       </c>
       <c r="C51" s="38">
         <v>1</v>
       </c>
+      <c r="E51">
+        <f>SUM(C31:C51)</f>
+        <v>298</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="R7:R11"/>
+    <mergeCell ref="S7:S11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11383,7 +11835,7 @@
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="59" t="s">
         <v>1013</v>
       </c>
       <c r="B3" t="s">
@@ -11466,7 +11918,7 @@
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A4" s="44"/>
+      <c r="A4" s="59"/>
       <c r="B4" t="s">
         <v>834</v>
       </c>
@@ -11550,7 +12002,7 @@
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A5" s="44"/>
+      <c r="A5" s="59"/>
       <c r="B5" t="s">
         <v>957</v>
       </c>
@@ -53849,7 +54301,7 @@
       </c>
     </row>
     <row r="588" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A588" s="45" t="s">
+      <c r="A588" s="60" t="s">
         <v>1062</v>
       </c>
       <c r="B588" t="s">
@@ -53935,7 +54387,7 @@
       </c>
     </row>
     <row r="589" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A589" s="45"/>
+      <c r="A589" s="60"/>
       <c r="B589" t="s">
         <v>249</v>
       </c>
@@ -54016,7 +54468,7 @@
       </c>
     </row>
     <row r="590" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A590" s="45"/>
+      <c r="A590" s="60"/>
       <c r="B590" t="s">
         <v>249</v>
       </c>
@@ -54103,7 +54555,7 @@
       </c>
     </row>
     <row r="591" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A591" s="45"/>
+      <c r="A591" s="60"/>
       <c r="B591" t="s">
         <v>198</v>
       </c>
@@ -56065,7 +56517,7 @@
       </c>
     </row>
     <row r="615" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A615" s="46" t="s">
+      <c r="A615" s="61" t="s">
         <v>1063</v>
       </c>
       <c r="B615" t="s">
@@ -56142,7 +56594,7 @@
       </c>
     </row>
     <row r="616" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A616" s="47"/>
+      <c r="A616" s="62"/>
       <c r="B616" t="s">
         <v>136</v>
       </c>
@@ -56214,7 +56666,7 @@
       </c>
     </row>
     <row r="617" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A617" s="47"/>
+      <c r="A617" s="62"/>
       <c r="B617" t="s">
         <v>136</v>
       </c>
@@ -56539,7 +56991,7 @@
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="59" t="s">
         <v>1013</v>
       </c>
       <c r="B3" t="s">
@@ -56625,7 +57077,7 @@
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A4" s="44"/>
+      <c r="A4" s="59"/>
       <c r="B4" t="s">
         <v>145</v>
       </c>
@@ -56709,7 +57161,7 @@
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A5" s="44"/>
+      <c r="A5" s="59"/>
       <c r="B5" t="s">
         <v>834</v>
       </c>
@@ -56793,7 +57245,7 @@
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A6" s="44"/>
+      <c r="A6" s="59"/>
       <c r="B6" t="s">
         <v>239</v>
       </c>
@@ -58653,7 +59105,7 @@
       </c>
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="60" t="s">
         <v>1062</v>
       </c>
       <c r="B28" t="s">
@@ -58736,7 +59188,7 @@
       </c>
     </row>
     <row r="29" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A29" s="45"/>
+      <c r="A29" s="60"/>
       <c r="B29" t="s">
         <v>834</v>
       </c>
@@ -58817,7 +59269,7 @@
       </c>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A30" s="45"/>
+      <c r="A30" s="60"/>
       <c r="B30" t="s">
         <v>242</v>
       </c>
@@ -60613,7 +61065,7 @@
       </c>
     </row>
     <row r="52" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A52" s="48" t="s">
+      <c r="A52" s="63" t="s">
         <v>1133</v>
       </c>
       <c r="B52" t="s">
@@ -60699,7 +61151,7 @@
       </c>
     </row>
     <row r="53" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A53" s="48"/>
+      <c r="A53" s="63"/>
       <c r="B53" t="s">
         <v>428</v>
       </c>
@@ -60783,7 +61235,7 @@
       </c>
     </row>
     <row r="54" spans="1:48" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="48"/>
+      <c r="A54" s="63"/>
       <c r="B54" s="10" t="s">
         <v>428</v>
       </c>

--- a/OREI_files/10-herd data/10herd_data_sharing_11_30_21.xlsx
+++ b/OREI_files/10-herd data/10herd_data_sharing_11_30_21.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="161" documentId="13_ncr:40009_{4E471A33-58E1-4D19-90EB-CEBAB155844B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3ECC36DB-3B39-4CD5-9914-84CD9BAB7D0C}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:40009_{4E471A33-58E1-4D19-90EB-CEBAB155844B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C887DEC7-5A46-48BD-826C-1F21ED274F99}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,20 +32,11 @@
     <sheet name="path3 IMI ID's" sheetId="8" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13045" uniqueCount="1202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13080" uniqueCount="1204">
   <si>
     <t>Freq</t>
   </si>
@@ -3747,6 +3738,12 @@
   </si>
   <si>
     <t xml:space="preserve"> No. IMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    M. fleuretti</t>
+  </si>
+  <si>
+    <t>S. auricularis, S. capitis, S. cohnii,                         S. epidermidis, S. gallinarum, S. hominis,            S. pseudintermedius, S. saprophyticus,               S. succinus</t>
   </si>
 </sst>
 </file>
@@ -4579,7 +4576,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4694,6 +4691,15 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4702,30 +4708,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -4744,6 +4726,31 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -4817,6 +4824,10 @@
 </file>
 
 <file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -5109,7 +5120,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5119,8 +5130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EA0BAF-4ED7-4706-9FE5-1419444756CA}">
   <dimension ref="B1:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="J19" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30:S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5156,18 +5167,18 @@
       <c r="C3" s="38">
         <v>190</v>
       </c>
-      <c r="P3" s="56" t="s">
+      <c r="P3" s="59" t="s">
         <v>1199</v>
       </c>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="58"/>
-      <c r="U3" s="56" t="s">
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="61"/>
+      <c r="U3" s="59" t="s">
         <v>1194</v>
       </c>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="58"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="61"/>
     </row>
     <row r="4" spans="2:24" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="39" t="s">
@@ -5220,13 +5231,13 @@
       <c r="L5" s="38">
         <v>190</v>
       </c>
-      <c r="P5" s="66" t="s">
+      <c r="P5" s="58" t="s">
         <v>1187</v>
       </c>
       <c r="Q5" s="38">
         <v>190</v>
       </c>
-      <c r="R5" s="64" t="s">
+      <c r="R5" s="56" t="s">
         <v>1196</v>
       </c>
       <c r="S5" s="45">
@@ -5258,13 +5269,13 @@
       <c r="L6" s="38">
         <v>28</v>
       </c>
-      <c r="P6" s="66" t="s">
+      <c r="P6" s="58" t="s">
         <v>1186</v>
       </c>
       <c r="Q6" s="38">
         <v>28</v>
       </c>
-      <c r="R6" s="65" t="s">
+      <c r="R6" s="57" t="s">
         <v>1197</v>
       </c>
       <c r="S6" s="46">
@@ -5296,16 +5307,16 @@
       <c r="L7" s="38">
         <v>19</v>
       </c>
-      <c r="P7" s="66" t="s">
+      <c r="P7" s="58" t="s">
         <v>1185</v>
       </c>
       <c r="Q7" s="38">
         <v>19</v>
       </c>
-      <c r="R7" s="67" t="s">
+      <c r="R7" s="62" t="s">
         <v>1195</v>
       </c>
-      <c r="S7" s="70">
+      <c r="S7" s="65">
         <v>1</v>
       </c>
       <c r="U7" s="39" t="s">
@@ -5334,14 +5345,14 @@
       <c r="L8" s="38">
         <v>15</v>
       </c>
-      <c r="P8" s="66" t="s">
+      <c r="P8" s="58" t="s">
         <v>1184</v>
       </c>
       <c r="Q8" s="38">
         <v>15</v>
       </c>
-      <c r="R8" s="68"/>
-      <c r="S8" s="71"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="66"/>
       <c r="U8" s="39" t="s">
         <v>1184</v>
       </c>
@@ -5368,14 +5379,14 @@
       <c r="L9" s="40">
         <v>15</v>
       </c>
-      <c r="P9" s="64" t="s">
+      <c r="P9" s="56" t="s">
         <v>1191</v>
       </c>
       <c r="Q9" s="48">
         <v>11</v>
       </c>
-      <c r="R9" s="68"/>
-      <c r="S9" s="71"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="66"/>
       <c r="U9" s="47" t="s">
         <v>1191</v>
       </c>
@@ -5402,14 +5413,14 @@
       <c r="L10" s="38">
         <v>7</v>
       </c>
-      <c r="P10" s="66" t="s">
+      <c r="P10" s="58" t="s">
         <v>1182</v>
       </c>
       <c r="Q10" s="38">
         <v>7</v>
       </c>
-      <c r="R10" s="68"/>
-      <c r="S10" s="71"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="66"/>
       <c r="U10" s="39" t="s">
         <v>1182</v>
       </c>
@@ -5436,14 +5447,14 @@
       <c r="L11" s="38">
         <v>7</v>
       </c>
-      <c r="P11" s="66" t="s">
+      <c r="P11" s="58" t="s">
         <v>1180</v>
       </c>
       <c r="Q11" s="38">
         <v>7</v>
       </c>
-      <c r="R11" s="69"/>
-      <c r="S11" s="72"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="67"/>
       <c r="U11" s="39" t="s">
         <v>1180</v>
       </c>
@@ -5470,7 +5481,7 @@
       <c r="L12" s="38">
         <v>5</v>
       </c>
-      <c r="P12" s="66" t="s">
+      <c r="P12" s="58" t="s">
         <v>1179</v>
       </c>
       <c r="Q12" s="38">
@@ -5521,7 +5532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:24" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="39" t="s">
         <v>1176</v>
       </c>
@@ -5534,6 +5545,12 @@
       <c r="L14" s="38">
         <v>1</v>
       </c>
+      <c r="P14" s="59" t="s">
+        <v>1199</v>
+      </c>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="61"/>
       <c r="U14" s="44" t="s">
         <v>1181</v>
       </c>
@@ -5547,7 +5564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="39" t="s">
         <v>1174</v>
       </c>
@@ -5559,6 +5576,18 @@
       </c>
       <c r="L15" s="38">
         <v>1</v>
+      </c>
+      <c r="P15" s="49" t="s">
+        <v>1200</v>
+      </c>
+      <c r="Q15" s="50" t="s">
+        <v>1201</v>
+      </c>
+      <c r="R15" s="49" t="s">
+        <v>1200</v>
+      </c>
+      <c r="S15" s="49" t="s">
+        <v>1201</v>
       </c>
       <c r="U15" s="51" t="s">
         <v>1178</v>
@@ -5580,8 +5609,20 @@
       <c r="L16" s="38">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P16" s="58" t="s">
+        <v>1187</v>
+      </c>
+      <c r="Q16" s="38">
+        <v>190</v>
+      </c>
+      <c r="R16" s="56" t="s">
+        <v>1196</v>
+      </c>
+      <c r="S16" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="39" t="s">
         <v>1173</v>
       </c>
@@ -5594,8 +5635,20 @@
       <c r="L17" s="38">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P17" s="58" t="s">
+        <v>1186</v>
+      </c>
+      <c r="Q17" s="38">
+        <v>28</v>
+      </c>
+      <c r="R17" s="73" t="s">
+        <v>1202</v>
+      </c>
+      <c r="S17" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="39" t="s">
         <v>1172</v>
       </c>
@@ -5608,8 +5661,20 @@
       <c r="L18" s="38">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P18" s="58" t="s">
+        <v>1185</v>
+      </c>
+      <c r="Q18" s="38">
+        <v>19</v>
+      </c>
+      <c r="R18" s="57" t="s">
+        <v>1197</v>
+      </c>
+      <c r="S18" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="39" t="s">
         <v>1171</v>
       </c>
@@ -5622,8 +5687,20 @@
       <c r="L19" s="38">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P19" s="58" t="s">
+        <v>1184</v>
+      </c>
+      <c r="Q19" s="38">
+        <v>15</v>
+      </c>
+      <c r="R19" s="74" t="s">
+        <v>1203</v>
+      </c>
+      <c r="S19" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="39" t="s">
         <v>1170</v>
       </c>
@@ -5640,8 +5717,16 @@
       <c r="L20" s="38">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P20" s="56" t="s">
+        <v>1191</v>
+      </c>
+      <c r="Q20" s="48">
+        <v>12</v>
+      </c>
+      <c r="R20" s="75"/>
+      <c r="S20" s="66"/>
+    </row>
+    <row r="21" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="39" t="s">
         <v>1169</v>
       </c>
@@ -5666,87 +5751,236 @@
       <c r="L21" s="38">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="P21" s="58" t="s">
+        <v>1182</v>
+      </c>
+      <c r="Q21" s="38">
+        <v>7</v>
+      </c>
+      <c r="R21" s="75"/>
+      <c r="S21" s="66"/>
+    </row>
+    <row r="22" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M22">
         <f>SUM(L5:L21)</f>
         <v>295</v>
       </c>
-    </row>
-    <row r="29" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="2:13" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P22" s="58" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Q22" s="38">
+        <v>7</v>
+      </c>
+      <c r="R22" s="76"/>
+      <c r="S22" s="67"/>
+    </row>
+    <row r="23" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P23" s="58" t="s">
+        <v>1179</v>
+      </c>
+      <c r="Q23" s="38">
+        <v>5</v>
+      </c>
+      <c r="R23" s="55" t="s">
+        <v>1198</v>
+      </c>
+      <c r="S23" s="54">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="Q25">
+        <f>SUM(Q16:Q23)</f>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="Q26">
+        <f>SUM(S16:S18)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="Q27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="Q28">
+        <f>SUM(Q25:Q27)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="2:19" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="43" t="s">
         <v>1189</v>
       </c>
       <c r="C30" s="42" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="31" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P30" s="49" t="s">
+        <v>1200</v>
+      </c>
+      <c r="Q30" s="50" t="s">
+        <v>1201</v>
+      </c>
+      <c r="R30" s="49" t="s">
+        <v>1200</v>
+      </c>
+      <c r="S30" s="49" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="39" t="s">
         <v>1187</v>
       </c>
       <c r="C31" s="38">
         <v>190</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P31" s="58" t="s">
+        <v>1187</v>
+      </c>
+      <c r="Q31" s="38">
+        <v>190</v>
+      </c>
+      <c r="R31" s="56" t="s">
+        <v>1196</v>
+      </c>
+      <c r="S31" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="39" t="s">
         <v>1186</v>
       </c>
       <c r="C32" s="38">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P32" s="58" t="s">
+        <v>1186</v>
+      </c>
+      <c r="Q32" s="38">
+        <v>28</v>
+      </c>
+      <c r="R32" s="73" t="s">
+        <v>1202</v>
+      </c>
+      <c r="S32" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="39" t="s">
         <v>1185</v>
       </c>
       <c r="C33" s="38">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P33" s="58" t="s">
+        <v>1185</v>
+      </c>
+      <c r="Q33" s="38">
+        <v>19</v>
+      </c>
+      <c r="R33" s="57" t="s">
+        <v>1197</v>
+      </c>
+      <c r="S33" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="39" t="s">
         <v>1184</v>
       </c>
       <c r="C34" s="38">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P34" s="58" t="s">
+        <v>1184</v>
+      </c>
+      <c r="Q34" s="38">
+        <v>15</v>
+      </c>
+      <c r="R34" s="74" t="s">
+        <v>1203</v>
+      </c>
+      <c r="S34" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="47" t="s">
         <v>1191</v>
       </c>
       <c r="C35" s="48">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P35" s="56" t="s">
+        <v>1191</v>
+      </c>
+      <c r="Q35" s="48">
+        <v>12</v>
+      </c>
+      <c r="R35" s="75"/>
+      <c r="S35" s="66"/>
+    </row>
+    <row r="36" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B36" s="39" t="s">
         <v>1182</v>
       </c>
       <c r="C36" s="38">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P36" s="58" t="s">
+        <v>1182</v>
+      </c>
+      <c r="Q36" s="38">
+        <v>7</v>
+      </c>
+      <c r="R36" s="75"/>
+      <c r="S36" s="66"/>
+    </row>
+    <row r="37" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B37" s="39" t="s">
         <v>1180</v>
       </c>
       <c r="C37" s="38">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P37" s="58" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Q37" s="38">
+        <v>7</v>
+      </c>
+      <c r="R37" s="76"/>
+      <c r="S37" s="67"/>
+    </row>
+    <row r="38" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B38" s="39" t="s">
         <v>1179</v>
       </c>
       <c r="C38" s="38">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P38" s="58" t="s">
+        <v>1179</v>
+      </c>
+      <c r="Q38" s="38">
+        <v>5</v>
+      </c>
+      <c r="R38" s="55" t="s">
+        <v>1198</v>
+      </c>
+      <c r="S38" s="54">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B39" s="47" t="s">
         <v>1192</v>
       </c>
@@ -5754,7 +5988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B40" s="44" t="s">
         <v>1181</v>
       </c>
@@ -5762,7 +5996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="44" t="s">
         <v>1178</v>
       </c>
@@ -5770,7 +6004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="44" t="s">
         <v>1177</v>
       </c>
@@ -5778,7 +6012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B43" s="44" t="s">
         <v>1176</v>
       </c>
@@ -5786,7 +6020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B44" s="44" t="s">
         <v>1174</v>
       </c>
@@ -5794,7 +6028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B45" s="44" t="s">
         <v>1175</v>
       </c>
@@ -5802,7 +6036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B46" s="44" t="s">
         <v>1173</v>
       </c>
@@ -5810,7 +6044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B47" s="39" t="s">
         <v>1172</v>
       </c>
@@ -5818,7 +6052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B48" s="39" t="s">
         <v>1171</v>
       </c>
@@ -5855,11 +6089,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
+    <mergeCell ref="R34:R37"/>
+    <mergeCell ref="S34:S37"/>
+    <mergeCell ref="R19:R22"/>
+    <mergeCell ref="S19:S22"/>
     <mergeCell ref="P3:S3"/>
     <mergeCell ref="U3:X3"/>
     <mergeCell ref="R7:R11"/>
     <mergeCell ref="S7:S11"/>
+    <mergeCell ref="P14:S14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11835,7 +12074,7 @@
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="68" t="s">
         <v>1013</v>
       </c>
       <c r="B3" t="s">
@@ -11918,7 +12157,7 @@
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A4" s="59"/>
+      <c r="A4" s="68"/>
       <c r="B4" t="s">
         <v>834</v>
       </c>
@@ -12002,7 +12241,7 @@
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A5" s="59"/>
+      <c r="A5" s="68"/>
       <c r="B5" t="s">
         <v>957</v>
       </c>
@@ -54301,7 +54540,7 @@
       </c>
     </row>
     <row r="588" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A588" s="60" t="s">
+      <c r="A588" s="69" t="s">
         <v>1062</v>
       </c>
       <c r="B588" t="s">
@@ -54387,7 +54626,7 @@
       </c>
     </row>
     <row r="589" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A589" s="60"/>
+      <c r="A589" s="69"/>
       <c r="B589" t="s">
         <v>249</v>
       </c>
@@ -54468,7 +54707,7 @@
       </c>
     </row>
     <row r="590" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A590" s="60"/>
+      <c r="A590" s="69"/>
       <c r="B590" t="s">
         <v>249</v>
       </c>
@@ -54555,7 +54794,7 @@
       </c>
     </row>
     <row r="591" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A591" s="60"/>
+      <c r="A591" s="69"/>
       <c r="B591" t="s">
         <v>198</v>
       </c>
@@ -56517,7 +56756,7 @@
       </c>
     </row>
     <row r="615" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A615" s="61" t="s">
+      <c r="A615" s="70" t="s">
         <v>1063</v>
       </c>
       <c r="B615" t="s">
@@ -56594,7 +56833,7 @@
       </c>
     </row>
     <row r="616" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A616" s="62"/>
+      <c r="A616" s="71"/>
       <c r="B616" t="s">
         <v>136</v>
       </c>
@@ -56666,7 +56905,7 @@
       </c>
     </row>
     <row r="617" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A617" s="62"/>
+      <c r="A617" s="71"/>
       <c r="B617" t="s">
         <v>136</v>
       </c>
@@ -56991,7 +57230,7 @@
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="68" t="s">
         <v>1013</v>
       </c>
       <c r="B3" t="s">
@@ -57077,7 +57316,7 @@
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A4" s="59"/>
+      <c r="A4" s="68"/>
       <c r="B4" t="s">
         <v>145</v>
       </c>
@@ -57161,7 +57400,7 @@
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A5" s="59"/>
+      <c r="A5" s="68"/>
       <c r="B5" t="s">
         <v>834</v>
       </c>
@@ -57245,7 +57484,7 @@
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A6" s="59"/>
+      <c r="A6" s="68"/>
       <c r="B6" t="s">
         <v>239</v>
       </c>
@@ -59105,7 +59344,7 @@
       </c>
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="69" t="s">
         <v>1062</v>
       </c>
       <c r="B28" t="s">
@@ -59188,7 +59427,7 @@
       </c>
     </row>
     <row r="29" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A29" s="60"/>
+      <c r="A29" s="69"/>
       <c r="B29" t="s">
         <v>834</v>
       </c>
@@ -59269,7 +59508,7 @@
       </c>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A30" s="60"/>
+      <c r="A30" s="69"/>
       <c r="B30" t="s">
         <v>242</v>
       </c>
@@ -61065,7 +61304,7 @@
       </c>
     </row>
     <row r="52" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A52" s="63" t="s">
+      <c r="A52" s="72" t="s">
         <v>1133</v>
       </c>
       <c r="B52" t="s">
@@ -61151,7 +61390,7 @@
       </c>
     </row>
     <row r="53" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A53" s="63"/>
+      <c r="A53" s="72"/>
       <c r="B53" t="s">
         <v>428</v>
       </c>
@@ -61235,7 +61474,7 @@
       </c>
     </row>
     <row r="54" spans="1:48" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="63"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="10" t="s">
         <v>428</v>
       </c>
